--- a/IONQ.xlsx
+++ b/IONQ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F476D8-80EB-4F84-BC68-1A46203A9BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA09386-E008-4741-B51A-C4BB235A6C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35220" yWindow="1860" windowWidth="33195" windowHeight="17940" xr2:uid="{AB3C49AB-D501-4FD3-A043-98BB663A0B7E}"/>
+    <workbookView xWindow="-31040" yWindow="1210" windowWidth="28840" windowHeight="15250" xr2:uid="{AB3C49AB-D501-4FD3-A043-98BB663A0B7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -556,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BE29629-62F1-4661-9953-74545B1C68EA}">
   <dimension ref="B2:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -574,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>7</v>
+        <v>31.58</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
@@ -600,7 +600,7 @@
       </c>
       <c r="J4" s="4">
         <f>+J2*J3</f>
-        <v>1446.277</v>
+        <v>6524.7753799999991</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
@@ -638,7 +638,7 @@
       </c>
       <c r="J7" s="4">
         <f>+J4-J5+J6</f>
-        <v>990.34699999999998</v>
+        <v>6068.8453799999988</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
@@ -685,6 +685,12 @@
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="I16">
+        <f>100*2^14</f>
+        <v>1638400</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
@@ -705,7 +711,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
+      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -772,8 +778,29 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
+      <c r="F3" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="G3" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="H3" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="I3" s="3">
+        <v>6.1</v>
+      </c>
+      <c r="J3" s="3">
+        <v>6.1</v>
+      </c>
+      <c r="K3" s="3">
+        <v>7.6</v>
+      </c>
       <c r="L3" s="3">
         <v>11.4</v>
+      </c>
+      <c r="M3" s="3">
+        <v>12.4</v>
       </c>
       <c r="P3" s="4">
         <v>11131</v>

--- a/IONQ.xlsx
+++ b/IONQ.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA09386-E008-4741-B51A-C4BB235A6C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA97BDC-B5D5-4C26-A46C-D495086C4885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31040" yWindow="1210" windowWidth="28840" windowHeight="15250" xr2:uid="{AB3C49AB-D501-4FD3-A043-98BB663A0B7E}"/>
+    <workbookView xWindow="-50010" yWindow="1380" windowWidth="25080" windowHeight="18540" activeTab="2" xr2:uid="{AB3C49AB-D501-4FD3-A043-98BB663A0B7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="Model" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Model" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,8 +37,47 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={6FD4C426-31B6-4D62-943F-4388146ADBBE}</author>
+    <author>tc={1A0A1B49-65D0-4998-B407-2792C10D6299}</author>
+    <author>tc={A6E9DABB-1376-4112-A26B-944B948407A8}</author>
+  </authors>
+  <commentList>
+    <comment ref="X7" authorId="0" shapeId="0" xr:uid="{6FD4C426-31B6-4D62-943F-4388146ADBBE}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    4 contracts
+2 significant customers</t>
+      </text>
+    </comment>
+    <comment ref="Y7" authorId="1" shapeId="0" xr:uid="{1A0A1B49-65D0-4998-B407-2792C10D6299}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    30.5m RPO, 60% in the next 12 months
+3 significant customers = 70%</t>
+      </text>
+    </comment>
+    <comment ref="Z7" authorId="2" shapeId="0" xr:uid="{A6E9DABB-1376-4112-A26B-944B948407A8}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    69.1m RPO
+2 customers = 58%</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="87">
   <si>
     <t>Price</t>
   </si>
@@ -157,13 +197,157 @@
   </si>
   <si>
     <t>Forte - produced 1 in 2023</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Prepaids</t>
+  </si>
+  <si>
+    <t>PP&amp;E</t>
+  </si>
+  <si>
+    <t>Leases</t>
+  </si>
+  <si>
+    <t>Goodwill</t>
+  </si>
+  <si>
+    <t>ONCA</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>Lease</t>
+  </si>
+  <si>
+    <t>DR</t>
+  </si>
+  <si>
+    <t>ESOP</t>
+  </si>
+  <si>
+    <t>L+SE</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>ONCL</t>
+  </si>
+  <si>
+    <t>Warrants</t>
+  </si>
+  <si>
+    <t>Operating Expenses</t>
+  </si>
+  <si>
+    <t>Operating Income</t>
+  </si>
+  <si>
+    <t>Interest Income</t>
+  </si>
+  <si>
+    <t>Pretax Income</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>Net Income</t>
+  </si>
+  <si>
+    <t>EPS</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Terminal</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>Share</t>
+  </si>
+  <si>
+    <t>11 qubit computer mentioned in S-1</t>
+  </si>
+  <si>
+    <t>CEO: Peter Chapman since 2019</t>
+  </si>
+  <si>
+    <t>Q121</t>
+  </si>
+  <si>
+    <t>Q221</t>
+  </si>
+  <si>
+    <t>Q321</t>
+  </si>
+  <si>
+    <t>Q421</t>
+  </si>
+  <si>
+    <t>20-qubit mentioned in 2021 10-K</t>
+  </si>
+  <si>
+    <t>Net new business</t>
+  </si>
+  <si>
+    <t>Customer 1</t>
+  </si>
+  <si>
+    <t>Customer 2</t>
+  </si>
+  <si>
+    <t>Air Force</t>
+  </si>
+  <si>
+    <t>Customers</t>
+  </si>
+  <si>
+    <t>Airbus</t>
+  </si>
+  <si>
+    <t>General Dynamics</t>
+  </si>
+  <si>
+    <t>Oak Ridge</t>
+  </si>
+  <si>
+    <t>AFRL</t>
+  </si>
+  <si>
+    <t>Lockheed</t>
+  </si>
+  <si>
+    <t>Caterpillar</t>
+  </si>
+  <si>
+    <t>Nvidia</t>
+  </si>
+  <si>
+    <t>Hyundai</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -183,6 +367,19 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -207,7 +404,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -217,6 +414,25 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -235,6 +451,166 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>325257</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>29121</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1431F580-096B-7288-456E-7CCCE1058BFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10078857" cy="3915321"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4999861B-7DFA-3122-0B6E-B8BEAAAA8103}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8284029" y="54429"/>
+          <a:ext cx="0" cy="5959928"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9E8BEAA-6B35-453F-9186-E231749DFDAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11321143" y="0"/>
+          <a:ext cx="0" cy="6776356"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Martin Shkreli" id="{8FE8731E-1419-4CF8-BDB7-325E36ECD730}" userId="9ffda80931a57275" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -552,12 +928,29 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="X7" dT="2025-01-07T19:48:39.04" personId="{8FE8731E-1419-4CF8-BDB7-325E36ECD730}" id="{6FD4C426-31B6-4D62-943F-4388146ADBBE}">
+    <text>4 contracts
+2 significant customers</text>
+  </threadedComment>
+  <threadedComment ref="Y7" dT="2025-01-07T19:59:59.56" personId="{8FE8731E-1419-4CF8-BDB7-325E36ECD730}" id="{1A0A1B49-65D0-4998-B407-2792C10D6299}">
+    <text>30.5m RPO, 60% in the next 12 months
+3 significant customers = 70%</text>
+  </threadedComment>
+  <threadedComment ref="Z7" dT="2025-01-07T20:05:37.94" personId="{8FE8731E-1419-4CF8-BDB7-325E36ECD730}" id="{A6E9DABB-1376-4112-A26B-944B948407A8}">
+    <text>69.1m RPO
+2 customers = 58%</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BE29629-62F1-4661-9953-74545B1C68EA}">
-  <dimension ref="B2:K17"/>
+  <dimension ref="B2:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -574,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>31.58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
@@ -585,10 +978,10 @@
         <v>1</v>
       </c>
       <c r="J3" s="4">
-        <v>206.61099999999999</v>
+        <v>214.30505299999999</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
@@ -600,7 +993,7 @@
       </c>
       <c r="J4" s="4">
         <f>+J2*J3</f>
-        <v>6524.7753799999991</v>
+        <v>10715.252649999999</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
@@ -611,11 +1004,10 @@
         <v>3</v>
       </c>
       <c r="J5" s="4">
-        <f>35.665+319.776+100.489</f>
-        <v>455.93000000000006</v>
+        <v>383</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
@@ -626,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
@@ -638,7 +1030,7 @@
       </c>
       <c r="J7" s="4">
         <f>+J4-J5+J6</f>
-        <v>6068.8453799999988</v>
+        <v>10332.252649999999</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
@@ -668,9 +1060,14 @@
         <v>2015</v>
       </c>
     </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="5" t="s">
-        <v>32</v>
+      <c r="B12" t="s">
+        <v>33</v>
       </c>
       <c r="I12" t="s">
         <v>16</v>
@@ -682,20 +1079,73 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="I16">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17">
         <f>100*2^14</f>
         <v>1638400</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="5" t="s">
-        <v>38</v>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -704,197 +1154,2200 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9653554-7BDA-444D-A237-3389B1272280}">
-  <dimension ref="A1:R10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C02FAF-F034-4DC1-A333-3CF2A6D6F2AB}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9653554-7BDA-444D-A237-3389B1272280}">
+  <dimension ref="A1:BW47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AC3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
+      <selection pane="bottomRight" activeCell="AM7" sqref="AM7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="14" width="9.140625" style="3"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="18" width="9.140625" style="3"/>
+    <col min="39" max="39" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
       <c r="C2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="P2">
+      <c r="V2">
+        <v>2019</v>
+      </c>
+      <c r="W2">
+        <v>2020</v>
+      </c>
+      <c r="X2">
+        <v>2021</v>
+      </c>
+      <c r="Y2">
         <v>2022</v>
       </c>
-      <c r="Q2">
+      <c r="Z2">
         <v>2023</v>
       </c>
-      <c r="R2">
-        <f>+Q2+1</f>
+      <c r="AA2">
+        <f>+Z2+1</f>
         <v>2024</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AB2">
+        <v>2025</v>
+      </c>
+      <c r="AC2">
+        <f>+AB2+1</f>
+        <v>2026</v>
+      </c>
+      <c r="AD2">
+        <f t="shared" ref="AD2:AT2" si="0">+AC2+1</f>
+        <v>2027</v>
+      </c>
+      <c r="AE2">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="AF2">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="AG2">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+      <c r="AH2">
+        <f t="shared" si="0"/>
+        <v>2031</v>
+      </c>
+      <c r="AI2">
+        <f t="shared" si="0"/>
+        <v>2032</v>
+      </c>
+      <c r="AJ2">
+        <f t="shared" si="0"/>
+        <v>2033</v>
+      </c>
+      <c r="AK2">
+        <f t="shared" si="0"/>
+        <v>2034</v>
+      </c>
+      <c r="AL2">
+        <f t="shared" si="0"/>
+        <v>2035</v>
+      </c>
+      <c r="AM2">
+        <f t="shared" si="0"/>
+        <v>2036</v>
+      </c>
+      <c r="AN2">
+        <f t="shared" si="0"/>
+        <v>2037</v>
+      </c>
+      <c r="AO2">
+        <f t="shared" si="0"/>
+        <v>2038</v>
+      </c>
+      <c r="AP2">
+        <f t="shared" si="0"/>
+        <v>2039</v>
+      </c>
+      <c r="AQ2">
+        <f t="shared" si="0"/>
+        <v>2040</v>
+      </c>
+      <c r="AR2">
+        <f t="shared" si="0"/>
+        <v>2041</v>
+      </c>
+      <c r="AS2">
+        <f t="shared" si="0"/>
+        <v>2042</v>
+      </c>
+      <c r="AT2">
+        <f t="shared" si="0"/>
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y3" s="10">
+        <f>+Y7*0.1</f>
+        <v>1.1131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y4" s="10">
+        <f>+Y7*0.1</f>
+        <v>1.1131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z5" s="10">
+        <f>+Z7-Z6</f>
+        <v>3.7420000000000009</v>
+      </c>
+      <c r="AA5" s="10">
+        <f>+AA7-AA6</f>
+        <v>16.122999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y6" s="10">
+        <f>+Y7-Y4-Y3-3.3</f>
+        <v>5.6048000000000018</v>
+      </c>
+      <c r="Z6">
+        <f>30.5*0.6</f>
+        <v>18.3</v>
+      </c>
+      <c r="AA6" s="10">
+        <f>69.1*0.4</f>
+        <v>27.64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="3">
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14">
         <v>3.8</v>
       </c>
-      <c r="G3" s="3">
+      <c r="K7" s="14">
         <v>4.3</v>
       </c>
-      <c r="H3" s="3">
+      <c r="L7" s="14">
         <v>5.5</v>
       </c>
-      <c r="I3" s="3">
-        <v>6.1</v>
-      </c>
-      <c r="J3" s="3">
-        <v>6.1</v>
-      </c>
-      <c r="K3" s="3">
-        <v>7.6</v>
-      </c>
-      <c r="L3" s="3">
-        <v>11.4</v>
-      </c>
-      <c r="M3" s="3">
+      <c r="M7" s="14">
+        <v>6.1360000000000001</v>
+      </c>
+      <c r="N7" s="14">
+        <f>+Z7-M7-L7-K7</f>
+        <v>6.1060000000000025</v>
+      </c>
+      <c r="O7" s="14">
+        <v>7.5819999999999999</v>
+      </c>
+      <c r="P7" s="14">
+        <v>11.381</v>
+      </c>
+      <c r="Q7" s="14">
         <v>12.4</v>
       </c>
-      <c r="P3" s="4">
-        <v>11131</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>22042</v>
-      </c>
-      <c r="R3" s="4">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="R7" s="14">
+        <f>+Q7</f>
+        <v>12.4</v>
+      </c>
+      <c r="V7" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="W7" s="13">
+        <v>0</v>
+      </c>
+      <c r="X7" s="13">
+        <v>2.0990000000000002</v>
+      </c>
+      <c r="Y7" s="13">
+        <v>11.131</v>
+      </c>
+      <c r="Z7" s="13">
+        <v>22.042000000000002</v>
+      </c>
+      <c r="AA7" s="13">
+        <f>SUM(O7:R7)</f>
+        <v>43.762999999999998</v>
+      </c>
+      <c r="AB7" s="13">
+        <f>+AA7*1.9</f>
+        <v>83.149699999999996</v>
+      </c>
+      <c r="AC7" s="13">
+        <f>+AB7*1.9</f>
+        <v>157.98442999999997</v>
+      </c>
+      <c r="AD7" s="13">
+        <f>+AC7*1.9</f>
+        <v>300.17041699999993</v>
+      </c>
+      <c r="AE7" s="13">
+        <f>+AD7*1.9</f>
+        <v>570.32379229999981</v>
+      </c>
+      <c r="AF7" s="13">
+        <f>+AE7*1.9</f>
+        <v>1083.6152053699996</v>
+      </c>
+      <c r="AG7" s="13">
+        <f>+AF7*1.1</f>
+        <v>1191.9767259069997</v>
+      </c>
+      <c r="AH7" s="13">
+        <f t="shared" ref="AH7:AL7" si="1">+AG7*1.1</f>
+        <v>1311.1743984976997</v>
+      </c>
+      <c r="AI7" s="13">
+        <f t="shared" si="1"/>
+        <v>1442.2918383474698</v>
+      </c>
+      <c r="AJ7" s="13">
+        <f t="shared" si="1"/>
+        <v>1586.5210221822169</v>
+      </c>
+      <c r="AK7" s="13">
+        <f t="shared" si="1"/>
+        <v>1745.1731244004388</v>
+      </c>
+      <c r="AL7" s="13">
+        <f t="shared" si="1"/>
+        <v>1919.6904368404828</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="4">
-        <v>2944</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>8108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11">
+        <v>1.036</v>
+      </c>
+      <c r="L8" s="11">
+        <v>1.901</v>
+      </c>
+      <c r="M8" s="11">
+        <v>2.008</v>
+      </c>
+      <c r="N8" s="11">
+        <f>+Z8-M8-L8-K8</f>
+        <v>3.1630000000000007</v>
+      </c>
+      <c r="O8" s="11">
+        <v>3.4140000000000001</v>
+      </c>
+      <c r="P8" s="11">
+        <v>5.6230000000000002</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>6.5149999999999997</v>
+      </c>
+      <c r="R8" s="11">
+        <f>+R7*0.5</f>
+        <v>6.2</v>
+      </c>
+      <c r="W8" s="10">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="X8" s="10">
+        <v>1.04</v>
+      </c>
+      <c r="Y8" s="10">
+        <v>2.944</v>
+      </c>
+      <c r="Z8" s="10">
+        <v>8.1080000000000005</v>
+      </c>
+      <c r="AA8" s="10">
+        <f>SUM(O8:R8)</f>
+        <v>21.751999999999999</v>
+      </c>
+      <c r="AB8" s="10">
+        <f>+AB7-AB9</f>
+        <v>24.94491</v>
+      </c>
+      <c r="AC8" s="10">
+        <f t="shared" ref="AC8:AL8" si="2">+AC7-AC9</f>
+        <v>47.395329000000004</v>
+      </c>
+      <c r="AD8" s="10">
+        <f t="shared" si="2"/>
+        <v>90.051125099999979</v>
+      </c>
+      <c r="AE8" s="10">
+        <f t="shared" si="2"/>
+        <v>171.09713768999995</v>
+      </c>
+      <c r="AF8" s="10">
+        <f t="shared" si="2"/>
+        <v>325.08456161099991</v>
+      </c>
+      <c r="AG8" s="10">
+        <f t="shared" si="2"/>
+        <v>357.59301777209998</v>
+      </c>
+      <c r="AH8" s="10">
+        <f t="shared" si="2"/>
+        <v>393.35231954930998</v>
+      </c>
+      <c r="AI8" s="10">
+        <f t="shared" si="2"/>
+        <v>432.68755150424101</v>
+      </c>
+      <c r="AJ8" s="10">
+        <f t="shared" si="2"/>
+        <v>475.95630665466524</v>
+      </c>
+      <c r="AK8" s="10">
+        <f t="shared" si="2"/>
+        <v>523.55193732013163</v>
+      </c>
+      <c r="AL8" s="10">
+        <f t="shared" si="2"/>
+        <v>575.9071310521449</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="P5" s="4">
-        <f>+P3-P4</f>
-        <v>8187</v>
-      </c>
-      <c r="Q5" s="4">
-        <f>+Q3-Q4</f>
-        <v>13934</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11">
+        <f t="shared" ref="K9:R9" si="3">+K7-K8</f>
+        <v>3.2639999999999998</v>
+      </c>
+      <c r="L9" s="11">
+        <f t="shared" si="3"/>
+        <v>3.5990000000000002</v>
+      </c>
+      <c r="M9" s="11">
+        <f t="shared" si="3"/>
+        <v>4.1280000000000001</v>
+      </c>
+      <c r="N9" s="11">
+        <f t="shared" si="3"/>
+        <v>2.9430000000000018</v>
+      </c>
+      <c r="O9" s="11">
+        <f t="shared" si="3"/>
+        <v>4.1679999999999993</v>
+      </c>
+      <c r="P9" s="11">
+        <f t="shared" si="3"/>
+        <v>5.758</v>
+      </c>
+      <c r="Q9" s="11">
+        <f t="shared" si="3"/>
+        <v>5.8850000000000007</v>
+      </c>
+      <c r="R9" s="11">
+        <f t="shared" si="3"/>
+        <v>6.2</v>
+      </c>
+      <c r="W9" s="10">
+        <f>+W7-W8</f>
+        <v>-0.14299999999999999</v>
+      </c>
+      <c r="X9" s="10">
+        <f>+X7-X8</f>
+        <v>1.0590000000000002</v>
+      </c>
+      <c r="Y9" s="10">
+        <f>+Y7-Y8</f>
+        <v>8.1870000000000012</v>
+      </c>
+      <c r="Z9" s="10">
+        <f>+Z7-Z8</f>
+        <v>13.934000000000001</v>
+      </c>
+      <c r="AA9" s="10">
+        <f>+AA7-AA8</f>
+        <v>22.010999999999999</v>
+      </c>
+      <c r="AB9" s="10">
+        <f>+AB7*0.7</f>
+        <v>58.204789999999996</v>
+      </c>
+      <c r="AC9" s="10">
+        <f t="shared" ref="AC9:AL9" si="4">+AC7*0.7</f>
+        <v>110.58910099999997</v>
+      </c>
+      <c r="AD9" s="10">
+        <f t="shared" si="4"/>
+        <v>210.11929189999995</v>
+      </c>
+      <c r="AE9" s="10">
+        <f t="shared" si="4"/>
+        <v>399.22665460999985</v>
+      </c>
+      <c r="AF9" s="10">
+        <f t="shared" si="4"/>
+        <v>758.53064375899964</v>
+      </c>
+      <c r="AG9" s="10">
+        <f t="shared" si="4"/>
+        <v>834.38370813489973</v>
+      </c>
+      <c r="AH9" s="10">
+        <f t="shared" si="4"/>
+        <v>917.82207894838973</v>
+      </c>
+      <c r="AI9" s="10">
+        <f t="shared" si="4"/>
+        <v>1009.6042868432288</v>
+      </c>
+      <c r="AJ9" s="10">
+        <f t="shared" si="4"/>
+        <v>1110.5647155275517</v>
+      </c>
+      <c r="AK9" s="10">
+        <f t="shared" si="4"/>
+        <v>1221.6211870803072</v>
+      </c>
+      <c r="AL9" s="10">
+        <f t="shared" si="4"/>
+        <v>1343.7833057883379</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="P6" s="4">
-        <v>43978</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>92321</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11">
+        <v>16.233000000000001</v>
+      </c>
+      <c r="L10" s="11">
+        <v>19.869</v>
+      </c>
+      <c r="M10" s="11">
+        <v>24.599</v>
+      </c>
+      <c r="N10" s="11">
+        <f>+Z10-M10-L10-K10</f>
+        <v>31.619999999999994</v>
+      </c>
+      <c r="O10" s="11">
+        <v>32.368000000000002</v>
+      </c>
+      <c r="P10" s="11">
+        <v>31.204000000000001</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>33.177999999999997</v>
+      </c>
+      <c r="R10" s="11">
+        <f t="shared" ref="R10:R11" si="5">+Q10</f>
+        <v>33.177999999999997</v>
+      </c>
+      <c r="W10" s="10">
+        <v>10.157</v>
+      </c>
+      <c r="X10" s="10">
+        <v>20.228000000000002</v>
+      </c>
+      <c r="Y10" s="10">
+        <v>43.978000000000002</v>
+      </c>
+      <c r="Z10" s="10">
+        <v>92.320999999999998</v>
+      </c>
+      <c r="AA10" s="10">
+        <f t="shared" ref="AA10:AA12" si="6">SUM(O10:R10)</f>
+        <v>129.928</v>
+      </c>
+      <c r="AB10" s="10">
+        <f>+AA10*1.05</f>
+        <v>136.42439999999999</v>
+      </c>
+      <c r="AC10" s="10">
+        <f t="shared" ref="AC10:AL10" si="7">+AB10*1.05</f>
+        <v>143.24562</v>
+      </c>
+      <c r="AD10" s="10">
+        <f t="shared" si="7"/>
+        <v>150.40790100000001</v>
+      </c>
+      <c r="AE10" s="10">
+        <f t="shared" si="7"/>
+        <v>157.92829605000003</v>
+      </c>
+      <c r="AF10" s="10">
+        <f t="shared" si="7"/>
+        <v>165.82471085250003</v>
+      </c>
+      <c r="AG10" s="10">
+        <f t="shared" si="7"/>
+        <v>174.11594639512504</v>
+      </c>
+      <c r="AH10" s="10">
+        <f t="shared" si="7"/>
+        <v>182.82174371488131</v>
+      </c>
+      <c r="AI10" s="10">
+        <f t="shared" si="7"/>
+        <v>191.96283090062539</v>
+      </c>
+      <c r="AJ10" s="10">
+        <f t="shared" si="7"/>
+        <v>201.56097244565666</v>
+      </c>
+      <c r="AK10" s="10">
+        <f t="shared" si="7"/>
+        <v>211.6390210679395</v>
+      </c>
+      <c r="AL10" s="10">
+        <f t="shared" si="7"/>
+        <v>222.22097212133647</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="4">
-        <v>8385</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>18270</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11">
+        <v>2.6669999999999998</v>
+      </c>
+      <c r="L11" s="11">
+        <v>3.5750000000000002</v>
+      </c>
+      <c r="M11" s="11">
+        <v>5.0469999999999997</v>
+      </c>
+      <c r="N11" s="11">
+        <f>+Z11-M11-L11-K11</f>
+        <v>6.9809999999999999</v>
+      </c>
+      <c r="O11" s="11">
+        <v>6.7009999999999996</v>
+      </c>
+      <c r="P11" s="11">
+        <v>6.1369999999999996</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>6.63</v>
+      </c>
+      <c r="R11" s="11">
+        <f t="shared" si="5"/>
+        <v>6.63</v>
+      </c>
+      <c r="W11" s="10">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="X11" s="10">
+        <v>3.2330000000000001</v>
+      </c>
+      <c r="Y11" s="10">
+        <v>8.3849999999999998</v>
+      </c>
+      <c r="Z11" s="10">
+        <v>18.27</v>
+      </c>
+      <c r="AA11" s="10">
+        <f t="shared" si="6"/>
+        <v>26.097999999999999</v>
+      </c>
+      <c r="AB11" s="10">
+        <f t="shared" ref="AB11:AL11" si="8">+AA11*1.05</f>
+        <v>27.402899999999999</v>
+      </c>
+      <c r="AC11" s="10">
+        <f t="shared" si="8"/>
+        <v>28.773045</v>
+      </c>
+      <c r="AD11" s="10">
+        <f t="shared" si="8"/>
+        <v>30.21169725</v>
+      </c>
+      <c r="AE11" s="10">
+        <f t="shared" si="8"/>
+        <v>31.7222821125</v>
+      </c>
+      <c r="AF11" s="10">
+        <f t="shared" si="8"/>
+        <v>33.308396218125004</v>
+      </c>
+      <c r="AG11" s="10">
+        <f t="shared" si="8"/>
+        <v>34.973816029031255</v>
+      </c>
+      <c r="AH11" s="10">
+        <f t="shared" si="8"/>
+        <v>36.722506830482821</v>
+      </c>
+      <c r="AI11" s="10">
+        <f t="shared" si="8"/>
+        <v>38.558632172006966</v>
+      </c>
+      <c r="AJ11" s="10">
+        <f t="shared" si="8"/>
+        <v>40.48656378060732</v>
+      </c>
+      <c r="AK11" s="10">
+        <f t="shared" si="8"/>
+        <v>42.51089196963769</v>
+      </c>
+      <c r="AL11" s="10">
+        <f t="shared" si="8"/>
+        <v>44.636436568119578</v>
+      </c>
+    </row>
+    <row r="12" spans="1:46" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="P8" s="4">
-        <v>35966</v>
-      </c>
-      <c r="Q8" s="4">
-        <v>50722</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11">
+        <v>10.581</v>
+      </c>
+      <c r="L12" s="11">
+        <v>10.93</v>
+      </c>
+      <c r="M12" s="11">
+        <v>13.927</v>
+      </c>
+      <c r="N12" s="11">
+        <f>+Z12-M12-L12-K12</f>
+        <v>15.284000000000002</v>
+      </c>
+      <c r="O12" s="11">
+        <v>14.02</v>
+      </c>
+      <c r="P12" s="11">
+        <v>14.321999999999999</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>14.321999999999999</v>
+      </c>
+      <c r="R12" s="11">
+        <f>+Q12</f>
+        <v>14.321999999999999</v>
+      </c>
+      <c r="W12" s="10">
+        <v>3.5470000000000002</v>
+      </c>
+      <c r="X12" s="10">
+        <v>13.737</v>
+      </c>
+      <c r="Y12" s="10">
+        <v>35.966000000000001</v>
+      </c>
+      <c r="Z12" s="10">
+        <v>50.722000000000001</v>
+      </c>
+      <c r="AA12" s="10">
+        <f t="shared" si="6"/>
+        <v>56.986000000000004</v>
+      </c>
+      <c r="AB12" s="10">
+        <f t="shared" ref="AB12:AL12" si="9">+AA12*1.05</f>
+        <v>59.835300000000004</v>
+      </c>
+      <c r="AC12" s="10">
+        <f t="shared" si="9"/>
+        <v>62.827065000000005</v>
+      </c>
+      <c r="AD12" s="10">
+        <f t="shared" si="9"/>
+        <v>65.968418250000013</v>
+      </c>
+      <c r="AE12" s="10">
+        <f t="shared" si="9"/>
+        <v>69.26683916250002</v>
+      </c>
+      <c r="AF12" s="10">
+        <f t="shared" si="9"/>
+        <v>72.730181120625019</v>
+      </c>
+      <c r="AG12" s="10">
+        <f t="shared" si="9"/>
+        <v>76.366690176656277</v>
+      </c>
+      <c r="AH12" s="10">
+        <f t="shared" si="9"/>
+        <v>80.185024685489097</v>
+      </c>
+      <c r="AI12" s="10">
+        <f t="shared" si="9"/>
+        <v>84.194275919763555</v>
+      </c>
+      <c r="AJ12" s="10">
+        <f t="shared" si="9"/>
+        <v>88.403989715751734</v>
+      </c>
+      <c r="AK12" s="10">
+        <f t="shared" si="9"/>
+        <v>92.824189201539326</v>
+      </c>
+      <c r="AL12" s="10">
+        <f t="shared" si="9"/>
+        <v>97.465398661616291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:46" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11">
+        <f t="shared" ref="K13" si="10">SUM(K10:K12)</f>
+        <v>29.480999999999998</v>
+      </c>
+      <c r="L13" s="11">
+        <f t="shared" ref="L13" si="11">SUM(L10:L12)</f>
+        <v>34.373999999999995</v>
+      </c>
+      <c r="M13" s="11">
+        <f t="shared" ref="M13:O13" si="12">SUM(M10:M12)</f>
+        <v>43.573</v>
+      </c>
+      <c r="N13" s="11">
+        <f t="shared" si="12"/>
+        <v>53.884999999999991</v>
+      </c>
+      <c r="O13" s="11">
+        <f t="shared" si="12"/>
+        <v>53.088999999999999</v>
+      </c>
+      <c r="P13" s="11">
+        <f>SUM(P10:P12)</f>
+        <v>51.662999999999997</v>
+      </c>
+      <c r="Q13" s="11">
+        <f>SUM(Q10:Q12)</f>
+        <v>54.129999999999995</v>
+      </c>
+      <c r="R13" s="11">
+        <f>SUM(R10:R12)</f>
+        <v>54.129999999999995</v>
+      </c>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11">
+        <f t="shared" ref="W13:X13" si="13">SUM(W10:W12)</f>
+        <v>14.190000000000001</v>
+      </c>
+      <c r="X13" s="11">
+        <f t="shared" si="13"/>
+        <v>37.198</v>
+      </c>
+      <c r="Y13" s="11">
+        <f t="shared" ref="Y13:AA13" si="14">SUM(Y10:Y12)</f>
+        <v>88.329000000000008</v>
+      </c>
+      <c r="Z13" s="11">
+        <f t="shared" si="14"/>
+        <v>161.31299999999999</v>
+      </c>
+      <c r="AA13" s="11">
+        <f t="shared" si="14"/>
+        <v>213.012</v>
+      </c>
+      <c r="AB13" s="11">
+        <f t="shared" ref="AB13" si="15">SUM(AB10:AB12)</f>
+        <v>223.6626</v>
+      </c>
+      <c r="AC13" s="11">
+        <f t="shared" ref="AC13" si="16">SUM(AC10:AC12)</f>
+        <v>234.84573</v>
+      </c>
+      <c r="AD13" s="11">
+        <f t="shared" ref="AD13" si="17">SUM(AD10:AD12)</f>
+        <v>246.58801650000004</v>
+      </c>
+      <c r="AE13" s="11">
+        <f t="shared" ref="AE13" si="18">SUM(AE10:AE12)</f>
+        <v>258.91741732500009</v>
+      </c>
+      <c r="AF13" s="11">
+        <f t="shared" ref="AF13" si="19">SUM(AF10:AF12)</f>
+        <v>271.86328819125004</v>
+      </c>
+      <c r="AG13" s="11">
+        <f t="shared" ref="AG13" si="20">SUM(AG10:AG12)</f>
+        <v>285.45645260081255</v>
+      </c>
+      <c r="AH13" s="11">
+        <f t="shared" ref="AH13" si="21">SUM(AH10:AH12)</f>
+        <v>299.7292752308532</v>
+      </c>
+      <c r="AI13" s="11">
+        <f t="shared" ref="AI13" si="22">SUM(AI10:AI12)</f>
+        <v>314.71573899239593</v>
+      </c>
+      <c r="AJ13" s="11">
+        <f t="shared" ref="AJ13" si="23">SUM(AJ10:AJ12)</f>
+        <v>330.45152594201573</v>
+      </c>
+      <c r="AK13" s="11">
+        <f t="shared" ref="AK13" si="24">SUM(AK10:AK12)</f>
+        <v>346.97410223911652</v>
+      </c>
+      <c r="AL13" s="11">
+        <f t="shared" ref="AL13" si="25">SUM(AL10:AL12)</f>
+        <v>364.32280735107236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:46" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11">
+        <f t="shared" ref="K14" si="26">+K9-K13</f>
+        <v>-26.216999999999999</v>
+      </c>
+      <c r="L14" s="11">
+        <f t="shared" ref="L14" si="27">+L9-L13</f>
+        <v>-30.774999999999995</v>
+      </c>
+      <c r="M14" s="11">
+        <f t="shared" ref="M14:P14" si="28">+M9-M13</f>
+        <v>-39.445</v>
+      </c>
+      <c r="N14" s="11">
+        <f t="shared" si="28"/>
+        <v>-50.941999999999986</v>
+      </c>
+      <c r="O14" s="11">
+        <f t="shared" si="28"/>
+        <v>-48.920999999999999</v>
+      </c>
+      <c r="P14" s="11">
+        <f t="shared" si="28"/>
+        <v>-45.904999999999994</v>
+      </c>
+      <c r="Q14" s="11">
+        <f>+Q9-Q13</f>
+        <v>-48.244999999999997</v>
+      </c>
+      <c r="R14" s="11">
+        <f>+R9-R13</f>
+        <v>-47.929999999999993</v>
+      </c>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11">
+        <f t="shared" ref="W14:X14" si="29">+W9-W13</f>
+        <v>-14.333000000000002</v>
+      </c>
+      <c r="X14" s="11">
+        <f t="shared" si="29"/>
+        <v>-36.139000000000003</v>
+      </c>
+      <c r="Y14" s="11">
+        <f t="shared" ref="Y14:AA14" si="30">+Y9-Y13</f>
+        <v>-80.14200000000001</v>
+      </c>
+      <c r="Z14" s="11">
+        <f t="shared" si="30"/>
+        <v>-147.37899999999999</v>
+      </c>
+      <c r="AA14" s="11">
+        <f t="shared" si="30"/>
+        <v>-191.001</v>
+      </c>
+      <c r="AB14" s="11">
+        <f t="shared" ref="AB14" si="31">+AB9-AB13</f>
+        <v>-165.45780999999999</v>
+      </c>
+      <c r="AC14" s="11">
+        <f t="shared" ref="AC14" si="32">+AC9-AC13</f>
+        <v>-124.25662900000003</v>
+      </c>
+      <c r="AD14" s="11">
+        <f t="shared" ref="AD14" si="33">+AD9-AD13</f>
+        <v>-36.468724600000087</v>
+      </c>
+      <c r="AE14" s="11">
+        <f t="shared" ref="AE14" si="34">+AE9-AE13</f>
+        <v>140.30923728499977</v>
+      </c>
+      <c r="AF14" s="11">
+        <f t="shared" ref="AF14" si="35">+AF9-AF13</f>
+        <v>486.66735556774961</v>
+      </c>
+      <c r="AG14" s="11">
+        <f t="shared" ref="AG14" si="36">+AG9-AG13</f>
+        <v>548.92725553408718</v>
+      </c>
+      <c r="AH14" s="11">
+        <f t="shared" ref="AH14" si="37">+AH9-AH13</f>
+        <v>618.09280371753653</v>
+      </c>
+      <c r="AI14" s="11">
+        <f t="shared" ref="AI14" si="38">+AI9-AI13</f>
+        <v>694.88854785083288</v>
+      </c>
+      <c r="AJ14" s="11">
+        <f t="shared" ref="AJ14" si="39">+AJ9-AJ13</f>
+        <v>780.11318958553602</v>
+      </c>
+      <c r="AK14" s="11">
+        <f t="shared" ref="AK14" si="40">+AK9-AK13</f>
+        <v>874.64708484119069</v>
+      </c>
+      <c r="AL14" s="11">
+        <f t="shared" ref="AL14" si="41">+AL9-AL13</f>
+        <v>979.46049843726553</v>
+      </c>
+    </row>
+    <row r="15" spans="1:46" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11">
+        <v>4.2309999999999999</v>
+      </c>
+      <c r="L15" s="11">
+        <v>4.8769999999999998</v>
+      </c>
+      <c r="M15" s="11">
+        <v>5.0069999999999997</v>
+      </c>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11">
+        <v>4.7990000000000004</v>
+      </c>
+      <c r="P15" s="11">
+        <v>4.8010000000000002</v>
+      </c>
+      <c r="Q15" s="11">
+        <f>4.508+0.015</f>
+        <v>4.5229999999999997</v>
+      </c>
+      <c r="R15" s="11">
+        <f>+Q15</f>
+        <v>4.5229999999999997</v>
+      </c>
+      <c r="AA15" s="10">
+        <f t="shared" ref="AA15" si="42">SUM(O15:R15)</f>
+        <v>18.646000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="B16" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K16" s="11">
+        <f t="shared" ref="K16:L16" si="43">+K14+K15</f>
+        <v>-21.985999999999997</v>
+      </c>
+      <c r="L16" s="11">
+        <f t="shared" si="43"/>
+        <v>-25.897999999999996</v>
+      </c>
+      <c r="M16" s="11">
+        <f>+M14+M15</f>
+        <v>-34.438000000000002</v>
+      </c>
+      <c r="N16" s="11">
+        <f t="shared" ref="N16:P16" si="44">+N14+N15</f>
+        <v>-50.941999999999986</v>
+      </c>
+      <c r="O16" s="11">
+        <f t="shared" si="44"/>
+        <v>-44.122</v>
+      </c>
+      <c r="P16" s="11">
+        <f t="shared" si="44"/>
+        <v>-41.103999999999992</v>
+      </c>
+      <c r="Q16" s="11">
+        <f>+Q14+Q15</f>
+        <v>-43.721999999999994</v>
+      </c>
+      <c r="R16" s="11">
+        <f>+R14+R15</f>
+        <v>-43.406999999999996</v>
+      </c>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11">
+        <f t="shared" ref="W16:AA16" si="45">+W14+W15</f>
+        <v>-14.333000000000002</v>
+      </c>
+      <c r="X16" s="11">
+        <f t="shared" si="45"/>
+        <v>-36.139000000000003</v>
+      </c>
+      <c r="Y16" s="11">
+        <f t="shared" si="45"/>
+        <v>-80.14200000000001</v>
+      </c>
+      <c r="Z16" s="11">
+        <f t="shared" si="45"/>
+        <v>-147.37899999999999</v>
+      </c>
+      <c r="AA16" s="11">
+        <f t="shared" si="45"/>
+        <v>-172.35500000000002</v>
+      </c>
+      <c r="AB16" s="11">
+        <f t="shared" ref="AB16" si="46">+AB14+AB15</f>
+        <v>-165.45780999999999</v>
+      </c>
+      <c r="AC16" s="11">
+        <f t="shared" ref="AC16" si="47">+AC14+AC15</f>
+        <v>-124.25662900000003</v>
+      </c>
+      <c r="AD16" s="11">
+        <f t="shared" ref="AD16" si="48">+AD14+AD15</f>
+        <v>-36.468724600000087</v>
+      </c>
+      <c r="AE16" s="11">
+        <f t="shared" ref="AE16" si="49">+AE14+AE15</f>
+        <v>140.30923728499977</v>
+      </c>
+      <c r="AF16" s="11">
+        <f t="shared" ref="AF16" si="50">+AF14+AF15</f>
+        <v>486.66735556774961</v>
+      </c>
+      <c r="AG16" s="11">
+        <f t="shared" ref="AG16" si="51">+AG14+AG15</f>
+        <v>548.92725553408718</v>
+      </c>
+      <c r="AH16" s="11">
+        <f t="shared" ref="AH16" si="52">+AH14+AH15</f>
+        <v>618.09280371753653</v>
+      </c>
+      <c r="AI16" s="11">
+        <f t="shared" ref="AI16" si="53">+AI14+AI15</f>
+        <v>694.88854785083288</v>
+      </c>
+      <c r="AJ16" s="11">
+        <f t="shared" ref="AJ16" si="54">+AJ14+AJ15</f>
+        <v>780.11318958553602</v>
+      </c>
+      <c r="AK16" s="11">
+        <f t="shared" ref="AK16" si="55">+AK14+AK15</f>
+        <v>874.64708484119069</v>
+      </c>
+      <c r="AL16" s="11">
+        <f t="shared" ref="AL16" si="56">+AL14+AL15</f>
+        <v>979.46049843726553</v>
+      </c>
+    </row>
+    <row r="17" spans="2:75" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11">
+        <v>0</v>
+      </c>
+      <c r="P17" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="11">
+        <v>0</v>
+      </c>
+      <c r="R17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="10">
+        <f t="shared" ref="AA17" si="57">SUM(O17:R17)</f>
+        <v>0</v>
+      </c>
+      <c r="AE17" s="10">
+        <f>+AE16*0.1</f>
+        <v>14.030923728499978</v>
+      </c>
+      <c r="AF17" s="10">
+        <f t="shared" ref="AF17:AL17" si="58">+AF16*0.1</f>
+        <v>48.666735556774967</v>
+      </c>
+      <c r="AG17" s="10">
+        <f t="shared" si="58"/>
+        <v>54.892725553408724</v>
+      </c>
+      <c r="AH17" s="10">
+        <f t="shared" si="58"/>
+        <v>61.809280371753658</v>
+      </c>
+      <c r="AI17" s="10">
+        <f t="shared" si="58"/>
+        <v>69.488854785083291</v>
+      </c>
+      <c r="AJ17" s="10">
+        <f t="shared" si="58"/>
+        <v>78.011318958553602</v>
+      </c>
+      <c r="AK17" s="10">
+        <f t="shared" si="58"/>
+        <v>87.464708484119072</v>
+      </c>
+      <c r="AL17" s="10">
+        <f t="shared" si="58"/>
+        <v>97.946049843726556</v>
+      </c>
+    </row>
+    <row r="18" spans="2:75" x14ac:dyDescent="0.2">
+      <c r="B18" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="K18" s="11">
+        <f>+K16-K17</f>
+        <v>-21.985999999999997</v>
+      </c>
+      <c r="L18" s="11">
+        <f t="shared" ref="L18" si="59">+L16-L17</f>
+        <v>-25.897999999999996</v>
+      </c>
+      <c r="M18" s="11">
+        <f t="shared" ref="M18:R18" si="60">+M16-M17</f>
+        <v>-34.438000000000002</v>
+      </c>
+      <c r="N18" s="11">
+        <f t="shared" si="60"/>
+        <v>-50.941999999999986</v>
+      </c>
+      <c r="O18" s="11">
+        <f t="shared" si="60"/>
+        <v>-44.122</v>
+      </c>
+      <c r="P18" s="11">
+        <f t="shared" si="60"/>
+        <v>-41.103999999999992</v>
+      </c>
+      <c r="Q18" s="11">
+        <f t="shared" si="60"/>
+        <v>-43.721999999999994</v>
+      </c>
+      <c r="R18" s="11">
+        <f t="shared" si="60"/>
+        <v>-43.406999999999996</v>
+      </c>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11">
+        <f t="shared" ref="W18:AA18" si="61">+W16-W17</f>
+        <v>-14.333000000000002</v>
+      </c>
+      <c r="X18" s="11">
+        <f t="shared" si="61"/>
+        <v>-36.139000000000003</v>
+      </c>
+      <c r="Y18" s="11">
+        <f t="shared" si="61"/>
+        <v>-80.14200000000001</v>
+      </c>
+      <c r="Z18" s="11">
+        <f t="shared" si="61"/>
+        <v>-147.37899999999999</v>
+      </c>
+      <c r="AA18" s="11">
+        <f t="shared" si="61"/>
+        <v>-172.35500000000002</v>
+      </c>
+      <c r="AB18" s="11">
+        <f t="shared" ref="AB18" si="62">+AB16-AB17</f>
+        <v>-165.45780999999999</v>
+      </c>
+      <c r="AC18" s="11">
+        <f t="shared" ref="AC18" si="63">+AC16-AC17</f>
+        <v>-124.25662900000003</v>
+      </c>
+      <c r="AD18" s="11">
+        <f t="shared" ref="AD18" si="64">+AD16-AD17</f>
+        <v>-36.468724600000087</v>
+      </c>
+      <c r="AE18" s="11">
+        <f t="shared" ref="AE18" si="65">+AE16-AE17</f>
+        <v>126.2783135564998</v>
+      </c>
+      <c r="AF18" s="11">
+        <f t="shared" ref="AF18" si="66">+AF16-AF17</f>
+        <v>438.00062001097467</v>
+      </c>
+      <c r="AG18" s="11">
+        <f t="shared" ref="AG18" si="67">+AG16-AG17</f>
+        <v>494.03452998067849</v>
+      </c>
+      <c r="AH18" s="11">
+        <f t="shared" ref="AH18" si="68">+AH16-AH17</f>
+        <v>556.2835233457829</v>
+      </c>
+      <c r="AI18" s="11">
+        <f t="shared" ref="AI18" si="69">+AI16-AI17</f>
+        <v>625.3996930657496</v>
+      </c>
+      <c r="AJ18" s="11">
+        <f t="shared" ref="AJ18" si="70">+AJ16-AJ17</f>
+        <v>702.10187062698242</v>
+      </c>
+      <c r="AK18" s="11">
+        <f t="shared" ref="AK18" si="71">+AK16-AK17</f>
+        <v>787.18237635707158</v>
+      </c>
+      <c r="AL18" s="11">
+        <f t="shared" ref="AL18" si="72">+AL16-AL17</f>
+        <v>881.51444859353899</v>
+      </c>
+      <c r="AM18" s="11">
+        <f>+AL18*(1+$AM$23)</f>
+        <v>872.69930410760355</v>
+      </c>
+      <c r="AN18" s="11">
+        <f t="shared" ref="AN18:BW18" si="73">+AM18*(1+$AM$23)</f>
+        <v>863.97231106652748</v>
+      </c>
+      <c r="AO18" s="11">
+        <f t="shared" si="73"/>
+        <v>855.33258795586221</v>
+      </c>
+      <c r="AP18" s="11">
+        <f t="shared" si="73"/>
+        <v>846.77926207630355</v>
+      </c>
+      <c r="AQ18" s="11">
+        <f t="shared" si="73"/>
+        <v>838.31146945554053</v>
+      </c>
+      <c r="AR18" s="11">
+        <f t="shared" si="73"/>
+        <v>829.92835476098514</v>
+      </c>
+      <c r="AS18" s="11">
+        <f t="shared" si="73"/>
+        <v>821.62907121337525</v>
+      </c>
+      <c r="AT18" s="11">
+        <f t="shared" si="73"/>
+        <v>813.41278050124151</v>
+      </c>
+      <c r="AU18" s="11">
+        <f t="shared" si="73"/>
+        <v>805.27865269622907</v>
+      </c>
+      <c r="AV18" s="11">
+        <f t="shared" si="73"/>
+        <v>797.22586616926674</v>
+      </c>
+      <c r="AW18" s="11">
+        <f t="shared" si="73"/>
+        <v>789.25360750757409</v>
+      </c>
+      <c r="AX18" s="11">
+        <f t="shared" si="73"/>
+        <v>781.36107143249831</v>
+      </c>
+      <c r="AY18" s="11">
+        <f t="shared" si="73"/>
+        <v>773.54746071817328</v>
+      </c>
+      <c r="AZ18" s="11">
+        <f t="shared" si="73"/>
+        <v>765.8119861109916</v>
+      </c>
+      <c r="BA18" s="11">
+        <f t="shared" si="73"/>
+        <v>758.15386624988173</v>
+      </c>
+      <c r="BB18" s="11">
+        <f t="shared" si="73"/>
+        <v>750.57232758738292</v>
+      </c>
+      <c r="BC18" s="11">
+        <f t="shared" si="73"/>
+        <v>743.06660431150908</v>
+      </c>
+      <c r="BD18" s="11">
+        <f t="shared" si="73"/>
+        <v>735.63593826839394</v>
+      </c>
+      <c r="BE18" s="11">
+        <f t="shared" si="73"/>
+        <v>728.27957888570995</v>
+      </c>
+      <c r="BF18" s="11">
+        <f t="shared" si="73"/>
+        <v>720.99678309685282</v>
+      </c>
+      <c r="BG18" s="11">
+        <f t="shared" si="73"/>
+        <v>713.78681526588434</v>
+      </c>
+      <c r="BH18" s="11">
+        <f t="shared" si="73"/>
+        <v>706.64894711322552</v>
+      </c>
+      <c r="BI18" s="11">
+        <f t="shared" si="73"/>
+        <v>699.58245764209323</v>
+      </c>
+      <c r="BJ18" s="11">
+        <f t="shared" si="73"/>
+        <v>692.58663306567234</v>
+      </c>
+      <c r="BK18" s="11">
+        <f t="shared" si="73"/>
+        <v>685.66076673501561</v>
+      </c>
+      <c r="BL18" s="11">
+        <f t="shared" si="73"/>
+        <v>678.80415906766541</v>
+      </c>
+      <c r="BM18" s="11">
+        <f t="shared" si="73"/>
+        <v>672.01611747698871</v>
+      </c>
+      <c r="BN18" s="11">
+        <f t="shared" si="73"/>
+        <v>665.29595630221877</v>
+      </c>
+      <c r="BO18" s="11">
+        <f t="shared" si="73"/>
+        <v>658.64299673919652</v>
+      </c>
+      <c r="BP18" s="11">
+        <f t="shared" si="73"/>
+        <v>652.05656677180457</v>
+      </c>
+      <c r="BQ18" s="11">
+        <f t="shared" si="73"/>
+        <v>645.53600110408649</v>
+      </c>
+      <c r="BR18" s="11">
+        <f t="shared" si="73"/>
+        <v>639.08064109304564</v>
+      </c>
+      <c r="BS18" s="11">
+        <f t="shared" si="73"/>
+        <v>632.68983468211513</v>
+      </c>
+      <c r="BT18" s="11">
+        <f t="shared" si="73"/>
+        <v>626.36293633529397</v>
+      </c>
+      <c r="BU18" s="11">
+        <f t="shared" si="73"/>
+        <v>620.09930697194102</v>
+      </c>
+      <c r="BV18" s="11">
+        <f t="shared" si="73"/>
+        <v>613.89831390222162</v>
+      </c>
+      <c r="BW18" s="11">
+        <f t="shared" si="73"/>
+        <v>607.75933076319939</v>
+      </c>
+    </row>
+    <row r="19" spans="2:75" x14ac:dyDescent="0.2">
+      <c r="B19" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12">
+        <f t="shared" ref="K19:R19" si="74">+K18/K20</f>
+        <v>-0.10986800423191202</v>
+      </c>
+      <c r="L19" s="12">
+        <f t="shared" si="74"/>
+        <v>-0.12856976575867524</v>
+      </c>
+      <c r="M19" s="12">
+        <f t="shared" si="74"/>
+        <v>-0.16931970672379332</v>
+      </c>
+      <c r="N19" s="12" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O19" s="12">
+        <f t="shared" si="74"/>
+        <v>-0.21196252359231235</v>
+      </c>
+      <c r="P19" s="12">
+        <f t="shared" si="74"/>
+        <v>-0.19421890770112599</v>
+      </c>
+      <c r="Q19" s="12">
+        <f t="shared" si="74"/>
+        <v>-0.2040175879567338</v>
+      </c>
+      <c r="R19" s="12">
+        <f t="shared" si="74"/>
+        <v>-0.20254772060834234</v>
+      </c>
+      <c r="W19" s="1">
+        <f t="shared" ref="W19:Z19" si="75">W18/W20</f>
+        <v>-0.12458592650845435</v>
+      </c>
+      <c r="X19" s="1">
+        <f t="shared" si="75"/>
+        <v>-0.26261972091776725</v>
+      </c>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1">
+        <f t="shared" si="75"/>
+        <v>-0.73088380714764445</v>
+      </c>
+      <c r="AA19" s="1">
+        <f>AA18/AA20</f>
+        <v>-0.81260524783208299</v>
+      </c>
+      <c r="AB19" s="1">
+        <f>AB18/AB20</f>
+        <v>-0.78008694091151221</v>
+      </c>
+      <c r="AC19" s="1">
+        <f t="shared" ref="AC19:AL19" si="76">AC18/AC20</f>
+        <v>-0.58583498478909346</v>
+      </c>
+      <c r="AD19" s="1">
+        <f t="shared" si="76"/>
+        <v>-0.17193975800935887</v>
+      </c>
+      <c r="AE19" s="1">
+        <f t="shared" si="76"/>
+        <v>0.59536665767396935</v>
+      </c>
+      <c r="AF19" s="1">
+        <f t="shared" si="76"/>
+        <v>2.0650494756440141</v>
+      </c>
+      <c r="AG19" s="1">
+        <f t="shared" si="76"/>
+        <v>2.3292335683476306</v>
+      </c>
+      <c r="AH19" s="1">
+        <f t="shared" si="76"/>
+        <v>2.6227200275785685</v>
+      </c>
+      <c r="AI19" s="1">
+        <f t="shared" si="76"/>
+        <v>2.9485832878524096</v>
+      </c>
+      <c r="AJ19" s="1">
+        <f t="shared" si="76"/>
+        <v>3.3102124370294339</v>
+      </c>
+      <c r="AK19" s="1">
+        <f t="shared" si="76"/>
+        <v>3.7113430421437505</v>
+      </c>
+      <c r="AL19" s="1">
+        <f t="shared" si="76"/>
+        <v>4.1560921758400662</v>
+      </c>
+    </row>
+    <row r="20" spans="2:75" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11">
+        <v>200.112855</v>
+      </c>
+      <c r="L20" s="11">
+        <v>201.43149399999999</v>
+      </c>
+      <c r="M20" s="11">
+        <v>203.39038300000001</v>
+      </c>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11">
+        <v>208.15943899999999</v>
+      </c>
+      <c r="P20" s="11">
+        <v>211.63747900000001</v>
+      </c>
+      <c r="Q20" s="11">
+        <v>214.30505299999999</v>
+      </c>
+      <c r="R20" s="11">
+        <f>+Q20</f>
+        <v>214.30505299999999</v>
+      </c>
+      <c r="W20" s="10">
+        <v>115.045097</v>
+      </c>
+      <c r="X20" s="10">
+        <v>137.60962000000001</v>
+      </c>
+      <c r="Z20" s="10">
+        <f>AVERAGE(K20:N20)</f>
+        <v>201.64491066666668</v>
+      </c>
+      <c r="AA20" s="10">
+        <f>AVERAGE(O20:R20)</f>
+        <v>212.10175600000002</v>
+      </c>
+      <c r="AB20" s="10">
+        <f>+AA20</f>
+        <v>212.10175600000002</v>
+      </c>
+      <c r="AC20" s="10">
+        <f t="shared" ref="AC20:AL20" si="77">+AB20</f>
+        <v>212.10175600000002</v>
+      </c>
+      <c r="AD20" s="10">
+        <f t="shared" si="77"/>
+        <v>212.10175600000002</v>
+      </c>
+      <c r="AE20" s="10">
+        <f t="shared" si="77"/>
+        <v>212.10175600000002</v>
+      </c>
+      <c r="AF20" s="10">
+        <f t="shared" si="77"/>
+        <v>212.10175600000002</v>
+      </c>
+      <c r="AG20" s="10">
+        <f t="shared" si="77"/>
+        <v>212.10175600000002</v>
+      </c>
+      <c r="AH20" s="10">
+        <f t="shared" si="77"/>
+        <v>212.10175600000002</v>
+      </c>
+      <c r="AI20" s="10">
+        <f t="shared" si="77"/>
+        <v>212.10175600000002</v>
+      </c>
+      <c r="AJ20" s="10">
+        <f t="shared" si="77"/>
+        <v>212.10175600000002</v>
+      </c>
+      <c r="AK20" s="10">
+        <f t="shared" si="77"/>
+        <v>212.10175600000002</v>
+      </c>
+      <c r="AL20" s="10">
+        <f t="shared" si="77"/>
+        <v>212.10175600000002</v>
+      </c>
+    </row>
+    <row r="21" spans="2:75" x14ac:dyDescent="0.2">
+      <c r="B21" s="10"/>
+      <c r="M21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+    </row>
+    <row r="22" spans="2:75" x14ac:dyDescent="0.2">
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AL22" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM22" s="15">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="23" spans="2:75" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
         <v>17</v>
       </c>
-      <c r="P9" s="4">
+      <c r="Y23" s="4">
         <v>-44698</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Z23" s="4">
         <v>-78811</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+      <c r="AL23" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM23" s="15">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="24" spans="2:75" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
         <v>18</v>
       </c>
-      <c r="P10" s="4">
+      <c r="Y24" s="4">
         <v>-9336</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Z24" s="4">
         <v>-13703</v>
       </c>
+      <c r="AL24" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM24" s="4">
+        <f>NPV(AM22,AB18:BW18)</f>
+        <v>2406.7362013427078</v>
+      </c>
+    </row>
+    <row r="25" spans="2:75" x14ac:dyDescent="0.2">
+      <c r="AL25" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM25" s="1">
+        <f>AM24/Main!J3</f>
+        <v>11.230422090620085</v>
+      </c>
+    </row>
+    <row r="30" spans="2:75" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8">
+        <f>30.172+335.538+17.131</f>
+        <v>382.84100000000001</v>
+      </c>
+      <c r="R30" s="8"/>
+    </row>
+    <row r="31" spans="2:75" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8">
+        <v>4.1369999999999996</v>
+      </c>
+      <c r="R31" s="8"/>
+    </row>
+    <row r="32" spans="2:75" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8">
+        <v>25.553000000000001</v>
+      </c>
+      <c r="R32" s="8"/>
+    </row>
+    <row r="33" spans="2:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8">
+        <v>49.454000000000001</v>
+      </c>
+      <c r="R33" s="8"/>
+    </row>
+    <row r="34" spans="2:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8">
+        <v>10.029</v>
+      </c>
+      <c r="R34" s="8"/>
+    </row>
+    <row r="35" spans="2:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8">
+        <f>17.487+0.727</f>
+        <v>18.213999999999999</v>
+      </c>
+      <c r="R35" s="8"/>
+    </row>
+    <row r="36" spans="2:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8">
+        <v>7.6829999999999998</v>
+      </c>
+      <c r="R36" s="8"/>
+    </row>
+    <row r="37" spans="2:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8">
+        <f>SUM(Q30:Q36)</f>
+        <v>497.911</v>
+      </c>
+      <c r="R37" s="8"/>
+    </row>
+    <row r="39" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9">
+        <v>4.8540000000000001</v>
+      </c>
+      <c r="R39" s="9"/>
+    </row>
+    <row r="40" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9">
+        <v>15.657</v>
+      </c>
+      <c r="R40" s="9"/>
+    </row>
+    <row r="41" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9">
+        <f>3.089+15.214</f>
+        <v>18.303000000000001</v>
+      </c>
+      <c r="R41" s="9"/>
+    </row>
+    <row r="42" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9">
+        <f>8.332+0.06</f>
+        <v>8.3920000000000012</v>
+      </c>
+      <c r="R42" s="9"/>
+    </row>
+    <row r="43" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9">
+        <f>0.392+0.154</f>
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="R43" s="9"/>
+    </row>
+    <row r="44" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9">
+        <v>11.606999999999999</v>
+      </c>
+      <c r="R44" s="9"/>
+    </row>
+    <row r="45" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9">
+        <v>2.8690000000000002</v>
+      </c>
+      <c r="R45" s="9"/>
+    </row>
+    <row r="46" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9">
+        <v>435.68299999999999</v>
+      </c>
+      <c r="R46" s="9"/>
+    </row>
+    <row r="47" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="9">
+        <f>SUM(Q39:Q46)</f>
+        <v>497.911</v>
+      </c>
+      <c r="R47" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{201ADA92-3B0C-4733-B33B-9ACA8A94F4C9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/IONQ.xlsx
+++ b/IONQ.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA97BDC-B5D5-4C26-A46C-D495086C4885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49F1142-BEF1-694F-97C2-BA44C8CE9DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-50010" yWindow="1380" windowWidth="25080" windowHeight="18540" activeTab="2" xr2:uid="{AB3C49AB-D501-4FD3-A043-98BB663A0B7E}"/>
+    <workbookView xWindow="8800" yWindow="5540" windowWidth="25760" windowHeight="15640" xr2:uid="{AB3C49AB-D501-4FD3-A043-98BB663A0B7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
-    <sheet name="Model" sheetId="2" r:id="rId3"/>
+    <sheet name="Model" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,12 +40,30 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={0ACF6560-A3D8-DB4B-9A39-3B07A923B357}</author>
+    <author>tc={5947D9AF-E117-7546-888C-09B56A94889F}</author>
     <author>tc={6FD4C426-31B6-4D62-943F-4388146ADBBE}</author>
     <author>tc={1A0A1B49-65D0-4998-B407-2792C10D6299}</author>
     <author>tc={A6E9DABB-1376-4112-A26B-944B948407A8}</author>
   </authors>
   <commentList>
-    <comment ref="X7" authorId="0" shapeId="0" xr:uid="{6FD4C426-31B6-4D62-943F-4388146ADBBE}">
+    <comment ref="AC3" authorId="0" shapeId="0" xr:uid="{0ACF6560-A3D8-DB4B-9A39-3B07A923B357}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Reiterated on Q3 call</t>
+      </text>
+    </comment>
+    <comment ref="R9" authorId="1" shapeId="0" xr:uid="{5947D9AF-E117-7546-888C-09B56A94889F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    7.1-11.1 guidance</t>
+      </text>
+    </comment>
+    <comment ref="Z9" authorId="2" shapeId="0" xr:uid="{6FD4C426-31B6-4D62-943F-4388146ADBBE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -54,7 +72,7 @@
 2 significant customers</t>
       </text>
     </comment>
-    <comment ref="Y7" authorId="1" shapeId="0" xr:uid="{1A0A1B49-65D0-4998-B407-2792C10D6299}">
+    <comment ref="AA9" authorId="3" shapeId="0" xr:uid="{1A0A1B49-65D0-4998-B407-2792C10D6299}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -63,7 +81,7 @@
 3 significant customers = 70%</t>
       </text>
     </comment>
-    <comment ref="Z7" authorId="2" shapeId="0" xr:uid="{A6E9DABB-1376-4112-A26B-944B948407A8}">
+    <comment ref="AB9" authorId="4" shapeId="0" xr:uid="{A6E9DABB-1376-4112-A26B-944B948407A8}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -77,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="95">
   <si>
     <t>Price</t>
   </si>
@@ -338,6 +356,30 @@
   </si>
   <si>
     <t>Hyundai</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>Bookings</t>
+  </si>
+  <si>
+    <t>75-95</t>
+  </si>
+  <si>
+    <t>Michael Hayduk, Deputy Director of the Air Force Research Laboratory, Information Directorate</t>
+  </si>
+  <si>
+    <t>415m annual budget</t>
   </si>
 </sst>
 </file>
@@ -377,8 +419,8 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -455,6 +497,111 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4999861B-7DFA-3122-0B6E-B8BEAAAA8103}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8284029" y="54429"/>
+          <a:ext cx="0" cy="5959928"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9E8BEAA-6B35-453F-9186-E231749DFDAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11321143" y="0"/>
+          <a:ext cx="0" cy="6776356"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -497,111 +644,6 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>136071</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Straight Connector 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4999861B-7DFA-3122-0B6E-B8BEAAAA8103}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8284029" y="54429"/>
-          <a:ext cx="0" cy="5959928"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>27214</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>27214</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>81642</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Straight Connector 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9E8BEAA-6B35-453F-9186-E231749DFDAD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11321143" y="0"/>
-          <a:ext cx="0" cy="6776356"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -930,15 +972,21 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="X7" dT="2025-01-07T19:48:39.04" personId="{8FE8731E-1419-4CF8-BDB7-325E36ECD730}" id="{6FD4C426-31B6-4D62-943F-4388146ADBBE}">
+  <threadedComment ref="AC3" dT="2025-01-23T21:07:51.16" personId="{8FE8731E-1419-4CF8-BDB7-325E36ECD730}" id="{0ACF6560-A3D8-DB4B-9A39-3B07A923B357}">
+    <text>Reiterated on Q3 call</text>
+  </threadedComment>
+  <threadedComment ref="R9" dT="2025-01-23T21:06:21.92" personId="{8FE8731E-1419-4CF8-BDB7-325E36ECD730}" id="{5947D9AF-E117-7546-888C-09B56A94889F}">
+    <text>7.1-11.1 guidance</text>
+  </threadedComment>
+  <threadedComment ref="Z9" dT="2025-01-07T19:48:39.04" personId="{8FE8731E-1419-4CF8-BDB7-325E36ECD730}" id="{6FD4C426-31B6-4D62-943F-4388146ADBBE}">
     <text>4 contracts
 2 significant customers</text>
   </threadedComment>
-  <threadedComment ref="Y7" dT="2025-01-07T19:59:59.56" personId="{8FE8731E-1419-4CF8-BDB7-325E36ECD730}" id="{1A0A1B49-65D0-4998-B407-2792C10D6299}">
+  <threadedComment ref="AA9" dT="2025-01-07T19:59:59.56" personId="{8FE8731E-1419-4CF8-BDB7-325E36ECD730}" id="{1A0A1B49-65D0-4998-B407-2792C10D6299}">
     <text>30.5m RPO, 60% in the next 12 months
 3 significant customers = 70%</text>
   </threadedComment>
-  <threadedComment ref="Z7" dT="2025-01-07T20:05:37.94" personId="{8FE8731E-1419-4CF8-BDB7-325E36ECD730}" id="{A6E9DABB-1376-4112-A26B-944B948407A8}">
+  <threadedComment ref="AB9" dT="2025-01-07T20:05:37.94" personId="{8FE8731E-1419-4CF8-BDB7-325E36ECD730}" id="{A6E9DABB-1376-4112-A26B-944B948407A8}">
     <text>69.1m RPO
 2 customers = 58%</text>
   </threadedComment>
@@ -949,17 +997,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BE29629-62F1-4661-9953-74545B1C68EA}">
   <dimension ref="B2:K30"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B2" s="5" t="s">
         <v>37</v>
       </c>
@@ -970,7 +1018,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>19</v>
       </c>
@@ -984,7 +1032,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>34</v>
       </c>
@@ -996,7 +1044,7 @@
         <v>10715.252649999999</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>35</v>
       </c>
@@ -1010,7 +1058,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
       <c r="I6" t="s">
         <v>4</v>
       </c>
@@ -1021,7 +1069,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B7" s="5" t="s">
         <v>39</v>
       </c>
@@ -1033,12 +1081,12 @@
         <v>10332.252649999999</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>36</v>
       </c>
@@ -1052,7 +1100,7 @@
         <v>45291</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.15">
       <c r="I10" t="s">
         <v>7</v>
       </c>
@@ -1060,12 +1108,12 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B11" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>33</v>
       </c>
@@ -1079,17 +1127,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B17" s="5" t="s">
         <v>38</v>
       </c>
@@ -1098,52 +1146,60 @@
         <v>1638400</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>94</v>
+      </c>
       <c r="I20" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B22" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
         <v>86</v>
       </c>
@@ -1154,43 +1210,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C02FAF-F034-4DC1-A333-3CF2A6D6F2AB}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9653554-7BDA-444D-A237-3389B1272280}">
+  <dimension ref="A1:BY49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9653554-7BDA-444D-A237-3389B1272280}">
-  <dimension ref="A1:BW47"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AC3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="W3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AM7" sqref="AM7"/>
+      <selection pane="bottomRight" activeCell="AD8" sqref="AD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="18" width="9.140625" style="3"/>
-    <col min="39" max="39" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="18" width="9.1640625" style="3"/>
+    <col min="19" max="19" width="8.83203125" style="3"/>
+    <col min="41" max="41" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.15">
       <c r="C2" s="3" t="s">
         <v>69</v>
       </c>
@@ -1239,466 +1283,303 @@
       <c r="R2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="V2">
+      <c r="S2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="X2">
         <v>2019</v>
       </c>
-      <c r="W2">
+      <c r="Y2">
         <v>2020</v>
       </c>
-      <c r="X2">
+      <c r="Z2">
         <v>2021</v>
       </c>
-      <c r="Y2">
+      <c r="AA2">
         <v>2022</v>
       </c>
-      <c r="Z2">
+      <c r="AB2">
         <v>2023</v>
-      </c>
-      <c r="AA2">
-        <f>+Z2+1</f>
-        <v>2024</v>
-      </c>
-      <c r="AB2">
-        <v>2025</v>
       </c>
       <c r="AC2">
         <f>+AB2+1</f>
+        <v>2024</v>
+      </c>
+      <c r="AD2">
+        <v>2025</v>
+      </c>
+      <c r="AE2">
+        <f>+AD2+1</f>
         <v>2026</v>
       </c>
-      <c r="AD2">
-        <f t="shared" ref="AD2:AT2" si="0">+AC2+1</f>
+      <c r="AF2">
+        <f t="shared" ref="AF2:AV2" si="0">+AE2+1</f>
         <v>2027</v>
       </c>
-      <c r="AE2">
+      <c r="AG2">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="AF2">
+      <c r="AH2">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="AG2">
+      <c r="AI2">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="AH2">
+      <c r="AJ2">
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="AI2">
+      <c r="AK2">
         <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-      <c r="AJ2">
+      <c r="AL2">
         <f t="shared" si="0"/>
         <v>2033</v>
       </c>
-      <c r="AK2">
+      <c r="AM2">
         <f t="shared" si="0"/>
         <v>2034</v>
       </c>
-      <c r="AL2">
+      <c r="AN2">
         <f t="shared" si="0"/>
         <v>2035</v>
       </c>
-      <c r="AM2">
+      <c r="AO2">
         <f t="shared" si="0"/>
         <v>2036</v>
       </c>
-      <c r="AN2">
+      <c r="AP2">
         <f t="shared" si="0"/>
         <v>2037</v>
       </c>
-      <c r="AO2">
+      <c r="AQ2">
         <f t="shared" si="0"/>
         <v>2038</v>
       </c>
-      <c r="AP2">
+      <c r="AR2">
         <f t="shared" si="0"/>
         <v>2039</v>
       </c>
-      <c r="AQ2">
+      <c r="AS2">
         <f t="shared" si="0"/>
         <v>2040</v>
       </c>
-      <c r="AR2">
+      <c r="AT2">
         <f t="shared" si="0"/>
         <v>2041</v>
       </c>
-      <c r="AS2">
+      <c r="AU2">
         <f t="shared" si="0"/>
         <v>2042</v>
       </c>
-      <c r="AT2">
+      <c r="AV2">
         <f t="shared" si="0"/>
         <v>2043</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
+        <v>91</v>
+      </c>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="AC3" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+    </row>
+    <row r="5" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
         <v>75</v>
       </c>
-      <c r="Y3" s="10">
-        <f>+Y7*0.1</f>
+      <c r="AA5" s="10">
+        <f>+AA9*0.1</f>
         <v>1.1131</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
         <v>76</v>
       </c>
-      <c r="Y4" s="10">
-        <f>+Y7*0.1</f>
+      <c r="AA6" s="10">
+        <f>+AA9*0.1</f>
         <v>1.1131</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
         <v>74</v>
       </c>
-      <c r="Z5" s="10">
-        <f>+Z7-Z6</f>
+      <c r="AB7" s="10">
+        <f>+AB9-AB8</f>
         <v>3.7420000000000009</v>
       </c>
-      <c r="AA5" s="10">
-        <f>+AA7-AA6</f>
+      <c r="AC7" s="10">
+        <f>+AC9-AC8</f>
         <v>16.122999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
         <v>77</v>
       </c>
-      <c r="Y6" s="10">
-        <f>+Y7-Y4-Y3-3.3</f>
+      <c r="AA8" s="10">
+        <f>+AA9-AA6-AA5-3.3</f>
         <v>5.6048000000000018</v>
       </c>
-      <c r="Z6">
+      <c r="AB8">
         <f>30.5*0.6</f>
         <v>18.3</v>
       </c>
-      <c r="AA6" s="10">
+      <c r="AC8" s="10">
         <f>69.1*0.4</f>
         <v>27.64</v>
       </c>
-    </row>
-    <row r="7" spans="1:46" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="13" t="s">
+      <c r="AD8" s="10">
+        <f>54.5/4</f>
+        <v>13.625</v>
+      </c>
+      <c r="AE8" s="10">
+        <f>54.5/4</f>
+        <v>13.625</v>
+      </c>
+      <c r="AF8" s="10">
+        <f>54.5/4</f>
+        <v>13.625</v>
+      </c>
+      <c r="AG8" s="10">
+        <f>54.5/4</f>
+        <v>13.625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:48" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14">
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14">
         <v>0.23300000000000001</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14">
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14">
         <v>3.8</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K9" s="14">
         <v>4.3</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L9" s="14">
         <v>5.5</v>
       </c>
-      <c r="M7" s="14">
+      <c r="M9" s="14">
         <v>6.1360000000000001</v>
       </c>
-      <c r="N7" s="14">
-        <f>+Z7-M7-L7-K7</f>
+      <c r="N9" s="14">
+        <f>+AB9-M9-L9-K9</f>
         <v>6.1060000000000025</v>
       </c>
-      <c r="O7" s="14">
+      <c r="O9" s="14">
         <v>7.5819999999999999</v>
       </c>
-      <c r="P7" s="14">
+      <c r="P9" s="14">
         <v>11.381</v>
       </c>
-      <c r="Q7" s="14">
+      <c r="Q9" s="14">
         <v>12.4</v>
       </c>
-      <c r="R7" s="14">
-        <f>+Q7</f>
+      <c r="R9" s="14">
+        <f>+Q9</f>
         <v>12.4</v>
       </c>
-      <c r="V7" s="13">
+      <c r="S9" s="14"/>
+      <c r="X9" s="13">
         <v>0.2</v>
       </c>
-      <c r="W7" s="13">
+      <c r="Y9" s="13">
         <v>0</v>
       </c>
-      <c r="X7" s="13">
+      <c r="Z9" s="13">
         <v>2.0990000000000002</v>
       </c>
-      <c r="Y7" s="13">
+      <c r="AA9" s="13">
         <v>11.131</v>
       </c>
-      <c r="Z7" s="13">
+      <c r="AB9" s="13">
         <v>22.042000000000002</v>
       </c>
-      <c r="AA7" s="13">
-        <f>SUM(O7:R7)</f>
+      <c r="AC9" s="13">
+        <f>SUM(O9:R9)</f>
         <v>43.762999999999998</v>
       </c>
-      <c r="AB7" s="13">
-        <f>+AA7*1.9</f>
+      <c r="AD9" s="13">
+        <f>+AC9*1.9</f>
         <v>83.149699999999996</v>
       </c>
-      <c r="AC7" s="13">
-        <f>+AB7*1.9</f>
+      <c r="AE9" s="13">
+        <f>+AD9*1.9</f>
         <v>157.98442999999997</v>
       </c>
-      <c r="AD7" s="13">
-        <f>+AC7*1.9</f>
+      <c r="AF9" s="13">
+        <f>+AE9*1.9</f>
         <v>300.17041699999993</v>
       </c>
-      <c r="AE7" s="13">
-        <f>+AD7*1.9</f>
+      <c r="AG9" s="13">
+        <f>+AF9*1.9</f>
         <v>570.32379229999981</v>
       </c>
-      <c r="AF7" s="13">
-        <f>+AE7*1.9</f>
+      <c r="AH9" s="13">
+        <f>+AG9*1.9</f>
         <v>1083.6152053699996</v>
       </c>
-      <c r="AG7" s="13">
-        <f>+AF7*1.1</f>
+      <c r="AI9" s="13">
+        <f>+AH9*1.1</f>
         <v>1191.9767259069997</v>
       </c>
-      <c r="AH7" s="13">
-        <f t="shared" ref="AH7:AL7" si="1">+AG7*1.1</f>
+      <c r="AJ9" s="13">
+        <f t="shared" ref="AJ9:AN9" si="1">+AI9*1.1</f>
         <v>1311.1743984976997</v>
       </c>
-      <c r="AI7" s="13">
+      <c r="AK9" s="13">
         <f t="shared" si="1"/>
         <v>1442.2918383474698</v>
       </c>
-      <c r="AJ7" s="13">
+      <c r="AL9" s="13">
         <f t="shared" si="1"/>
         <v>1586.5210221822169</v>
       </c>
-      <c r="AK7" s="13">
+      <c r="AM9" s="13">
         <f t="shared" si="1"/>
         <v>1745.1731244004388</v>
       </c>
-      <c r="AL7" s="13">
+      <c r="AN9" s="13">
         <f t="shared" si="1"/>
         <v>1919.6904368404828</v>
       </c>
     </row>
-    <row r="8" spans="1:46" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="10" t="s">
+    <row r="10" spans="1:48" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="10" t="s">
         <v>10</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11">
-        <v>1.036</v>
-      </c>
-      <c r="L8" s="11">
-        <v>1.901</v>
-      </c>
-      <c r="M8" s="11">
-        <v>2.008</v>
-      </c>
-      <c r="N8" s="11">
-        <f>+Z8-M8-L8-K8</f>
-        <v>3.1630000000000007</v>
-      </c>
-      <c r="O8" s="11">
-        <v>3.4140000000000001</v>
-      </c>
-      <c r="P8" s="11">
-        <v>5.6230000000000002</v>
-      </c>
-      <c r="Q8" s="11">
-        <v>6.5149999999999997</v>
-      </c>
-      <c r="R8" s="11">
-        <f>+R7*0.5</f>
-        <v>6.2</v>
-      </c>
-      <c r="W8" s="10">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="X8" s="10">
-        <v>1.04</v>
-      </c>
-      <c r="Y8" s="10">
-        <v>2.944</v>
-      </c>
-      <c r="Z8" s="10">
-        <v>8.1080000000000005</v>
-      </c>
-      <c r="AA8" s="10">
-        <f>SUM(O8:R8)</f>
-        <v>21.751999999999999</v>
-      </c>
-      <c r="AB8" s="10">
-        <f>+AB7-AB9</f>
-        <v>24.94491</v>
-      </c>
-      <c r="AC8" s="10">
-        <f t="shared" ref="AC8:AL8" si="2">+AC7-AC9</f>
-        <v>47.395329000000004</v>
-      </c>
-      <c r="AD8" s="10">
-        <f t="shared" si="2"/>
-        <v>90.051125099999979</v>
-      </c>
-      <c r="AE8" s="10">
-        <f t="shared" si="2"/>
-        <v>171.09713768999995</v>
-      </c>
-      <c r="AF8" s="10">
-        <f t="shared" si="2"/>
-        <v>325.08456161099991</v>
-      </c>
-      <c r="AG8" s="10">
-        <f t="shared" si="2"/>
-        <v>357.59301777209998</v>
-      </c>
-      <c r="AH8" s="10">
-        <f t="shared" si="2"/>
-        <v>393.35231954930998</v>
-      </c>
-      <c r="AI8" s="10">
-        <f t="shared" si="2"/>
-        <v>432.68755150424101</v>
-      </c>
-      <c r="AJ8" s="10">
-        <f t="shared" si="2"/>
-        <v>475.95630665466524</v>
-      </c>
-      <c r="AK8" s="10">
-        <f t="shared" si="2"/>
-        <v>523.55193732013163</v>
-      </c>
-      <c r="AL8" s="10">
-        <f t="shared" si="2"/>
-        <v>575.9071310521449</v>
-      </c>
-    </row>
-    <row r="9" spans="1:46" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11">
-        <f t="shared" ref="K9:R9" si="3">+K7-K8</f>
-        <v>3.2639999999999998</v>
-      </c>
-      <c r="L9" s="11">
-        <f t="shared" si="3"/>
-        <v>3.5990000000000002</v>
-      </c>
-      <c r="M9" s="11">
-        <f t="shared" si="3"/>
-        <v>4.1280000000000001</v>
-      </c>
-      <c r="N9" s="11">
-        <f t="shared" si="3"/>
-        <v>2.9430000000000018</v>
-      </c>
-      <c r="O9" s="11">
-        <f t="shared" si="3"/>
-        <v>4.1679999999999993</v>
-      </c>
-      <c r="P9" s="11">
-        <f t="shared" si="3"/>
-        <v>5.758</v>
-      </c>
-      <c r="Q9" s="11">
-        <f t="shared" si="3"/>
-        <v>5.8850000000000007</v>
-      </c>
-      <c r="R9" s="11">
-        <f t="shared" si="3"/>
-        <v>6.2</v>
-      </c>
-      <c r="W9" s="10">
-        <f>+W7-W8</f>
-        <v>-0.14299999999999999</v>
-      </c>
-      <c r="X9" s="10">
-        <f>+X7-X8</f>
-        <v>1.0590000000000002</v>
-      </c>
-      <c r="Y9" s="10">
-        <f>+Y7-Y8</f>
-        <v>8.1870000000000012</v>
-      </c>
-      <c r="Z9" s="10">
-        <f>+Z7-Z8</f>
-        <v>13.934000000000001</v>
-      </c>
-      <c r="AA9" s="10">
-        <f>+AA7-AA8</f>
-        <v>22.010999999999999</v>
-      </c>
-      <c r="AB9" s="10">
-        <f>+AB7*0.7</f>
-        <v>58.204789999999996</v>
-      </c>
-      <c r="AC9" s="10">
-        <f t="shared" ref="AC9:AL9" si="4">+AC7*0.7</f>
-        <v>110.58910099999997</v>
-      </c>
-      <c r="AD9" s="10">
-        <f t="shared" si="4"/>
-        <v>210.11929189999995</v>
-      </c>
-      <c r="AE9" s="10">
-        <f t="shared" si="4"/>
-        <v>399.22665460999985</v>
-      </c>
-      <c r="AF9" s="10">
-        <f t="shared" si="4"/>
-        <v>758.53064375899964</v>
-      </c>
-      <c r="AG9" s="10">
-        <f t="shared" si="4"/>
-        <v>834.38370813489973</v>
-      </c>
-      <c r="AH9" s="10">
-        <f t="shared" si="4"/>
-        <v>917.82207894838973</v>
-      </c>
-      <c r="AI9" s="10">
-        <f t="shared" si="4"/>
-        <v>1009.6042868432288</v>
-      </c>
-      <c r="AJ9" s="10">
-        <f t="shared" si="4"/>
-        <v>1110.5647155275517</v>
-      </c>
-      <c r="AK9" s="10">
-        <f t="shared" si="4"/>
-        <v>1221.6211870803072</v>
-      </c>
-      <c r="AL9" s="10">
-        <f t="shared" si="4"/>
-        <v>1343.7833057883379</v>
-      </c>
-    </row>
-    <row r="10" spans="1:46" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="10" t="s">
-        <v>12</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -1709,95 +1590,96 @@
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="K10" s="11">
-        <v>16.233000000000001</v>
+        <v>1.036</v>
       </c>
       <c r="L10" s="11">
-        <v>19.869</v>
+        <v>1.901</v>
       </c>
       <c r="M10" s="11">
-        <v>24.599</v>
+        <v>2.008</v>
       </c>
       <c r="N10" s="11">
-        <f>+Z10-M10-L10-K10</f>
-        <v>31.619999999999994</v>
+        <f>+AB10-M10-L10-K10</f>
+        <v>3.1630000000000007</v>
       </c>
       <c r="O10" s="11">
-        <v>32.368000000000002</v>
+        <v>3.4140000000000001</v>
       </c>
       <c r="P10" s="11">
-        <v>31.204000000000001</v>
+        <v>5.6230000000000002</v>
       </c>
       <c r="Q10" s="11">
-        <v>33.177999999999997</v>
+        <v>6.5149999999999997</v>
       </c>
       <c r="R10" s="11">
-        <f t="shared" ref="R10:R11" si="5">+Q10</f>
-        <v>33.177999999999997</v>
-      </c>
-      <c r="W10" s="10">
-        <v>10.157</v>
-      </c>
-      <c r="X10" s="10">
-        <v>20.228000000000002</v>
-      </c>
+        <f>+R9*0.5</f>
+        <v>6.2</v>
+      </c>
+      <c r="S10" s="11"/>
       <c r="Y10" s="10">
-        <v>43.978000000000002</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="Z10" s="10">
-        <v>92.320999999999998</v>
+        <v>1.04</v>
       </c>
       <c r="AA10" s="10">
-        <f t="shared" ref="AA10:AA12" si="6">SUM(O10:R10)</f>
-        <v>129.928</v>
+        <v>2.944</v>
       </c>
       <c r="AB10" s="10">
-        <f>+AA10*1.05</f>
-        <v>136.42439999999999</v>
+        <v>8.1080000000000005</v>
       </c>
       <c r="AC10" s="10">
-        <f t="shared" ref="AC10:AL10" si="7">+AB10*1.05</f>
-        <v>143.24562</v>
+        <f>SUM(O10:R10)</f>
+        <v>21.751999999999999</v>
       </c>
       <c r="AD10" s="10">
-        <f t="shared" si="7"/>
-        <v>150.40790100000001</v>
+        <f>+AD9-AD11</f>
+        <v>24.94491</v>
       </c>
       <c r="AE10" s="10">
-        <f t="shared" si="7"/>
-        <v>157.92829605000003</v>
+        <f t="shared" ref="AE10:AN10" si="2">+AE9-AE11</f>
+        <v>47.395329000000004</v>
       </c>
       <c r="AF10" s="10">
-        <f t="shared" si="7"/>
-        <v>165.82471085250003</v>
+        <f t="shared" si="2"/>
+        <v>90.051125099999979</v>
       </c>
       <c r="AG10" s="10">
-        <f t="shared" si="7"/>
-        <v>174.11594639512504</v>
+        <f t="shared" si="2"/>
+        <v>171.09713768999995</v>
       </c>
       <c r="AH10" s="10">
-        <f t="shared" si="7"/>
-        <v>182.82174371488131</v>
+        <f t="shared" si="2"/>
+        <v>325.08456161099991</v>
       </c>
       <c r="AI10" s="10">
-        <f t="shared" si="7"/>
-        <v>191.96283090062539</v>
+        <f t="shared" si="2"/>
+        <v>357.59301777209998</v>
       </c>
       <c r="AJ10" s="10">
-        <f t="shared" si="7"/>
-        <v>201.56097244565666</v>
+        <f t="shared" si="2"/>
+        <v>393.35231954930998</v>
       </c>
       <c r="AK10" s="10">
-        <f t="shared" si="7"/>
-        <v>211.6390210679395</v>
+        <f t="shared" si="2"/>
+        <v>432.68755150424101</v>
       </c>
       <c r="AL10" s="10">
-        <f t="shared" si="7"/>
-        <v>222.22097212133647</v>
-      </c>
-    </row>
-    <row r="11" spans="1:46" s="10" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>475.95630665466524</v>
+      </c>
+      <c r="AM10" s="10">
+        <f t="shared" si="2"/>
+        <v>523.55193732013163</v>
+      </c>
+      <c r="AN10" s="10">
+        <f t="shared" si="2"/>
+        <v>575.9071310521449</v>
+      </c>
+    </row>
+    <row r="11" spans="1:48" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B11" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -1808,95 +1690,106 @@
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11">
-        <v>2.6669999999999998</v>
+        <f t="shared" ref="K11:R11" si="3">+K9-K10</f>
+        <v>3.2639999999999998</v>
       </c>
       <c r="L11" s="11">
-        <v>3.5750000000000002</v>
+        <f t="shared" si="3"/>
+        <v>3.5990000000000002</v>
       </c>
       <c r="M11" s="11">
-        <v>5.0469999999999997</v>
+        <f t="shared" si="3"/>
+        <v>4.1280000000000001</v>
       </c>
       <c r="N11" s="11">
-        <f>+Z11-M11-L11-K11</f>
-        <v>6.9809999999999999</v>
+        <f t="shared" si="3"/>
+        <v>2.9430000000000018</v>
       </c>
       <c r="O11" s="11">
-        <v>6.7009999999999996</v>
+        <f t="shared" si="3"/>
+        <v>4.1679999999999993</v>
       </c>
       <c r="P11" s="11">
-        <v>6.1369999999999996</v>
+        <f t="shared" si="3"/>
+        <v>5.758</v>
       </c>
       <c r="Q11" s="11">
-        <v>6.63</v>
+        <f t="shared" si="3"/>
+        <v>5.8850000000000007</v>
       </c>
       <c r="R11" s="11">
-        <f t="shared" si="5"/>
-        <v>6.63</v>
-      </c>
-      <c r="W11" s="10">
-        <v>0.48599999999999999</v>
-      </c>
-      <c r="X11" s="10">
-        <v>3.2330000000000001</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>6.2</v>
+      </c>
+      <c r="S11" s="11"/>
       <c r="Y11" s="10">
-        <v>8.3849999999999998</v>
+        <f>+Y9-Y10</f>
+        <v>-0.14299999999999999</v>
       </c>
       <c r="Z11" s="10">
-        <v>18.27</v>
+        <f>+Z9-Z10</f>
+        <v>1.0590000000000002</v>
       </c>
       <c r="AA11" s="10">
-        <f t="shared" si="6"/>
-        <v>26.097999999999999</v>
+        <f>+AA9-AA10</f>
+        <v>8.1870000000000012</v>
       </c>
       <c r="AB11" s="10">
-        <f t="shared" ref="AB11:AL11" si="8">+AA11*1.05</f>
-        <v>27.402899999999999</v>
+        <f>+AB9-AB10</f>
+        <v>13.934000000000001</v>
       </c>
       <c r="AC11" s="10">
-        <f t="shared" si="8"/>
-        <v>28.773045</v>
+        <f>+AC9-AC10</f>
+        <v>22.010999999999999</v>
       </c>
       <c r="AD11" s="10">
-        <f t="shared" si="8"/>
-        <v>30.21169725</v>
+        <f>+AD9*0.7</f>
+        <v>58.204789999999996</v>
       </c>
       <c r="AE11" s="10">
-        <f t="shared" si="8"/>
-        <v>31.7222821125</v>
+        <f t="shared" ref="AE11:AN11" si="4">+AE9*0.7</f>
+        <v>110.58910099999997</v>
       </c>
       <c r="AF11" s="10">
-        <f t="shared" si="8"/>
-        <v>33.308396218125004</v>
+        <f t="shared" si="4"/>
+        <v>210.11929189999995</v>
       </c>
       <c r="AG11" s="10">
-        <f t="shared" si="8"/>
-        <v>34.973816029031255</v>
+        <f t="shared" si="4"/>
+        <v>399.22665460999985</v>
       </c>
       <c r="AH11" s="10">
-        <f t="shared" si="8"/>
-        <v>36.722506830482821</v>
+        <f t="shared" si="4"/>
+        <v>758.53064375899964</v>
       </c>
       <c r="AI11" s="10">
-        <f t="shared" si="8"/>
-        <v>38.558632172006966</v>
+        <f t="shared" si="4"/>
+        <v>834.38370813489973</v>
       </c>
       <c r="AJ11" s="10">
-        <f t="shared" si="8"/>
-        <v>40.48656378060732</v>
+        <f t="shared" si="4"/>
+        <v>917.82207894838973</v>
       </c>
       <c r="AK11" s="10">
-        <f t="shared" si="8"/>
-        <v>42.51089196963769</v>
+        <f t="shared" si="4"/>
+        <v>1009.6042868432288</v>
       </c>
       <c r="AL11" s="10">
-        <f t="shared" si="8"/>
-        <v>44.636436568119578</v>
-      </c>
-    </row>
-    <row r="12" spans="1:46" s="10" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>1110.5647155275517</v>
+      </c>
+      <c r="AM11" s="10">
+        <f t="shared" si="4"/>
+        <v>1221.6211870803072</v>
+      </c>
+      <c r="AN11" s="10">
+        <f t="shared" si="4"/>
+        <v>1343.7833057883379</v>
+      </c>
+    </row>
+    <row r="12" spans="1:48" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -1907,95 +1800,96 @@
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11">
-        <v>10.581</v>
+        <v>16.233000000000001</v>
       </c>
       <c r="L12" s="11">
-        <v>10.93</v>
+        <v>19.869</v>
       </c>
       <c r="M12" s="11">
-        <v>13.927</v>
+        <v>24.599</v>
       </c>
       <c r="N12" s="11">
-        <f>+Z12-M12-L12-K12</f>
-        <v>15.284000000000002</v>
+        <f>+AB12-M12-L12-K12</f>
+        <v>31.619999999999994</v>
       </c>
       <c r="O12" s="11">
-        <v>14.02</v>
+        <v>32.368000000000002</v>
       </c>
       <c r="P12" s="11">
-        <v>14.321999999999999</v>
+        <v>31.204000000000001</v>
       </c>
       <c r="Q12" s="11">
-        <v>14.321999999999999</v>
+        <v>33.177999999999997</v>
       </c>
       <c r="R12" s="11">
-        <f>+Q12</f>
-        <v>14.321999999999999</v>
-      </c>
-      <c r="W12" s="10">
-        <v>3.5470000000000002</v>
-      </c>
-      <c r="X12" s="10">
-        <v>13.737</v>
-      </c>
+        <f t="shared" ref="R12:R13" si="5">+Q12</f>
+        <v>33.177999999999997</v>
+      </c>
+      <c r="S12" s="11"/>
       <c r="Y12" s="10">
-        <v>35.966000000000001</v>
+        <v>10.157</v>
       </c>
       <c r="Z12" s="10">
-        <v>50.722000000000001</v>
+        <v>20.228000000000002</v>
       </c>
       <c r="AA12" s="10">
-        <f t="shared" si="6"/>
-        <v>56.986000000000004</v>
+        <v>43.978000000000002</v>
       </c>
       <c r="AB12" s="10">
-        <f t="shared" ref="AB12:AL12" si="9">+AA12*1.05</f>
-        <v>59.835300000000004</v>
+        <v>92.320999999999998</v>
       </c>
       <c r="AC12" s="10">
-        <f t="shared" si="9"/>
-        <v>62.827065000000005</v>
+        <f t="shared" ref="AC12:AC14" si="6">SUM(O12:R12)</f>
+        <v>129.928</v>
       </c>
       <c r="AD12" s="10">
-        <f t="shared" si="9"/>
-        <v>65.968418250000013</v>
+        <f>+AC12*1.05</f>
+        <v>136.42439999999999</v>
       </c>
       <c r="AE12" s="10">
-        <f t="shared" si="9"/>
-        <v>69.26683916250002</v>
+        <f t="shared" ref="AE12:AN12" si="7">+AD12*1.05</f>
+        <v>143.24562</v>
       </c>
       <c r="AF12" s="10">
-        <f t="shared" si="9"/>
-        <v>72.730181120625019</v>
+        <f t="shared" si="7"/>
+        <v>150.40790100000001</v>
       </c>
       <c r="AG12" s="10">
-        <f t="shared" si="9"/>
-        <v>76.366690176656277</v>
+        <f t="shared" si="7"/>
+        <v>157.92829605000003</v>
       </c>
       <c r="AH12" s="10">
-        <f t="shared" si="9"/>
-        <v>80.185024685489097</v>
+        <f t="shared" si="7"/>
+        <v>165.82471085250003</v>
       </c>
       <c r="AI12" s="10">
-        <f t="shared" si="9"/>
-        <v>84.194275919763555</v>
+        <f t="shared" si="7"/>
+        <v>174.11594639512504</v>
       </c>
       <c r="AJ12" s="10">
-        <f t="shared" si="9"/>
-        <v>88.403989715751734</v>
+        <f t="shared" si="7"/>
+        <v>182.82174371488131</v>
       </c>
       <c r="AK12" s="10">
-        <f t="shared" si="9"/>
-        <v>92.824189201539326</v>
+        <f t="shared" si="7"/>
+        <v>191.96283090062539</v>
       </c>
       <c r="AL12" s="10">
-        <f t="shared" si="9"/>
-        <v>97.465398661616291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:46" s="10" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>201.56097244565666</v>
+      </c>
+      <c r="AM12" s="10">
+        <f t="shared" si="7"/>
+        <v>211.6390210679395</v>
+      </c>
+      <c r="AN12" s="10">
+        <f t="shared" si="7"/>
+        <v>222.22097212133647</v>
+      </c>
+    </row>
+    <row r="13" spans="1:48" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B13" s="10" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -2006,109 +1900,96 @@
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11">
-        <f t="shared" ref="K13" si="10">SUM(K10:K12)</f>
-        <v>29.480999999999998</v>
+        <v>2.6669999999999998</v>
       </c>
       <c r="L13" s="11">
-        <f t="shared" ref="L13" si="11">SUM(L10:L12)</f>
-        <v>34.373999999999995</v>
+        <v>3.5750000000000002</v>
       </c>
       <c r="M13" s="11">
-        <f t="shared" ref="M13:O13" si="12">SUM(M10:M12)</f>
-        <v>43.573</v>
+        <v>5.0469999999999997</v>
       </c>
       <c r="N13" s="11">
-        <f t="shared" si="12"/>
-        <v>53.884999999999991</v>
+        <f>+AB13-M13-L13-K13</f>
+        <v>6.9809999999999999</v>
       </c>
       <c r="O13" s="11">
-        <f t="shared" si="12"/>
-        <v>53.088999999999999</v>
+        <v>6.7009999999999996</v>
       </c>
       <c r="P13" s="11">
-        <f>SUM(P10:P12)</f>
-        <v>51.662999999999997</v>
+        <v>6.1369999999999996</v>
       </c>
       <c r="Q13" s="11">
-        <f>SUM(Q10:Q12)</f>
-        <v>54.129999999999995</v>
+        <v>6.63</v>
       </c>
       <c r="R13" s="11">
-        <f>SUM(R10:R12)</f>
-        <v>54.129999999999995</v>
+        <f t="shared" si="5"/>
+        <v>6.63</v>
       </c>
       <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11">
-        <f t="shared" ref="W13:X13" si="13">SUM(W10:W12)</f>
-        <v>14.190000000000001</v>
-      </c>
-      <c r="X13" s="11">
-        <f t="shared" si="13"/>
-        <v>37.198</v>
-      </c>
-      <c r="Y13" s="11">
-        <f t="shared" ref="Y13:AA13" si="14">SUM(Y10:Y12)</f>
-        <v>88.329000000000008</v>
-      </c>
-      <c r="Z13" s="11">
-        <f t="shared" si="14"/>
-        <v>161.31299999999999</v>
-      </c>
-      <c r="AA13" s="11">
-        <f t="shared" si="14"/>
-        <v>213.012</v>
-      </c>
-      <c r="AB13" s="11">
-        <f t="shared" ref="AB13" si="15">SUM(AB10:AB12)</f>
-        <v>223.6626</v>
-      </c>
-      <c r="AC13" s="11">
-        <f t="shared" ref="AC13" si="16">SUM(AC10:AC12)</f>
-        <v>234.84573</v>
-      </c>
-      <c r="AD13" s="11">
-        <f t="shared" ref="AD13" si="17">SUM(AD10:AD12)</f>
-        <v>246.58801650000004</v>
-      </c>
-      <c r="AE13" s="11">
-        <f t="shared" ref="AE13" si="18">SUM(AE10:AE12)</f>
-        <v>258.91741732500009</v>
-      </c>
-      <c r="AF13" s="11">
-        <f t="shared" ref="AF13" si="19">SUM(AF10:AF12)</f>
-        <v>271.86328819125004</v>
-      </c>
-      <c r="AG13" s="11">
-        <f t="shared" ref="AG13" si="20">SUM(AG10:AG12)</f>
-        <v>285.45645260081255</v>
-      </c>
-      <c r="AH13" s="11">
-        <f t="shared" ref="AH13" si="21">SUM(AH10:AH12)</f>
-        <v>299.7292752308532</v>
-      </c>
-      <c r="AI13" s="11">
-        <f t="shared" ref="AI13" si="22">SUM(AI10:AI12)</f>
-        <v>314.71573899239593</v>
-      </c>
-      <c r="AJ13" s="11">
-        <f t="shared" ref="AJ13" si="23">SUM(AJ10:AJ12)</f>
-        <v>330.45152594201573</v>
-      </c>
-      <c r="AK13" s="11">
-        <f t="shared" ref="AK13" si="24">SUM(AK10:AK12)</f>
-        <v>346.97410223911652</v>
-      </c>
-      <c r="AL13" s="11">
-        <f t="shared" ref="AL13" si="25">SUM(AL10:AL12)</f>
-        <v>364.32280735107236</v>
-      </c>
-    </row>
-    <row r="14" spans="1:46" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y13" s="10">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="Z13" s="10">
+        <v>3.2330000000000001</v>
+      </c>
+      <c r="AA13" s="10">
+        <v>8.3849999999999998</v>
+      </c>
+      <c r="AB13" s="10">
+        <v>18.27</v>
+      </c>
+      <c r="AC13" s="10">
+        <f t="shared" si="6"/>
+        <v>26.097999999999999</v>
+      </c>
+      <c r="AD13" s="10">
+        <f t="shared" ref="AD13:AN13" si="8">+AC13*1.05</f>
+        <v>27.402899999999999</v>
+      </c>
+      <c r="AE13" s="10">
+        <f t="shared" si="8"/>
+        <v>28.773045</v>
+      </c>
+      <c r="AF13" s="10">
+        <f t="shared" si="8"/>
+        <v>30.21169725</v>
+      </c>
+      <c r="AG13" s="10">
+        <f t="shared" si="8"/>
+        <v>31.7222821125</v>
+      </c>
+      <c r="AH13" s="10">
+        <f t="shared" si="8"/>
+        <v>33.308396218125004</v>
+      </c>
+      <c r="AI13" s="10">
+        <f t="shared" si="8"/>
+        <v>34.973816029031255</v>
+      </c>
+      <c r="AJ13" s="10">
+        <f t="shared" si="8"/>
+        <v>36.722506830482821</v>
+      </c>
+      <c r="AK13" s="10">
+        <f t="shared" si="8"/>
+        <v>38.558632172006966</v>
+      </c>
+      <c r="AL13" s="10">
+        <f t="shared" si="8"/>
+        <v>40.48656378060732</v>
+      </c>
+      <c r="AM13" s="10">
+        <f t="shared" si="8"/>
+        <v>42.51089196963769</v>
+      </c>
+      <c r="AN13" s="10">
+        <f t="shared" si="8"/>
+        <v>44.636436568119578</v>
+      </c>
+    </row>
+    <row r="14" spans="1:48" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B14" s="10" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
@@ -2119,109 +2000,96 @@
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11">
-        <f t="shared" ref="K14" si="26">+K9-K13</f>
-        <v>-26.216999999999999</v>
+        <v>10.581</v>
       </c>
       <c r="L14" s="11">
-        <f t="shared" ref="L14" si="27">+L9-L13</f>
-        <v>-30.774999999999995</v>
+        <v>10.93</v>
       </c>
       <c r="M14" s="11">
-        <f t="shared" ref="M14:P14" si="28">+M9-M13</f>
-        <v>-39.445</v>
+        <v>13.927</v>
       </c>
       <c r="N14" s="11">
-        <f t="shared" si="28"/>
-        <v>-50.941999999999986</v>
+        <f>+AB14-M14-L14-K14</f>
+        <v>15.284000000000002</v>
       </c>
       <c r="O14" s="11">
-        <f t="shared" si="28"/>
-        <v>-48.920999999999999</v>
+        <v>14.02</v>
       </c>
       <c r="P14" s="11">
-        <f t="shared" si="28"/>
-        <v>-45.904999999999994</v>
+        <v>14.321999999999999</v>
       </c>
       <c r="Q14" s="11">
-        <f>+Q9-Q13</f>
-        <v>-48.244999999999997</v>
+        <v>14.321999999999999</v>
       </c>
       <c r="R14" s="11">
-        <f>+R9-R13</f>
-        <v>-47.929999999999993</v>
+        <f>+Q14</f>
+        <v>14.321999999999999</v>
       </c>
       <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11">
-        <f t="shared" ref="W14:X14" si="29">+W9-W13</f>
-        <v>-14.333000000000002</v>
-      </c>
-      <c r="X14" s="11">
-        <f t="shared" si="29"/>
-        <v>-36.139000000000003</v>
-      </c>
-      <c r="Y14" s="11">
-        <f t="shared" ref="Y14:AA14" si="30">+Y9-Y13</f>
-        <v>-80.14200000000001</v>
-      </c>
-      <c r="Z14" s="11">
-        <f t="shared" si="30"/>
-        <v>-147.37899999999999</v>
-      </c>
-      <c r="AA14" s="11">
-        <f t="shared" si="30"/>
-        <v>-191.001</v>
-      </c>
-      <c r="AB14" s="11">
-        <f t="shared" ref="AB14" si="31">+AB9-AB13</f>
-        <v>-165.45780999999999</v>
-      </c>
-      <c r="AC14" s="11">
-        <f t="shared" ref="AC14" si="32">+AC9-AC13</f>
-        <v>-124.25662900000003</v>
-      </c>
-      <c r="AD14" s="11">
-        <f t="shared" ref="AD14" si="33">+AD9-AD13</f>
-        <v>-36.468724600000087</v>
-      </c>
-      <c r="AE14" s="11">
-        <f t="shared" ref="AE14" si="34">+AE9-AE13</f>
-        <v>140.30923728499977</v>
-      </c>
-      <c r="AF14" s="11">
-        <f t="shared" ref="AF14" si="35">+AF9-AF13</f>
-        <v>486.66735556774961</v>
-      </c>
-      <c r="AG14" s="11">
-        <f t="shared" ref="AG14" si="36">+AG9-AG13</f>
-        <v>548.92725553408718</v>
-      </c>
-      <c r="AH14" s="11">
-        <f t="shared" ref="AH14" si="37">+AH9-AH13</f>
-        <v>618.09280371753653</v>
-      </c>
-      <c r="AI14" s="11">
-        <f t="shared" ref="AI14" si="38">+AI9-AI13</f>
-        <v>694.88854785083288</v>
-      </c>
-      <c r="AJ14" s="11">
-        <f t="shared" ref="AJ14" si="39">+AJ9-AJ13</f>
-        <v>780.11318958553602</v>
-      </c>
-      <c r="AK14" s="11">
-        <f t="shared" ref="AK14" si="40">+AK9-AK13</f>
-        <v>874.64708484119069</v>
-      </c>
-      <c r="AL14" s="11">
-        <f t="shared" ref="AL14" si="41">+AL9-AL13</f>
-        <v>979.46049843726553</v>
-      </c>
-    </row>
-    <row r="15" spans="1:46" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y14" s="10">
+        <v>3.5470000000000002</v>
+      </c>
+      <c r="Z14" s="10">
+        <v>13.737</v>
+      </c>
+      <c r="AA14" s="10">
+        <v>35.966000000000001</v>
+      </c>
+      <c r="AB14" s="10">
+        <v>50.722000000000001</v>
+      </c>
+      <c r="AC14" s="10">
+        <f t="shared" si="6"/>
+        <v>56.986000000000004</v>
+      </c>
+      <c r="AD14" s="10">
+        <f t="shared" ref="AD14:AN14" si="9">+AC14*1.05</f>
+        <v>59.835300000000004</v>
+      </c>
+      <c r="AE14" s="10">
+        <f t="shared" si="9"/>
+        <v>62.827065000000005</v>
+      </c>
+      <c r="AF14" s="10">
+        <f t="shared" si="9"/>
+        <v>65.968418250000013</v>
+      </c>
+      <c r="AG14" s="10">
+        <f t="shared" si="9"/>
+        <v>69.26683916250002</v>
+      </c>
+      <c r="AH14" s="10">
+        <f t="shared" si="9"/>
+        <v>72.730181120625019</v>
+      </c>
+      <c r="AI14" s="10">
+        <f t="shared" si="9"/>
+        <v>76.366690176656277</v>
+      </c>
+      <c r="AJ14" s="10">
+        <f t="shared" si="9"/>
+        <v>80.185024685489097</v>
+      </c>
+      <c r="AK14" s="10">
+        <f t="shared" si="9"/>
+        <v>84.194275919763555</v>
+      </c>
+      <c r="AL14" s="10">
+        <f t="shared" si="9"/>
+        <v>88.403989715751734</v>
+      </c>
+      <c r="AM14" s="10">
+        <f t="shared" si="9"/>
+        <v>92.824189201539326</v>
+      </c>
+      <c r="AN14" s="10">
+        <f t="shared" si="9"/>
+        <v>97.465398661616291</v>
+      </c>
+    </row>
+    <row r="15" spans="1:48" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B15" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -2232,142 +2100,226 @@
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11">
-        <v>4.2309999999999999</v>
+        <f t="shared" ref="K15" si="10">SUM(K12:K14)</f>
+        <v>29.480999999999998</v>
       </c>
       <c r="L15" s="11">
-        <v>4.8769999999999998</v>
+        <f t="shared" ref="L15" si="11">SUM(L12:L14)</f>
+        <v>34.373999999999995</v>
       </c>
       <c r="M15" s="11">
-        <v>5.0069999999999997</v>
-      </c>
-      <c r="N15" s="11"/>
+        <f t="shared" ref="M15:O15" si="12">SUM(M12:M14)</f>
+        <v>43.573</v>
+      </c>
+      <c r="N15" s="11">
+        <f t="shared" si="12"/>
+        <v>53.884999999999991</v>
+      </c>
       <c r="O15" s="11">
-        <v>4.7990000000000004</v>
+        <f t="shared" si="12"/>
+        <v>53.088999999999999</v>
       </c>
       <c r="P15" s="11">
-        <v>4.8010000000000002</v>
+        <f>SUM(P12:P14)</f>
+        <v>51.662999999999997</v>
       </c>
       <c r="Q15" s="11">
-        <f>4.508+0.015</f>
-        <v>4.5229999999999997</v>
+        <f>SUM(Q12:Q14)</f>
+        <v>54.129999999999995</v>
       </c>
       <c r="R15" s="11">
-        <f>+Q15</f>
-        <v>4.5229999999999997</v>
-      </c>
-      <c r="AA15" s="10">
-        <f t="shared" ref="AA15" si="42">SUM(O15:R15)</f>
-        <v>18.646000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
+        <f>SUM(R12:R14)</f>
+        <v>54.129999999999995</v>
+      </c>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11">
+        <f t="shared" ref="Y15:Z15" si="13">SUM(Y12:Y14)</f>
+        <v>14.190000000000001</v>
+      </c>
+      <c r="Z15" s="11">
+        <f t="shared" si="13"/>
+        <v>37.198</v>
+      </c>
+      <c r="AA15" s="11">
+        <f t="shared" ref="AA15:AC15" si="14">SUM(AA12:AA14)</f>
+        <v>88.329000000000008</v>
+      </c>
+      <c r="AB15" s="11">
+        <f t="shared" si="14"/>
+        <v>161.31299999999999</v>
+      </c>
+      <c r="AC15" s="11">
+        <f t="shared" si="14"/>
+        <v>213.012</v>
+      </c>
+      <c r="AD15" s="11">
+        <f t="shared" ref="AD15" si="15">SUM(AD12:AD14)</f>
+        <v>223.6626</v>
+      </c>
+      <c r="AE15" s="11">
+        <f t="shared" ref="AE15" si="16">SUM(AE12:AE14)</f>
+        <v>234.84573</v>
+      </c>
+      <c r="AF15" s="11">
+        <f t="shared" ref="AF15" si="17">SUM(AF12:AF14)</f>
+        <v>246.58801650000004</v>
+      </c>
+      <c r="AG15" s="11">
+        <f t="shared" ref="AG15" si="18">SUM(AG12:AG14)</f>
+        <v>258.91741732500009</v>
+      </c>
+      <c r="AH15" s="11">
+        <f t="shared" ref="AH15" si="19">SUM(AH12:AH14)</f>
+        <v>271.86328819125004</v>
+      </c>
+      <c r="AI15" s="11">
+        <f t="shared" ref="AI15" si="20">SUM(AI12:AI14)</f>
+        <v>285.45645260081255</v>
+      </c>
+      <c r="AJ15" s="11">
+        <f t="shared" ref="AJ15" si="21">SUM(AJ12:AJ14)</f>
+        <v>299.7292752308532</v>
+      </c>
+      <c r="AK15" s="11">
+        <f t="shared" ref="AK15" si="22">SUM(AK12:AK14)</f>
+        <v>314.71573899239593</v>
+      </c>
+      <c r="AL15" s="11">
+        <f t="shared" ref="AL15" si="23">SUM(AL12:AL14)</f>
+        <v>330.45152594201573</v>
+      </c>
+      <c r="AM15" s="11">
+        <f t="shared" ref="AM15" si="24">SUM(AM12:AM14)</f>
+        <v>346.97410223911652</v>
+      </c>
+      <c r="AN15" s="11">
+        <f t="shared" ref="AN15" si="25">SUM(AN12:AN14)</f>
+        <v>364.32280735107236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:48" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B16" s="10" t="s">
-        <v>59</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
       <c r="K16" s="11">
-        <f t="shared" ref="K16:L16" si="43">+K14+K15</f>
-        <v>-21.985999999999997</v>
+        <f t="shared" ref="K16" si="26">+K11-K15</f>
+        <v>-26.216999999999999</v>
       </c>
       <c r="L16" s="11">
-        <f t="shared" si="43"/>
-        <v>-25.897999999999996</v>
+        <f t="shared" ref="L16" si="27">+L11-L15</f>
+        <v>-30.774999999999995</v>
       </c>
       <c r="M16" s="11">
-        <f>+M14+M15</f>
-        <v>-34.438000000000002</v>
+        <f t="shared" ref="M16:P16" si="28">+M11-M15</f>
+        <v>-39.445</v>
       </c>
       <c r="N16" s="11">
-        <f t="shared" ref="N16:P16" si="44">+N14+N15</f>
+        <f t="shared" si="28"/>
         <v>-50.941999999999986</v>
       </c>
       <c r="O16" s="11">
-        <f t="shared" si="44"/>
-        <v>-44.122</v>
+        <f t="shared" si="28"/>
+        <v>-48.920999999999999</v>
       </c>
       <c r="P16" s="11">
-        <f t="shared" si="44"/>
-        <v>-41.103999999999992</v>
+        <f t="shared" si="28"/>
+        <v>-45.904999999999994</v>
       </c>
       <c r="Q16" s="11">
-        <f>+Q14+Q15</f>
-        <v>-43.721999999999994</v>
+        <f>+Q11-Q15</f>
+        <v>-48.244999999999997</v>
       </c>
       <c r="R16" s="11">
-        <f>+R14+R15</f>
-        <v>-43.406999999999996</v>
+        <f>+R11-R15</f>
+        <v>-47.929999999999993</v>
       </c>
       <c r="S16" s="11"/>
       <c r="T16" s="11"/>
       <c r="U16" s="11"/>
       <c r="V16" s="11"/>
-      <c r="W16" s="11">
-        <f t="shared" ref="W16:AA16" si="45">+W14+W15</f>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11">
+        <f t="shared" ref="Y16:Z16" si="29">+Y11-Y15</f>
         <v>-14.333000000000002</v>
       </c>
-      <c r="X16" s="11">
-        <f t="shared" si="45"/>
+      <c r="Z16" s="11">
+        <f t="shared" si="29"/>
         <v>-36.139000000000003</v>
       </c>
-      <c r="Y16" s="11">
-        <f t="shared" si="45"/>
+      <c r="AA16" s="11">
+        <f t="shared" ref="AA16:AC16" si="30">+AA11-AA15</f>
         <v>-80.14200000000001</v>
       </c>
-      <c r="Z16" s="11">
-        <f t="shared" si="45"/>
+      <c r="AB16" s="11">
+        <f t="shared" si="30"/>
         <v>-147.37899999999999</v>
       </c>
-      <c r="AA16" s="11">
-        <f t="shared" si="45"/>
-        <v>-172.35500000000002</v>
-      </c>
-      <c r="AB16" s="11">
-        <f t="shared" ref="AB16" si="46">+AB14+AB15</f>
+      <c r="AC16" s="11">
+        <f t="shared" si="30"/>
+        <v>-191.001</v>
+      </c>
+      <c r="AD16" s="11">
+        <f t="shared" ref="AD16" si="31">+AD11-AD15</f>
         <v>-165.45780999999999</v>
       </c>
-      <c r="AC16" s="11">
-        <f t="shared" ref="AC16" si="47">+AC14+AC15</f>
+      <c r="AE16" s="11">
+        <f t="shared" ref="AE16" si="32">+AE11-AE15</f>
         <v>-124.25662900000003</v>
       </c>
-      <c r="AD16" s="11">
-        <f t="shared" ref="AD16" si="48">+AD14+AD15</f>
+      <c r="AF16" s="11">
+        <f t="shared" ref="AF16" si="33">+AF11-AF15</f>
         <v>-36.468724600000087</v>
       </c>
-      <c r="AE16" s="11">
-        <f t="shared" ref="AE16" si="49">+AE14+AE15</f>
+      <c r="AG16" s="11">
+        <f t="shared" ref="AG16" si="34">+AG11-AG15</f>
         <v>140.30923728499977</v>
       </c>
-      <c r="AF16" s="11">
-        <f t="shared" ref="AF16" si="50">+AF14+AF15</f>
+      <c r="AH16" s="11">
+        <f t="shared" ref="AH16" si="35">+AH11-AH15</f>
         <v>486.66735556774961</v>
       </c>
-      <c r="AG16" s="11">
-        <f t="shared" ref="AG16" si="51">+AG14+AG15</f>
+      <c r="AI16" s="11">
+        <f t="shared" ref="AI16" si="36">+AI11-AI15</f>
         <v>548.92725553408718</v>
       </c>
-      <c r="AH16" s="11">
-        <f t="shared" ref="AH16" si="52">+AH14+AH15</f>
+      <c r="AJ16" s="11">
+        <f t="shared" ref="AJ16" si="37">+AJ11-AJ15</f>
         <v>618.09280371753653</v>
       </c>
-      <c r="AI16" s="11">
-        <f t="shared" ref="AI16" si="53">+AI14+AI15</f>
+      <c r="AK16" s="11">
+        <f t="shared" ref="AK16" si="38">+AK11-AK15</f>
         <v>694.88854785083288</v>
       </c>
-      <c r="AJ16" s="11">
-        <f t="shared" ref="AJ16" si="54">+AJ14+AJ15</f>
+      <c r="AL16" s="11">
+        <f t="shared" ref="AL16" si="39">+AL11-AL15</f>
         <v>780.11318958553602</v>
       </c>
-      <c r="AK16" s="11">
-        <f t="shared" ref="AK16" si="55">+AK14+AK15</f>
+      <c r="AM16" s="11">
+        <f t="shared" ref="AM16" si="40">+AM11-AM15</f>
         <v>874.64708484119069</v>
       </c>
-      <c r="AL16" s="11">
-        <f t="shared" ref="AL16" si="56">+AL14+AL15</f>
+      <c r="AN16" s="11">
+        <f t="shared" ref="AN16" si="41">+AN11-AN15</f>
         <v>979.46049843726553</v>
       </c>
     </row>
-    <row r="17" spans="2:75" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:77" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B17" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -2378,622 +2330,729 @@
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11">
-        <v>0</v>
+        <v>4.2309999999999999</v>
       </c>
       <c r="L17" s="11">
-        <v>0</v>
+        <v>4.8769999999999998</v>
       </c>
       <c r="M17" s="11">
-        <v>0</v>
+        <v>5.0069999999999997</v>
       </c>
       <c r="N17" s="11"/>
       <c r="O17" s="11">
-        <v>0</v>
+        <v>4.7990000000000004</v>
       </c>
       <c r="P17" s="11">
-        <v>0</v>
+        <v>4.8010000000000002</v>
       </c>
       <c r="Q17" s="11">
-        <v>0</v>
+        <f>4.508+0.015</f>
+        <v>4.5229999999999997</v>
       </c>
       <c r="R17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="10">
-        <f t="shared" ref="AA17" si="57">SUM(O17:R17)</f>
-        <v>0</v>
-      </c>
-      <c r="AE17" s="10">
-        <f>+AE16*0.1</f>
-        <v>14.030923728499978</v>
-      </c>
-      <c r="AF17" s="10">
-        <f t="shared" ref="AF17:AL17" si="58">+AF16*0.1</f>
-        <v>48.666735556774967</v>
-      </c>
-      <c r="AG17" s="10">
-        <f t="shared" si="58"/>
-        <v>54.892725553408724</v>
-      </c>
-      <c r="AH17" s="10">
-        <f t="shared" si="58"/>
-        <v>61.809280371753658</v>
-      </c>
-      <c r="AI17" s="10">
-        <f t="shared" si="58"/>
-        <v>69.488854785083291</v>
-      </c>
-      <c r="AJ17" s="10">
-        <f t="shared" si="58"/>
-        <v>78.011318958553602</v>
-      </c>
-      <c r="AK17" s="10">
-        <f t="shared" si="58"/>
-        <v>87.464708484119072</v>
-      </c>
-      <c r="AL17" s="10">
-        <f t="shared" si="58"/>
-        <v>97.946049843726556</v>
-      </c>
-    </row>
-    <row r="18" spans="2:75" x14ac:dyDescent="0.2">
+        <f>+Q17</f>
+        <v>4.5229999999999997</v>
+      </c>
+      <c r="S17" s="11"/>
+      <c r="AC17" s="10">
+        <f t="shared" ref="AC17" si="42">SUM(O17:R17)</f>
+        <v>18.646000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:77" x14ac:dyDescent="0.15">
       <c r="B18" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K18" s="11">
-        <f>+K16-K17</f>
+        <f t="shared" ref="K18:L18" si="43">+K16+K17</f>
         <v>-21.985999999999997</v>
       </c>
       <c r="L18" s="11">
-        <f t="shared" ref="L18" si="59">+L16-L17</f>
+        <f t="shared" si="43"/>
         <v>-25.897999999999996</v>
       </c>
       <c r="M18" s="11">
-        <f t="shared" ref="M18:R18" si="60">+M16-M17</f>
+        <f>+M16+M17</f>
         <v>-34.438000000000002</v>
       </c>
       <c r="N18" s="11">
-        <f t="shared" si="60"/>
+        <f t="shared" ref="N18:P18" si="44">+N16+N17</f>
         <v>-50.941999999999986</v>
       </c>
       <c r="O18" s="11">
-        <f t="shared" si="60"/>
+        <f t="shared" si="44"/>
         <v>-44.122</v>
       </c>
       <c r="P18" s="11">
-        <f t="shared" si="60"/>
+        <f t="shared" si="44"/>
         <v>-41.103999999999992</v>
       </c>
       <c r="Q18" s="11">
-        <f t="shared" si="60"/>
+        <f>+Q16+Q17</f>
         <v>-43.721999999999994</v>
       </c>
       <c r="R18" s="11">
-        <f t="shared" si="60"/>
+        <f>+R16+R17</f>
         <v>-43.406999999999996</v>
       </c>
       <c r="S18" s="11"/>
       <c r="T18" s="11"/>
       <c r="U18" s="11"/>
       <c r="V18" s="11"/>
-      <c r="W18" s="11">
-        <f t="shared" ref="W18:AA18" si="61">+W16-W17</f>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11">
+        <f t="shared" ref="Y18:AC18" si="45">+Y16+Y17</f>
         <v>-14.333000000000002</v>
       </c>
-      <c r="X18" s="11">
+      <c r="Z18" s="11">
+        <f t="shared" si="45"/>
+        <v>-36.139000000000003</v>
+      </c>
+      <c r="AA18" s="11">
+        <f t="shared" si="45"/>
+        <v>-80.14200000000001</v>
+      </c>
+      <c r="AB18" s="11">
+        <f t="shared" si="45"/>
+        <v>-147.37899999999999</v>
+      </c>
+      <c r="AC18" s="11">
+        <f t="shared" si="45"/>
+        <v>-172.35500000000002</v>
+      </c>
+      <c r="AD18" s="11">
+        <f t="shared" ref="AD18" si="46">+AD16+AD17</f>
+        <v>-165.45780999999999</v>
+      </c>
+      <c r="AE18" s="11">
+        <f t="shared" ref="AE18" si="47">+AE16+AE17</f>
+        <v>-124.25662900000003</v>
+      </c>
+      <c r="AF18" s="11">
+        <f t="shared" ref="AF18" si="48">+AF16+AF17</f>
+        <v>-36.468724600000087</v>
+      </c>
+      <c r="AG18" s="11">
+        <f t="shared" ref="AG18" si="49">+AG16+AG17</f>
+        <v>140.30923728499977</v>
+      </c>
+      <c r="AH18" s="11">
+        <f t="shared" ref="AH18" si="50">+AH16+AH17</f>
+        <v>486.66735556774961</v>
+      </c>
+      <c r="AI18" s="11">
+        <f t="shared" ref="AI18" si="51">+AI16+AI17</f>
+        <v>548.92725553408718</v>
+      </c>
+      <c r="AJ18" s="11">
+        <f t="shared" ref="AJ18" si="52">+AJ16+AJ17</f>
+        <v>618.09280371753653</v>
+      </c>
+      <c r="AK18" s="11">
+        <f t="shared" ref="AK18" si="53">+AK16+AK17</f>
+        <v>694.88854785083288</v>
+      </c>
+      <c r="AL18" s="11">
+        <f t="shared" ref="AL18" si="54">+AL16+AL17</f>
+        <v>780.11318958553602</v>
+      </c>
+      <c r="AM18" s="11">
+        <f t="shared" ref="AM18" si="55">+AM16+AM17</f>
+        <v>874.64708484119069</v>
+      </c>
+      <c r="AN18" s="11">
+        <f t="shared" ref="AN18" si="56">+AN16+AN17</f>
+        <v>979.46049843726553</v>
+      </c>
+    </row>
+    <row r="19" spans="2:77" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11">
+        <v>0</v>
+      </c>
+      <c r="L19" s="11">
+        <v>0</v>
+      </c>
+      <c r="M19" s="11">
+        <v>0</v>
+      </c>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11">
+        <v>0</v>
+      </c>
+      <c r="P19" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="11">
+        <v>0</v>
+      </c>
+      <c r="R19" s="11">
+        <v>0</v>
+      </c>
+      <c r="S19" s="11"/>
+      <c r="AC19" s="10">
+        <f t="shared" ref="AC19" si="57">SUM(O19:R19)</f>
+        <v>0</v>
+      </c>
+      <c r="AG19" s="10">
+        <f>+AG18*0.1</f>
+        <v>14.030923728499978</v>
+      </c>
+      <c r="AH19" s="10">
+        <f t="shared" ref="AH19:AN19" si="58">+AH18*0.1</f>
+        <v>48.666735556774967</v>
+      </c>
+      <c r="AI19" s="10">
+        <f t="shared" si="58"/>
+        <v>54.892725553408724</v>
+      </c>
+      <c r="AJ19" s="10">
+        <f t="shared" si="58"/>
+        <v>61.809280371753658</v>
+      </c>
+      <c r="AK19" s="10">
+        <f t="shared" si="58"/>
+        <v>69.488854785083291</v>
+      </c>
+      <c r="AL19" s="10">
+        <f t="shared" si="58"/>
+        <v>78.011318958553602</v>
+      </c>
+      <c r="AM19" s="10">
+        <f t="shared" si="58"/>
+        <v>87.464708484119072</v>
+      </c>
+      <c r="AN19" s="10">
+        <f t="shared" si="58"/>
+        <v>97.946049843726556</v>
+      </c>
+    </row>
+    <row r="20" spans="2:77" x14ac:dyDescent="0.15">
+      <c r="B20" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="K20" s="11">
+        <f>+K18-K19</f>
+        <v>-21.985999999999997</v>
+      </c>
+      <c r="L20" s="11">
+        <f t="shared" ref="L20" si="59">+L18-L19</f>
+        <v>-25.897999999999996</v>
+      </c>
+      <c r="M20" s="11">
+        <f t="shared" ref="M20:R20" si="60">+M18-M19</f>
+        <v>-34.438000000000002</v>
+      </c>
+      <c r="N20" s="11">
+        <f t="shared" si="60"/>
+        <v>-50.941999999999986</v>
+      </c>
+      <c r="O20" s="11">
+        <f t="shared" si="60"/>
+        <v>-44.122</v>
+      </c>
+      <c r="P20" s="11">
+        <f t="shared" si="60"/>
+        <v>-41.103999999999992</v>
+      </c>
+      <c r="Q20" s="11">
+        <f t="shared" si="60"/>
+        <v>-43.721999999999994</v>
+      </c>
+      <c r="R20" s="11">
+        <f t="shared" si="60"/>
+        <v>-43.406999999999996</v>
+      </c>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11">
+        <f t="shared" ref="Y20:AC20" si="61">+Y18-Y19</f>
+        <v>-14.333000000000002</v>
+      </c>
+      <c r="Z20" s="11">
         <f t="shared" si="61"/>
         <v>-36.139000000000003</v>
       </c>
-      <c r="Y18" s="11">
+      <c r="AA20" s="11">
         <f t="shared" si="61"/>
         <v>-80.14200000000001</v>
       </c>
-      <c r="Z18" s="11">
+      <c r="AB20" s="11">
         <f t="shared" si="61"/>
         <v>-147.37899999999999</v>
       </c>
-      <c r="AA18" s="11">
+      <c r="AC20" s="11">
         <f t="shared" si="61"/>
         <v>-172.35500000000002</v>
       </c>
-      <c r="AB18" s="11">
-        <f t="shared" ref="AB18" si="62">+AB16-AB17</f>
+      <c r="AD20" s="11">
+        <f t="shared" ref="AD20" si="62">+AD18-AD19</f>
         <v>-165.45780999999999</v>
       </c>
-      <c r="AC18" s="11">
-        <f t="shared" ref="AC18" si="63">+AC16-AC17</f>
+      <c r="AE20" s="11">
+        <f t="shared" ref="AE20" si="63">+AE18-AE19</f>
         <v>-124.25662900000003</v>
       </c>
-      <c r="AD18" s="11">
-        <f t="shared" ref="AD18" si="64">+AD16-AD17</f>
+      <c r="AF20" s="11">
+        <f t="shared" ref="AF20" si="64">+AF18-AF19</f>
         <v>-36.468724600000087</v>
       </c>
-      <c r="AE18" s="11">
-        <f t="shared" ref="AE18" si="65">+AE16-AE17</f>
+      <c r="AG20" s="11">
+        <f t="shared" ref="AG20" si="65">+AG18-AG19</f>
         <v>126.2783135564998</v>
       </c>
-      <c r="AF18" s="11">
-        <f t="shared" ref="AF18" si="66">+AF16-AF17</f>
+      <c r="AH20" s="11">
+        <f t="shared" ref="AH20" si="66">+AH18-AH19</f>
         <v>438.00062001097467</v>
       </c>
-      <c r="AG18" s="11">
-        <f t="shared" ref="AG18" si="67">+AG16-AG17</f>
+      <c r="AI20" s="11">
+        <f t="shared" ref="AI20" si="67">+AI18-AI19</f>
         <v>494.03452998067849</v>
       </c>
-      <c r="AH18" s="11">
-        <f t="shared" ref="AH18" si="68">+AH16-AH17</f>
+      <c r="AJ20" s="11">
+        <f t="shared" ref="AJ20" si="68">+AJ18-AJ19</f>
         <v>556.2835233457829</v>
       </c>
-      <c r="AI18" s="11">
-        <f t="shared" ref="AI18" si="69">+AI16-AI17</f>
+      <c r="AK20" s="11">
+        <f t="shared" ref="AK20" si="69">+AK18-AK19</f>
         <v>625.3996930657496</v>
       </c>
-      <c r="AJ18" s="11">
-        <f t="shared" ref="AJ18" si="70">+AJ16-AJ17</f>
+      <c r="AL20" s="11">
+        <f t="shared" ref="AL20" si="70">+AL18-AL19</f>
         <v>702.10187062698242</v>
       </c>
-      <c r="AK18" s="11">
-        <f t="shared" ref="AK18" si="71">+AK16-AK17</f>
+      <c r="AM20" s="11">
+        <f t="shared" ref="AM20" si="71">+AM18-AM19</f>
         <v>787.18237635707158</v>
       </c>
-      <c r="AL18" s="11">
-        <f t="shared" ref="AL18" si="72">+AL16-AL17</f>
+      <c r="AN20" s="11">
+        <f t="shared" ref="AN20" si="72">+AN18-AN19</f>
         <v>881.51444859353899</v>
       </c>
-      <c r="AM18" s="11">
-        <f>+AL18*(1+$AM$23)</f>
+      <c r="AO20" s="11">
+        <f>+AN20*(1+$AO$25)</f>
         <v>872.69930410760355</v>
       </c>
-      <c r="AN18" s="11">
-        <f t="shared" ref="AN18:BW18" si="73">+AM18*(1+$AM$23)</f>
+      <c r="AP20" s="11">
+        <f t="shared" ref="AP20:BY20" si="73">+AO20*(1+$AO$25)</f>
         <v>863.97231106652748</v>
       </c>
-      <c r="AO18" s="11">
+      <c r="AQ20" s="11">
         <f t="shared" si="73"/>
         <v>855.33258795586221</v>
       </c>
-      <c r="AP18" s="11">
+      <c r="AR20" s="11">
         <f t="shared" si="73"/>
         <v>846.77926207630355</v>
       </c>
-      <c r="AQ18" s="11">
+      <c r="AS20" s="11">
         <f t="shared" si="73"/>
         <v>838.31146945554053</v>
       </c>
-      <c r="AR18" s="11">
+      <c r="AT20" s="11">
         <f t="shared" si="73"/>
         <v>829.92835476098514</v>
       </c>
-      <c r="AS18" s="11">
+      <c r="AU20" s="11">
         <f t="shared" si="73"/>
         <v>821.62907121337525</v>
       </c>
-      <c r="AT18" s="11">
+      <c r="AV20" s="11">
         <f t="shared" si="73"/>
         <v>813.41278050124151</v>
       </c>
-      <c r="AU18" s="11">
+      <c r="AW20" s="11">
         <f t="shared" si="73"/>
         <v>805.27865269622907</v>
       </c>
-      <c r="AV18" s="11">
+      <c r="AX20" s="11">
         <f t="shared" si="73"/>
         <v>797.22586616926674</v>
       </c>
-      <c r="AW18" s="11">
+      <c r="AY20" s="11">
         <f t="shared" si="73"/>
         <v>789.25360750757409</v>
       </c>
-      <c r="AX18" s="11">
+      <c r="AZ20" s="11">
         <f t="shared" si="73"/>
         <v>781.36107143249831</v>
       </c>
-      <c r="AY18" s="11">
+      <c r="BA20" s="11">
         <f t="shared" si="73"/>
         <v>773.54746071817328</v>
       </c>
-      <c r="AZ18" s="11">
+      <c r="BB20" s="11">
         <f t="shared" si="73"/>
         <v>765.8119861109916</v>
       </c>
-      <c r="BA18" s="11">
+      <c r="BC20" s="11">
         <f t="shared" si="73"/>
         <v>758.15386624988173</v>
       </c>
-      <c r="BB18" s="11">
+      <c r="BD20" s="11">
         <f t="shared" si="73"/>
         <v>750.57232758738292</v>
       </c>
-      <c r="BC18" s="11">
+      <c r="BE20" s="11">
         <f t="shared" si="73"/>
         <v>743.06660431150908</v>
       </c>
-      <c r="BD18" s="11">
+      <c r="BF20" s="11">
         <f t="shared" si="73"/>
         <v>735.63593826839394</v>
       </c>
-      <c r="BE18" s="11">
+      <c r="BG20" s="11">
         <f t="shared" si="73"/>
         <v>728.27957888570995</v>
       </c>
-      <c r="BF18" s="11">
+      <c r="BH20" s="11">
         <f t="shared" si="73"/>
         <v>720.99678309685282</v>
       </c>
-      <c r="BG18" s="11">
+      <c r="BI20" s="11">
         <f t="shared" si="73"/>
         <v>713.78681526588434</v>
       </c>
-      <c r="BH18" s="11">
+      <c r="BJ20" s="11">
         <f t="shared" si="73"/>
         <v>706.64894711322552</v>
       </c>
-      <c r="BI18" s="11">
+      <c r="BK20" s="11">
         <f t="shared" si="73"/>
         <v>699.58245764209323</v>
       </c>
-      <c r="BJ18" s="11">
+      <c r="BL20" s="11">
         <f t="shared" si="73"/>
         <v>692.58663306567234</v>
       </c>
-      <c r="BK18" s="11">
+      <c r="BM20" s="11">
         <f t="shared" si="73"/>
         <v>685.66076673501561</v>
       </c>
-      <c r="BL18" s="11">
+      <c r="BN20" s="11">
         <f t="shared" si="73"/>
         <v>678.80415906766541</v>
       </c>
-      <c r="BM18" s="11">
+      <c r="BO20" s="11">
         <f t="shared" si="73"/>
         <v>672.01611747698871</v>
       </c>
-      <c r="BN18" s="11">
+      <c r="BP20" s="11">
         <f t="shared" si="73"/>
         <v>665.29595630221877</v>
       </c>
-      <c r="BO18" s="11">
+      <c r="BQ20" s="11">
         <f t="shared" si="73"/>
         <v>658.64299673919652</v>
       </c>
-      <c r="BP18" s="11">
+      <c r="BR20" s="11">
         <f t="shared" si="73"/>
         <v>652.05656677180457</v>
       </c>
-      <c r="BQ18" s="11">
+      <c r="BS20" s="11">
         <f t="shared" si="73"/>
         <v>645.53600110408649</v>
       </c>
-      <c r="BR18" s="11">
+      <c r="BT20" s="11">
         <f t="shared" si="73"/>
         <v>639.08064109304564</v>
       </c>
-      <c r="BS18" s="11">
+      <c r="BU20" s="11">
         <f t="shared" si="73"/>
         <v>632.68983468211513</v>
       </c>
-      <c r="BT18" s="11">
+      <c r="BV20" s="11">
         <f t="shared" si="73"/>
         <v>626.36293633529397</v>
       </c>
-      <c r="BU18" s="11">
+      <c r="BW20" s="11">
         <f t="shared" si="73"/>
         <v>620.09930697194102</v>
       </c>
-      <c r="BV18" s="11">
+      <c r="BX20" s="11">
         <f t="shared" si="73"/>
         <v>613.89831390222162</v>
       </c>
-      <c r="BW18" s="11">
+      <c r="BY20" s="11">
         <f t="shared" si="73"/>
         <v>607.75933076319939</v>
       </c>
     </row>
-    <row r="19" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B19" s="10" t="s">
+    <row r="21" spans="2:77" x14ac:dyDescent="0.15">
+      <c r="B21" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12">
-        <f t="shared" ref="K19:R19" si="74">+K18/K20</f>
+      <c r="F21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12">
+        <f t="shared" ref="K21:R21" si="74">+K20/K22</f>
         <v>-0.10986800423191202</v>
       </c>
-      <c r="L19" s="12">
+      <c r="L21" s="12">
         <f t="shared" si="74"/>
         <v>-0.12856976575867524</v>
       </c>
-      <c r="M19" s="12">
+      <c r="M21" s="12">
         <f t="shared" si="74"/>
         <v>-0.16931970672379332</v>
       </c>
-      <c r="N19" s="12" t="e">
+      <c r="N21" s="12" t="e">
         <f t="shared" si="74"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O19" s="12">
+      <c r="O21" s="12">
         <f t="shared" si="74"/>
         <v>-0.21196252359231235</v>
       </c>
-      <c r="P19" s="12">
+      <c r="P21" s="12">
         <f t="shared" si="74"/>
         <v>-0.19421890770112599</v>
       </c>
-      <c r="Q19" s="12">
+      <c r="Q21" s="12">
         <f t="shared" si="74"/>
         <v>-0.2040175879567338</v>
       </c>
-      <c r="R19" s="12">
+      <c r="R21" s="12">
         <f t="shared" si="74"/>
         <v>-0.20254772060834234</v>
       </c>
-      <c r="W19" s="1">
-        <f t="shared" ref="W19:Z19" si="75">W18/W20</f>
+      <c r="S21" s="12"/>
+      <c r="Y21" s="1">
+        <f t="shared" ref="Y21:AB21" si="75">Y20/Y22</f>
         <v>-0.12458592650845435</v>
       </c>
-      <c r="X19" s="1">
+      <c r="Z21" s="1">
         <f t="shared" si="75"/>
         <v>-0.26261972091776725</v>
       </c>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1">
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1">
         <f t="shared" si="75"/>
         <v>-0.73088380714764445</v>
       </c>
-      <c r="AA19" s="1">
-        <f>AA18/AA20</f>
+      <c r="AC21" s="1">
+        <f>AC20/AC22</f>
         <v>-0.81260524783208299</v>
       </c>
-      <c r="AB19" s="1">
-        <f>AB18/AB20</f>
+      <c r="AD21" s="1">
+        <f>AD20/AD22</f>
         <v>-0.78008694091151221</v>
       </c>
-      <c r="AC19" s="1">
-        <f t="shared" ref="AC19:AL19" si="76">AC18/AC20</f>
+      <c r="AE21" s="1">
+        <f t="shared" ref="AE21:AN21" si="76">AE20/AE22</f>
         <v>-0.58583498478909346</v>
       </c>
-      <c r="AD19" s="1">
+      <c r="AF21" s="1">
         <f t="shared" si="76"/>
         <v>-0.17193975800935887</v>
       </c>
-      <c r="AE19" s="1">
+      <c r="AG21" s="1">
         <f t="shared" si="76"/>
         <v>0.59536665767396935</v>
       </c>
-      <c r="AF19" s="1">
+      <c r="AH21" s="1">
         <f t="shared" si="76"/>
         <v>2.0650494756440141</v>
       </c>
-      <c r="AG19" s="1">
+      <c r="AI21" s="1">
         <f t="shared" si="76"/>
         <v>2.3292335683476306</v>
       </c>
-      <c r="AH19" s="1">
+      <c r="AJ21" s="1">
         <f t="shared" si="76"/>
         <v>2.6227200275785685</v>
       </c>
-      <c r="AI19" s="1">
+      <c r="AK21" s="1">
         <f t="shared" si="76"/>
         <v>2.9485832878524096</v>
       </c>
-      <c r="AJ19" s="1">
+      <c r="AL21" s="1">
         <f t="shared" si="76"/>
         <v>3.3102124370294339</v>
       </c>
-      <c r="AK19" s="1">
+      <c r="AM21" s="1">
         <f t="shared" si="76"/>
         <v>3.7113430421437505</v>
       </c>
-      <c r="AL19" s="1">
+      <c r="AN21" s="1">
         <f t="shared" si="76"/>
         <v>4.1560921758400662</v>
       </c>
     </row>
-    <row r="20" spans="2:75" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="10" t="s">
+    <row r="22" spans="2:77" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11">
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11">
         <v>200.112855</v>
       </c>
-      <c r="L20" s="11">
+      <c r="L22" s="11">
         <v>201.43149399999999</v>
       </c>
-      <c r="M20" s="11">
+      <c r="M22" s="11">
         <v>203.39038300000001</v>
       </c>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11">
+      <c r="N22" s="11"/>
+      <c r="O22" s="11">
         <v>208.15943899999999</v>
       </c>
-      <c r="P20" s="11">
+      <c r="P22" s="11">
         <v>211.63747900000001</v>
       </c>
-      <c r="Q20" s="11">
+      <c r="Q22" s="11">
         <v>214.30505299999999</v>
       </c>
-      <c r="R20" s="11">
-        <f>+Q20</f>
+      <c r="R22" s="11">
+        <f>+Q22</f>
         <v>214.30505299999999</v>
       </c>
-      <c r="W20" s="10">
+      <c r="S22" s="11"/>
+      <c r="Y22" s="10">
         <v>115.045097</v>
       </c>
-      <c r="X20" s="10">
+      <c r="Z22" s="10">
         <v>137.60962000000001</v>
       </c>
-      <c r="Z20" s="10">
-        <f>AVERAGE(K20:N20)</f>
+      <c r="AB22" s="10">
+        <f>AVERAGE(K22:N22)</f>
         <v>201.64491066666668</v>
       </c>
-      <c r="AA20" s="10">
-        <f>AVERAGE(O20:R20)</f>
+      <c r="AC22" s="10">
+        <f>AVERAGE(O22:R22)</f>
         <v>212.10175600000002</v>
       </c>
-      <c r="AB20" s="10">
-        <f>+AA20</f>
+      <c r="AD22" s="10">
+        <f>+AC22</f>
         <v>212.10175600000002</v>
       </c>
-      <c r="AC20" s="10">
-        <f t="shared" ref="AC20:AL20" si="77">+AB20</f>
+      <c r="AE22" s="10">
+        <f t="shared" ref="AE22:AN22" si="77">+AD22</f>
         <v>212.10175600000002</v>
       </c>
-      <c r="AD20" s="10">
+      <c r="AF22" s="10">
         <f t="shared" si="77"/>
         <v>212.10175600000002</v>
       </c>
-      <c r="AE20" s="10">
+      <c r="AG22" s="10">
         <f t="shared" si="77"/>
         <v>212.10175600000002</v>
       </c>
-      <c r="AF20" s="10">
+      <c r="AH22" s="10">
         <f t="shared" si="77"/>
         <v>212.10175600000002</v>
       </c>
-      <c r="AG20" s="10">
+      <c r="AI22" s="10">
         <f t="shared" si="77"/>
         <v>212.10175600000002</v>
       </c>
-      <c r="AH20" s="10">
+      <c r="AJ22" s="10">
         <f t="shared" si="77"/>
         <v>212.10175600000002</v>
       </c>
-      <c r="AI20" s="10">
+      <c r="AK22" s="10">
         <f t="shared" si="77"/>
         <v>212.10175600000002</v>
       </c>
-      <c r="AJ20" s="10">
+      <c r="AL22" s="10">
         <f t="shared" si="77"/>
         <v>212.10175600000002</v>
       </c>
-      <c r="AK20" s="10">
+      <c r="AM22" s="10">
         <f t="shared" si="77"/>
         <v>212.10175600000002</v>
       </c>
-      <c r="AL20" s="10">
+      <c r="AN22" s="10">
         <f t="shared" si="77"/>
         <v>212.10175600000002</v>
       </c>
     </row>
-    <row r="21" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B21" s="10"/>
-      <c r="M21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
-    </row>
-    <row r="22" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-      <c r="AL22" t="s">
+    <row r="23" spans="2:77" x14ac:dyDescent="0.15">
+      <c r="B23" s="10"/>
+      <c r="M23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+    </row>
+    <row r="24" spans="2:77" x14ac:dyDescent="0.15">
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4"/>
+      <c r="AN24" t="s">
         <v>63</v>
       </c>
-      <c r="AM22" s="15">
+      <c r="AO24" s="15">
         <v>0.15</v>
       </c>
     </row>
-    <row r="23" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
+    <row r="25" spans="2:77" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
         <v>17</v>
       </c>
-      <c r="Y23" s="4">
+      <c r="AA25" s="4">
         <v>-44698</v>
       </c>
-      <c r="Z23" s="4">
+      <c r="AB25" s="4">
         <v>-78811</v>
       </c>
-      <c r="AL23" t="s">
+      <c r="AN25" t="s">
         <v>64</v>
       </c>
-      <c r="AM23" s="15">
+      <c r="AO25" s="15">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="24" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
+    <row r="26" spans="2:77" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
         <v>18</v>
       </c>
-      <c r="Y24" s="4">
+      <c r="AA26" s="4">
         <v>-9336</v>
       </c>
-      <c r="Z24" s="4">
+      <c r="AB26" s="4">
         <v>-13703</v>
       </c>
-      <c r="AL24" t="s">
+      <c r="AN26" t="s">
         <v>65</v>
       </c>
-      <c r="AM24" s="4">
-        <f>NPV(AM22,AB18:BW18)</f>
+      <c r="AO26" s="4">
+        <f>NPV(AO24,AD20:BY20)</f>
         <v>2406.7362013427078</v>
       </c>
     </row>
-    <row r="25" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="AL25" t="s">
+    <row r="27" spans="2:77" x14ac:dyDescent="0.15">
+      <c r="AN27" t="s">
         <v>66</v>
       </c>
-      <c r="AM25" s="1">
-        <f>AM24/Main!J3</f>
+      <c r="AO27" s="1">
+        <f>AO26/Main!J3</f>
         <v>11.230422090620085</v>
       </c>
     </row>
-    <row r="30" spans="2:75" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="7" t="s">
+    <row r="32" spans="2:77" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="7" t="s">
         <v>3</v>
-      </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8">
-        <f>30.172+335.538+17.131</f>
-        <v>382.84100000000001</v>
-      </c>
-      <c r="R30" s="8"/>
-    </row>
-    <row r="31" spans="2:75" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8">
-        <v>4.1369999999999996</v>
-      </c>
-      <c r="R31" s="8"/>
-    </row>
-    <row r="32" spans="2:75" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
@@ -3010,13 +3069,15 @@
       <c r="O32" s="8"/>
       <c r="P32" s="8"/>
       <c r="Q32" s="8">
-        <v>25.553000000000001</v>
+        <f>30.172+335.538+17.131</f>
+        <v>382.84100000000001</v>
       </c>
       <c r="R32" s="8"/>
-    </row>
-    <row r="33" spans="2:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S32" s="8"/>
+    </row>
+    <row r="33" spans="2:19" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B33" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -3033,13 +3094,14 @@
       <c r="O33" s="8"/>
       <c r="P33" s="8"/>
       <c r="Q33" s="8">
-        <v>49.454000000000001</v>
+        <v>4.1369999999999996</v>
       </c>
       <c r="R33" s="8"/>
-    </row>
-    <row r="34" spans="2:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S33" s="8"/>
+    </row>
+    <row r="34" spans="2:19" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B34" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -3056,13 +3118,14 @@
       <c r="O34" s="8"/>
       <c r="P34" s="8"/>
       <c r="Q34" s="8">
-        <v>10.029</v>
+        <v>25.553000000000001</v>
       </c>
       <c r="R34" s="8"/>
-    </row>
-    <row r="35" spans="2:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S34" s="8"/>
+    </row>
+    <row r="35" spans="2:19" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B35" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -3079,14 +3142,14 @@
       <c r="O35" s="8"/>
       <c r="P35" s="8"/>
       <c r="Q35" s="8">
-        <f>17.487+0.727</f>
-        <v>18.213999999999999</v>
+        <v>49.454000000000001</v>
       </c>
       <c r="R35" s="8"/>
-    </row>
-    <row r="36" spans="2:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S35" s="8"/>
+    </row>
+    <row r="36" spans="2:19" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B36" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -3103,13 +3166,14 @@
       <c r="O36" s="8"/>
       <c r="P36" s="8"/>
       <c r="Q36" s="8">
-        <v>7.6829999999999998</v>
+        <v>10.029</v>
       </c>
       <c r="R36" s="8"/>
-    </row>
-    <row r="37" spans="2:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S36" s="8"/>
+    </row>
+    <row r="37" spans="2:19" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B37" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
@@ -3126,60 +3190,64 @@
       <c r="O37" s="8"/>
       <c r="P37" s="8"/>
       <c r="Q37" s="8">
-        <f>SUM(Q30:Q36)</f>
+        <f>17.487+0.727</f>
+        <v>18.213999999999999</v>
+      </c>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+    </row>
+    <row r="38" spans="2:19" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8">
+        <v>7.6829999999999998</v>
+      </c>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+    </row>
+    <row r="39" spans="2:19" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8">
+        <f>SUM(Q32:Q38)</f>
         <v>497.911</v>
       </c>
-      <c r="R37" s="8"/>
-    </row>
-    <row r="39" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="4" t="s">
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+    </row>
+    <row r="41" spans="2:19" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="9">
-        <v>4.8540000000000001</v>
-      </c>
-      <c r="R39" s="9"/>
-    </row>
-    <row r="40" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="9">
-        <v>15.657</v>
-      </c>
-      <c r="R40" s="9"/>
-    </row>
-    <row r="41" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -3196,14 +3264,14 @@
       <c r="O41" s="9"/>
       <c r="P41" s="9"/>
       <c r="Q41" s="9">
-        <f>3.089+15.214</f>
-        <v>18.303000000000001</v>
+        <v>4.8540000000000001</v>
       </c>
       <c r="R41" s="9"/>
-    </row>
-    <row r="42" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S41" s="9"/>
+    </row>
+    <row r="42" spans="2:19" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B42" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
@@ -3220,14 +3288,14 @@
       <c r="O42" s="9"/>
       <c r="P42" s="9"/>
       <c r="Q42" s="9">
-        <f>8.332+0.06</f>
-        <v>8.3920000000000012</v>
+        <v>15.657</v>
       </c>
       <c r="R42" s="9"/>
-    </row>
-    <row r="43" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S42" s="9"/>
+    </row>
+    <row r="43" spans="2:19" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B43" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
@@ -3244,14 +3312,15 @@
       <c r="O43" s="9"/>
       <c r="P43" s="9"/>
       <c r="Q43" s="9">
-        <f>0.392+0.154</f>
-        <v>0.54600000000000004</v>
+        <f>3.089+15.214</f>
+        <v>18.303000000000001</v>
       </c>
       <c r="R43" s="9"/>
-    </row>
-    <row r="44" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S43" s="9"/>
+    </row>
+    <row r="44" spans="2:19" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B44" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
@@ -3268,13 +3337,15 @@
       <c r="O44" s="9"/>
       <c r="P44" s="9"/>
       <c r="Q44" s="9">
-        <v>11.606999999999999</v>
+        <f>8.332+0.06</f>
+        <v>8.3920000000000012</v>
       </c>
       <c r="R44" s="9"/>
-    </row>
-    <row r="45" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S44" s="9"/>
+    </row>
+    <row r="45" spans="2:19" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B45" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
@@ -3291,13 +3362,15 @@
       <c r="O45" s="9"/>
       <c r="P45" s="9"/>
       <c r="Q45" s="9">
-        <v>2.8690000000000002</v>
+        <f>0.392+0.154</f>
+        <v>0.54600000000000004</v>
       </c>
       <c r="R45" s="9"/>
-    </row>
-    <row r="46" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S45" s="9"/>
+    </row>
+    <row r="46" spans="2:19" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B46" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
@@ -3314,13 +3387,14 @@
       <c r="O46" s="9"/>
       <c r="P46" s="9"/>
       <c r="Q46" s="9">
-        <v>435.68299999999999</v>
+        <v>11.606999999999999</v>
       </c>
       <c r="R46" s="9"/>
-    </row>
-    <row r="47" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S46" s="9"/>
+    </row>
+    <row r="47" spans="2:19" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B47" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -3337,10 +3411,59 @@
       <c r="O47" s="9"/>
       <c r="P47" s="9"/>
       <c r="Q47" s="9">
-        <f>SUM(Q39:Q46)</f>
+        <v>2.8690000000000002</v>
+      </c>
+      <c r="R47" s="9"/>
+      <c r="S47" s="9"/>
+    </row>
+    <row r="48" spans="2:19" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="9">
+        <v>435.68299999999999</v>
+      </c>
+      <c r="R48" s="9"/>
+      <c r="S48" s="9"/>
+    </row>
+    <row r="49" spans="2:19" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B49" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="9">
+        <f>SUM(Q41:Q48)</f>
         <v>497.911</v>
       </c>
-      <c r="R47" s="9"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3350,4 +3473,17 @@
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C02FAF-F034-4DC1-A333-3CF2A6D6F2AB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/IONQ.xlsx
+++ b/IONQ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49F1142-BEF1-694F-97C2-BA44C8CE9DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98378F90-B347-4B6B-BB2A-26C9CCCD2916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8800" yWindow="5540" windowWidth="25760" windowHeight="15640" xr2:uid="{AB3C49AB-D501-4FD3-A043-98BB663A0B7E}"/>
+    <workbookView xWindow="16070" yWindow="1300" windowWidth="21490" windowHeight="10580" activeTab="1" xr2:uid="{AB3C49AB-D501-4FD3-A043-98BB663A0B7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -45,6 +45,7 @@
     <author>tc={6FD4C426-31B6-4D62-943F-4388146ADBBE}</author>
     <author>tc={1A0A1B49-65D0-4998-B407-2792C10D6299}</author>
     <author>tc={A6E9DABB-1376-4112-A26B-944B948407A8}</author>
+    <author>tc={52746AA8-06E3-4D64-87ED-D1AB9D96C22E}</author>
   </authors>
   <commentList>
     <comment ref="AC3" authorId="0" shapeId="0" xr:uid="{0ACF6560-A3D8-DB4B-9A39-3B07A923B357}">
@@ -90,6 +91,14 @@
 2 customers = 58%</t>
       </text>
     </comment>
+    <comment ref="AD9" authorId="5" shapeId="0" xr:uid="{52746AA8-06E3-4D64-87ED-D1AB9D96C22E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    83m consensus</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -389,7 +398,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -416,12 +425,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -507,8 +510,8 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>136071</xdr:rowOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>97971</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -523,8 +526,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8284029" y="54429"/>
-          <a:ext cx="0" cy="5959928"/>
+          <a:off x="11290300" y="54429"/>
+          <a:ext cx="0" cy="8831942"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -990,6 +993,9 @@
     <text>69.1m RPO
 2 customers = 58%</text>
   </threadedComment>
+  <threadedComment ref="AD9" dT="2025-02-26T17:16:34.73" personId="{8FE8731E-1419-4CF8-BDB7-325E36ECD730}" id="{52746AA8-06E3-4D64-87ED-D1AB9D96C22E}">
+    <text>83m consensus</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -997,17 +1003,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BE29629-62F1-4661-9953-74545B1C68EA}">
   <dimension ref="B2:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:11" ht="13" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>37</v>
       </c>
@@ -1015,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>19</v>
       </c>
@@ -1032,7 +1038,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>34</v>
       </c>
@@ -1041,10 +1047,10 @@
       </c>
       <c r="J4" s="4">
         <f>+J2*J3</f>
-        <v>10715.252649999999</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.15">
+        <v>6643.4566429999995</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>35</v>
       </c>
@@ -1058,7 +1064,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="I6" t="s">
         <v>4</v>
       </c>
@@ -1069,7 +1075,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:11" ht="13" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>39</v>
       </c>
@@ -1078,15 +1084,15 @@
       </c>
       <c r="J7" s="4">
         <f>+J4-J5+J6</f>
-        <v>10332.252649999999</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
+        <v>6260.4566429999995</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>36</v>
       </c>
@@ -1100,7 +1106,7 @@
         <v>45291</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="I10" t="s">
         <v>7</v>
       </c>
@@ -1108,12 +1114,12 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:11" ht="13" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>33</v>
       </c>
@@ -1127,17 +1133,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:9" ht="13" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
         <v>38</v>
       </c>
@@ -1146,12 +1152,12 @@
         <v>1638400</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>94</v>
       </c>
@@ -1159,47 +1165,47 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:9" ht="13" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>86</v>
       </c>
@@ -1213,28 +1219,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9653554-7BDA-444D-A237-3389B1272280}">
   <dimension ref="A1:BY49"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="W3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="R6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AD8" sqref="AD8"/>
+      <selection pane="bottomRight" activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="18" width="9.1640625" style="3"/>
-    <col min="19" max="19" width="8.83203125" style="3"/>
+    <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="18" width="9.1796875" style="3"/>
+    <col min="19" max="19" width="8.81640625" style="3"/>
     <col min="41" max="41" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
       <c r="C2" s="3" t="s">
         <v>69</v>
       </c>
@@ -1390,7 +1396,7 @@
         <v>2043</v>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>91</v>
       </c>
@@ -1401,12 +1407,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>75</v>
       </c>
@@ -1415,7 +1421,7 @@
         <v>1.1131</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>76</v>
       </c>
@@ -1424,7 +1430,7 @@
         <v>1.1131</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>74</v>
       </c>
@@ -1437,7 +1443,7 @@
         <v>16.122999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>77</v>
       </c>
@@ -1470,7 +1476,7 @@
         <v>13.625</v>
       </c>
     </row>
-    <row r="9" spans="1:48" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:48" s="13" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B9" s="13" t="s">
         <v>9</v>
       </c>
@@ -1512,7 +1518,18 @@
         <f>+Q9</f>
         <v>12.4</v>
       </c>
-      <c r="S9" s="14"/>
+      <c r="S9" s="14">
+        <v>7.5</v>
+      </c>
+      <c r="T9" s="13">
+        <v>20</v>
+      </c>
+      <c r="U9" s="13">
+        <v>22.5</v>
+      </c>
+      <c r="V9" s="13">
+        <v>25</v>
+      </c>
       <c r="X9" s="13">
         <v>0.2</v>
       </c>
@@ -1577,7 +1594,7 @@
         <v>1919.6904368404828</v>
       </c>
     </row>
-    <row r="10" spans="1:48" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:48" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
@@ -1677,7 +1694,7 @@
         <v>575.9071310521449</v>
       </c>
     </row>
-    <row r="11" spans="1:48" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:48" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
@@ -1787,7 +1804,7 @@
         <v>1343.7833057883379</v>
       </c>
     </row>
-    <row r="12" spans="1:48" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:48" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
         <v>12</v>
       </c>
@@ -1887,7 +1904,7 @@
         <v>222.22097212133647</v>
       </c>
     </row>
-    <row r="13" spans="1:48" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:48" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>13</v>
       </c>
@@ -1987,7 +2004,7 @@
         <v>44.636436568119578</v>
       </c>
     </row>
-    <row r="14" spans="1:48" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:48" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>14</v>
       </c>
@@ -2087,7 +2104,7 @@
         <v>97.465398661616291</v>
       </c>
     </row>
-    <row r="15" spans="1:48" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:48" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>56</v>
       </c>
@@ -2202,7 +2219,7 @@
         <v>364.32280735107236</v>
       </c>
     </row>
-    <row r="16" spans="1:48" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:48" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>57</v>
       </c>
@@ -2317,7 +2334,7 @@
         <v>979.46049843726553</v>
       </c>
     </row>
-    <row r="17" spans="2:77" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:77" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>58</v>
       </c>
@@ -2359,7 +2376,7 @@
         <v>18.646000000000001</v>
       </c>
     </row>
-    <row r="18" spans="2:77" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
         <v>59</v>
       </c>
@@ -2466,7 +2483,7 @@
         <v>979.46049843726553</v>
       </c>
     </row>
-    <row r="19" spans="2:77" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:77" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>60</v>
       </c>
@@ -2538,7 +2555,7 @@
         <v>97.946049843726556</v>
       </c>
     </row>
-    <row r="20" spans="2:77" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
         <v>61</v>
       </c>
@@ -2793,7 +2810,7 @@
         <v>607.75933076319939</v>
       </c>
     </row>
-    <row r="21" spans="2:77" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>62</v>
       </c>
@@ -2894,7 +2911,7 @@
         <v>4.1560921758400662</v>
       </c>
     </row>
-    <row r="22" spans="2:77" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:77" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
         <v>1</v>
       </c>
@@ -2989,14 +3006,14 @@
         <v>212.10175600000002</v>
       </c>
     </row>
-    <row r="23" spans="2:77" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B23" s="10"/>
       <c r="M23" s="11"/>
       <c r="Q23" s="11"/>
       <c r="AA23" s="4"/>
       <c r="AB23" s="4"/>
     </row>
-    <row r="24" spans="2:77" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:77" x14ac:dyDescent="0.25">
       <c r="AA24" s="4"/>
       <c r="AB24" s="4"/>
       <c r="AN24" t="s">
@@ -3006,7 +3023,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="25" spans="2:77" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>17</v>
       </c>
@@ -3023,7 +3040,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="26" spans="2:77" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>18</v>
       </c>
@@ -3041,7 +3058,7 @@
         <v>2406.7362013427078</v>
       </c>
     </row>
-    <row r="27" spans="2:77" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:77" x14ac:dyDescent="0.25">
       <c r="AN27" t="s">
         <v>66</v>
       </c>
@@ -3050,7 +3067,7 @@
         <v>11.230422090620085</v>
       </c>
     </row>
-    <row r="32" spans="2:77" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:77" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="7" t="s">
         <v>3</v>
       </c>
@@ -3075,7 +3092,7 @@
       <c r="R32" s="8"/>
       <c r="S32" s="8"/>
     </row>
-    <row r="33" spans="2:19" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="s">
         <v>41</v>
       </c>
@@ -3099,7 +3116,7 @@
       <c r="R33" s="8"/>
       <c r="S33" s="8"/>
     </row>
-    <row r="34" spans="2:19" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
         <v>42</v>
       </c>
@@ -3123,7 +3140,7 @@
       <c r="R34" s="8"/>
       <c r="S34" s="8"/>
     </row>
-    <row r="35" spans="2:19" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
         <v>43</v>
       </c>
@@ -3147,7 +3164,7 @@
       <c r="R35" s="8"/>
       <c r="S35" s="8"/>
     </row>
-    <row r="36" spans="2:19" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
         <v>44</v>
       </c>
@@ -3171,7 +3188,7 @@
       <c r="R36" s="8"/>
       <c r="S36" s="8"/>
     </row>
-    <row r="37" spans="2:19" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
         <v>45</v>
       </c>
@@ -3196,7 +3213,7 @@
       <c r="R37" s="8"/>
       <c r="S37" s="8"/>
     </row>
-    <row r="38" spans="2:19" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
         <v>46</v>
       </c>
@@ -3220,7 +3237,7 @@
       <c r="R38" s="8"/>
       <c r="S38" s="8"/>
     </row>
-    <row r="39" spans="2:19" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
         <v>40</v>
       </c>
@@ -3245,7 +3262,7 @@
       <c r="R39" s="8"/>
       <c r="S39" s="8"/>
     </row>
-    <row r="41" spans="2:19" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
         <v>47</v>
       </c>
@@ -3269,7 +3286,7 @@
       <c r="R41" s="9"/>
       <c r="S41" s="9"/>
     </row>
-    <row r="42" spans="2:19" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
         <v>48</v>
       </c>
@@ -3293,7 +3310,7 @@
       <c r="R42" s="9"/>
       <c r="S42" s="9"/>
     </row>
-    <row r="43" spans="2:19" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
         <v>49</v>
       </c>
@@ -3318,7 +3335,7 @@
       <c r="R43" s="9"/>
       <c r="S43" s="9"/>
     </row>
-    <row r="44" spans="2:19" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="4" t="s">
         <v>50</v>
       </c>
@@ -3343,7 +3360,7 @@
       <c r="R44" s="9"/>
       <c r="S44" s="9"/>
     </row>
-    <row r="45" spans="2:19" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
         <v>51</v>
       </c>
@@ -3368,7 +3385,7 @@
       <c r="R45" s="9"/>
       <c r="S45" s="9"/>
     </row>
-    <row r="46" spans="2:19" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="s">
         <v>55</v>
       </c>
@@ -3392,7 +3409,7 @@
       <c r="R46" s="9"/>
       <c r="S46" s="9"/>
     </row>
-    <row r="47" spans="2:19" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="4" t="s">
         <v>54</v>
       </c>
@@ -3416,7 +3433,7 @@
       <c r="R47" s="9"/>
       <c r="S47" s="9"/>
     </row>
-    <row r="48" spans="2:19" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="4" t="s">
         <v>53</v>
       </c>
@@ -3440,7 +3457,7 @@
       <c r="R48" s="9"/>
       <c r="S48" s="9"/>
     </row>
-    <row r="49" spans="2:19" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="4" t="s">
         <v>52</v>
       </c>
@@ -3481,7 +3498,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/IONQ.xlsx
+++ b/IONQ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98378F90-B347-4B6B-BB2A-26C9CCCD2916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F71D63-398A-4314-8B59-FFB9D1F063EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16070" yWindow="1300" windowWidth="21490" windowHeight="10580" activeTab="1" xr2:uid="{AB3C49AB-D501-4FD3-A043-98BB663A0B7E}"/>
+    <workbookView xWindow="-42555" yWindow="2760" windowWidth="38700" windowHeight="15345" activeTab="1" xr2:uid="{AB3C49AB-D501-4FD3-A043-98BB663A0B7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="96">
   <si>
     <t>Price</t>
   </si>
@@ -389,6 +389,9 @@
   </si>
   <si>
     <t>415m annual budget</t>
+  </si>
+  <si>
+    <t>https://status.ionq.co/</t>
   </si>
 </sst>
 </file>
@@ -1003,17 +1006,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BE29629-62F1-4661-9953-74545B1C68EA}">
   <dimension ref="B2:K30"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
-    </sheetView>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="9" max="9" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>37</v>
       </c>
@@ -1024,7 +1025,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>19</v>
       </c>
@@ -1038,7 +1039,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>34</v>
       </c>
@@ -1050,7 +1051,7 @@
         <v>6643.4566429999995</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>35</v>
       </c>
@@ -1064,7 +1065,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="I6" t="s">
         <v>4</v>
       </c>
@@ -1075,7 +1076,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>39</v>
       </c>
@@ -1087,12 +1088,12 @@
         <v>6260.4566429999995</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>36</v>
       </c>
@@ -1106,7 +1107,7 @@
         <v>45291</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="I10" t="s">
         <v>7</v>
       </c>
@@ -1114,12 +1115,12 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>33</v>
       </c>
@@ -1133,31 +1134,30 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="I15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I17">
-        <f>100*2^14</f>
-        <v>1638400</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>94</v>
       </c>
@@ -1165,47 +1165,47 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>86</v>
       </c>
@@ -1219,28 +1219,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9653554-7BDA-444D-A237-3389B1272280}">
   <dimension ref="A1:BY49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="R6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="N6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U9" sqref="U9"/>
+      <selection pane="bottomRight" activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="18" width="9.1796875" style="3"/>
-    <col min="19" max="19" width="8.81640625" style="3"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="18" width="9.140625" style="3"/>
+    <col min="19" max="19" width="8.85546875" style="3"/>
     <col min="41" max="41" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
       <c r="C2" s="3" t="s">
         <v>69</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>2043</v>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>91</v>
       </c>
@@ -1407,12 +1407,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.2">
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>75</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>1.1131</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>76</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>1.1131</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>74</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>16.122999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>77</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>13.625</v>
       </c>
     </row>
-    <row r="9" spans="1:48" s="13" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:48" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="13" t="s">
         <v>9</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>1919.6904368404828</v>
       </c>
     </row>
-    <row r="10" spans="1:48" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>575.9071310521449</v>
       </c>
     </row>
-    <row r="11" spans="1:48" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>1343.7833057883379</v>
       </c>
     </row>
-    <row r="12" spans="1:48" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:48" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="10" t="s">
         <v>12</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>222.22097212133647</v>
       </c>
     </row>
-    <row r="13" spans="1:48" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="10" t="s">
         <v>13</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>44.636436568119578</v>
       </c>
     </row>
-    <row r="14" spans="1:48" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:48" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="10" t="s">
         <v>14</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>97.465398661616291</v>
       </c>
     </row>
-    <row r="15" spans="1:48" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:48" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="10" t="s">
         <v>56</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>364.32280735107236</v>
       </c>
     </row>
-    <row r="16" spans="1:48" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:48" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="10" t="s">
         <v>57</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>979.46049843726553</v>
       </c>
     </row>
-    <row r="17" spans="2:77" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:77" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="10" t="s">
         <v>58</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>18.646000000000001</v>
       </c>
     </row>
-    <row r="18" spans="2:77" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:77" x14ac:dyDescent="0.2">
       <c r="B18" s="10" t="s">
         <v>59</v>
       </c>
@@ -2483,7 +2483,7 @@
         <v>979.46049843726553</v>
       </c>
     </row>
-    <row r="19" spans="2:77" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:77" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="10" t="s">
         <v>60</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>97.946049843726556</v>
       </c>
     </row>
-    <row r="20" spans="2:77" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:77" x14ac:dyDescent="0.2">
       <c r="B20" s="10" t="s">
         <v>61</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>607.75933076319939</v>
       </c>
     </row>
-    <row r="21" spans="2:77" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:77" x14ac:dyDescent="0.2">
       <c r="B21" s="10" t="s">
         <v>62</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>4.1560921758400662</v>
       </c>
     </row>
-    <row r="22" spans="2:77" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:77" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="10" t="s">
         <v>1</v>
       </c>
@@ -3006,14 +3006,14 @@
         <v>212.10175600000002</v>
       </c>
     </row>
-    <row r="23" spans="2:77" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:77" x14ac:dyDescent="0.2">
       <c r="B23" s="10"/>
       <c r="M23" s="11"/>
       <c r="Q23" s="11"/>
       <c r="AA23" s="4"/>
       <c r="AB23" s="4"/>
     </row>
-    <row r="24" spans="2:77" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:77" x14ac:dyDescent="0.2">
       <c r="AA24" s="4"/>
       <c r="AB24" s="4"/>
       <c r="AN24" t="s">
@@ -3023,7 +3023,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="25" spans="2:77" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:77" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>17</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="26" spans="2:77" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:77" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>18</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>2406.7362013427078</v>
       </c>
     </row>
-    <row r="27" spans="2:77" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:77" x14ac:dyDescent="0.2">
       <c r="AN27" t="s">
         <v>66</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>11.230422090620085</v>
       </c>
     </row>
-    <row r="32" spans="2:77" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:77" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="7" t="s">
         <v>3</v>
       </c>
@@ -3092,7 +3092,7 @@
       <c r="R32" s="8"/>
       <c r="S32" s="8"/>
     </row>
-    <row r="33" spans="2:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="7" t="s">
         <v>41</v>
       </c>
@@ -3116,7 +3116,7 @@
       <c r="R33" s="8"/>
       <c r="S33" s="8"/>
     </row>
-    <row r="34" spans="2:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="7" t="s">
         <v>42</v>
       </c>
@@ -3140,7 +3140,7 @@
       <c r="R34" s="8"/>
       <c r="S34" s="8"/>
     </row>
-    <row r="35" spans="2:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="7" t="s">
         <v>43</v>
       </c>
@@ -3164,7 +3164,7 @@
       <c r="R35" s="8"/>
       <c r="S35" s="8"/>
     </row>
-    <row r="36" spans="2:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="7" t="s">
         <v>44</v>
       </c>
@@ -3188,7 +3188,7 @@
       <c r="R36" s="8"/>
       <c r="S36" s="8"/>
     </row>
-    <row r="37" spans="2:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="7" t="s">
         <v>45</v>
       </c>
@@ -3213,7 +3213,7 @@
       <c r="R37" s="8"/>
       <c r="S37" s="8"/>
     </row>
-    <row r="38" spans="2:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="7" t="s">
         <v>46</v>
       </c>
@@ -3237,7 +3237,7 @@
       <c r="R38" s="8"/>
       <c r="S38" s="8"/>
     </row>
-    <row r="39" spans="2:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="7" t="s">
         <v>40</v>
       </c>
@@ -3262,7 +3262,7 @@
       <c r="R39" s="8"/>
       <c r="S39" s="8"/>
     </row>
-    <row r="41" spans="2:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="4" t="s">
         <v>47</v>
       </c>
@@ -3286,7 +3286,7 @@
       <c r="R41" s="9"/>
       <c r="S41" s="9"/>
     </row>
-    <row r="42" spans="2:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="4" t="s">
         <v>48</v>
       </c>
@@ -3310,7 +3310,7 @@
       <c r="R42" s="9"/>
       <c r="S42" s="9"/>
     </row>
-    <row r="43" spans="2:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="4" t="s">
         <v>49</v>
       </c>
@@ -3335,7 +3335,7 @@
       <c r="R43" s="9"/>
       <c r="S43" s="9"/>
     </row>
-    <row r="44" spans="2:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="4" t="s">
         <v>50</v>
       </c>
@@ -3360,7 +3360,7 @@
       <c r="R44" s="9"/>
       <c r="S44" s="9"/>
     </row>
-    <row r="45" spans="2:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="4" t="s">
         <v>51</v>
       </c>
@@ -3385,7 +3385,7 @@
       <c r="R45" s="9"/>
       <c r="S45" s="9"/>
     </row>
-    <row r="46" spans="2:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="4" t="s">
         <v>55</v>
       </c>
@@ -3409,7 +3409,7 @@
       <c r="R46" s="9"/>
       <c r="S46" s="9"/>
     </row>
-    <row r="47" spans="2:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="4" t="s">
         <v>54</v>
       </c>
@@ -3433,7 +3433,7 @@
       <c r="R47" s="9"/>
       <c r="S47" s="9"/>
     </row>
-    <row r="48" spans="2:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="4" t="s">
         <v>53</v>
       </c>
@@ -3457,7 +3457,7 @@
       <c r="R48" s="9"/>
       <c r="S48" s="9"/>
     </row>
-    <row r="49" spans="2:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="4" t="s">
         <v>52</v>
       </c>
@@ -3498,7 +3498,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/IONQ.xlsx
+++ b/IONQ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F71D63-398A-4314-8B59-FFB9D1F063EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A19498C-E83D-4A5A-805F-6149F05CC07F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-42555" yWindow="2760" windowWidth="38700" windowHeight="15345" activeTab="1" xr2:uid="{AB3C49AB-D501-4FD3-A043-98BB663A0B7E}"/>
+    <workbookView xWindow="-27810" yWindow="2250" windowWidth="25545" windowHeight="17280" xr2:uid="{AB3C49AB-D501-4FD3-A043-98BB663A0B7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1006,7 +1006,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BE29629-62F1-4661-9953-74545B1C68EA}">
   <dimension ref="B2:K30"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1022,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
@@ -1033,7 +1035,8 @@
         <v>1</v>
       </c>
       <c r="J3" s="4">
-        <v>214.30505299999999</v>
+        <f>214+18</f>
+        <v>232</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>30</v>
@@ -1048,7 +1051,7 @@
       </c>
       <c r="J4" s="4">
         <f>+J2*J3</f>
-        <v>6643.4566429999995</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
@@ -1059,7 +1062,7 @@
         <v>3</v>
       </c>
       <c r="J5" s="4">
-        <v>383</v>
+        <v>750</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>30</v>
@@ -1085,7 +1088,7 @@
       </c>
       <c r="J7" s="4">
         <f>+J4-J5+J6</f>
-        <v>6260.4566429999995</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
@@ -1219,7 +1222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9653554-7BDA-444D-A237-3389B1272280}">
   <dimension ref="A1:BY49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="N6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -3064,7 +3067,7 @@
       </c>
       <c r="AO27" s="1">
         <f>AO26/Main!J3</f>
-        <v>11.230422090620085</v>
+        <v>10.373862936822016</v>
       </c>
     </row>
     <row r="32" spans="2:77" s="7" customFormat="1" x14ac:dyDescent="0.2">

--- a/IONQ.xlsx
+++ b/IONQ.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9352B2-27D0-4334-A294-65738926DC71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77D82CD-FE71-4874-830B-8258F6340824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39380" yWindow="2930" windowWidth="18720" windowHeight="17090" activeTab="1" xr2:uid="{AB3C49AB-D501-4FD3-A043-98BB663A0B7E}"/>
+    <workbookView xWindow="-39405" yWindow="2850" windowWidth="19455" windowHeight="14595" activeTab="4" xr2:uid="{AB3C49AB-D501-4FD3-A043-98BB663A0B7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Presentation" sheetId="3" r:id="rId3"/>
+    <sheet name="Papers" sheetId="4" r:id="rId4"/>
+    <sheet name="Glossary" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -141,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="150">
   <si>
     <t>Price</t>
   </si>
@@ -456,6 +458,162 @@
   </si>
   <si>
     <t>Capella Space</t>
+  </si>
+  <si>
+    <t>Quantum computation with quantum dots. Daniel Loss &amp; David DiVincenzo. Phys Rev A 1998.</t>
+  </si>
+  <si>
+    <t>quantum gate</t>
+  </si>
+  <si>
+    <t>two-qubit gate</t>
+  </si>
+  <si>
+    <t>qubit</t>
+  </si>
+  <si>
+    <t>one-qubit gate</t>
+  </si>
+  <si>
+    <t>27 years and counting.</t>
+  </si>
+  <si>
+    <t>Hamiltonian</t>
+  </si>
+  <si>
+    <t>Quantum entanglement. Horodecki x4. Rev Mod Phys 2009. Volume 81.</t>
+  </si>
+  <si>
+    <t>entanglement</t>
+  </si>
+  <si>
+    <t>EPR</t>
+  </si>
+  <si>
+    <t>Josephson junction</t>
+  </si>
+  <si>
+    <t>Schrodinger</t>
+  </si>
+  <si>
+    <t>surface code</t>
+  </si>
+  <si>
+    <t>dense coding</t>
+  </si>
+  <si>
+    <t>Shor's algorithm</t>
+  </si>
+  <si>
+    <t>Grover's algorithm</t>
+  </si>
+  <si>
+    <t>Bloc sphere</t>
+  </si>
+  <si>
+    <t>braket</t>
+  </si>
+  <si>
+    <t>Dirac notation</t>
+  </si>
+  <si>
+    <t>Bell inequality</t>
+  </si>
+  <si>
+    <t>bound entanglement phenomenon</t>
+  </si>
+  <si>
+    <t>useful abstraction</t>
+  </si>
+  <si>
+    <t>see Dirac</t>
+  </si>
+  <si>
+    <t>| &gt;</t>
+  </si>
+  <si>
+    <t>Cooper pair</t>
+  </si>
+  <si>
+    <t>superconductor</t>
+  </si>
+  <si>
+    <t>ion trap</t>
+  </si>
+  <si>
+    <t>von Neumann, John</t>
+  </si>
+  <si>
+    <t>In 1932, developed mathematical foundation of quantum mechanics using Hilbert spaces. "Mathematical Foundations of Quantum Mechanics" was published.</t>
+  </si>
+  <si>
+    <t>Coined by Schrodinger in 1935, a core quantum effect which links particles. Measuring/altering one instantly influences the other.</t>
+  </si>
+  <si>
+    <t>Coined entanglement in 1935. Presented Schrodinger's cat thought experiment.</t>
+  </si>
+  <si>
+    <t>Schrodinger's cat</t>
+  </si>
+  <si>
+    <t>Famous thought experiment.</t>
+  </si>
+  <si>
+    <t>superposition</t>
+  </si>
+  <si>
+    <t>Mathematically, entanglement implies that global states cannot be factored into their product states. This is due to nonlocality and superposition. Global state cannot be decomposed, unlike classical physics.</t>
+  </si>
+  <si>
+    <t>Einstein, Podolsky &amp; Rosen, in 1935, published "Can QM Description of Physical Reality be Considered Complete?". They highlighted entanglement and critically challenged quantum theory, suggesting violation of locality. EPR tried to imply entanglement, which was conceptually absurd. The implication contradicted the classical position, where definite, predetermined values must exist for measurable quantities, whether or not measurements have been performed. Bell refuted this later.</t>
+  </si>
+  <si>
+    <t>Bell, John</t>
+  </si>
+  <si>
+    <t>Bell showed entanglement prevents any local hidden-variable theory from reproducing quantum predictions.</t>
+  </si>
+  <si>
+    <t>local hidden variable model</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Conceptual model which restores classicality to QM. Implies measurement results are a function of hidden properties of particles, which are independent of measurement. Perhaps QM is probabilistic because we are unaware of these hidden variables, which only make it </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>look</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> probabilistic. Implies locality: measurements or revents at one location cannot simultaneously affect outcomes somewhere else (at least at the speed of light or less). Implies determinism--local apparatus settings are independent of hidden variables.</t>
+    </r>
+  </si>
+  <si>
+    <t>1964 tests which determine whether correlations between particles can be explained classically or require entanglement. The inequalities required local hidden-variable theories to satisfy them. Experimental results show consistent violation of Bell inequalities.</t>
+  </si>
+  <si>
+    <t>Aspect, Alain</t>
+  </si>
+  <si>
+    <t>Conclusively violated Bell inequalities, ruling out LHVM.</t>
+  </si>
+  <si>
+    <t>von Neumann entropy</t>
+  </si>
+  <si>
+    <t>quantifies the amount of uncertainty associated with a quantum state, akin to Shannon entropy.</t>
   </si>
 </sst>
 </file>
@@ -497,9 +655,10 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -524,7 +683,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -559,12 +718,11 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1332,7 +1490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9653554-7BDA-444D-A237-3389B1272280}">
   <dimension ref="A1:DX58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="CW3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -1935,7 +2093,7 @@
       <c r="B11" t="s">
         <v>100</v>
       </c>
-      <c r="O11" s="19">
+      <c r="O11" s="18">
         <v>0.52</v>
       </c>
       <c r="S11" s="3">
@@ -3184,7 +3342,7 @@
         <f>+Q24</f>
         <v>4.5229999999999997</v>
       </c>
-      <c r="S24" s="18">
+      <c r="S24" s="11">
         <v>4.8940000000000001</v>
       </c>
       <c r="AC24" s="10">
@@ -4365,4 +4523,248 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{839E14B5-938C-4B32-8CB8-872687577253}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC01137-8B10-454F-89F9-A1E21354E95A}">
+  <dimension ref="A1:C30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="B18" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C18" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>148</v>
+      </c>
+      <c r="C29" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>132</v>
+      </c>
+      <c r="C30" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/IONQ.xlsx
+++ b/IONQ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77D82CD-FE71-4874-830B-8258F6340824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0390A4E1-78DE-47CE-B519-8CE2E26E23C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-39405" yWindow="2850" windowWidth="19455" windowHeight="14595" activeTab="4" xr2:uid="{AB3C49AB-D501-4FD3-A043-98BB663A0B7E}"/>
+    <workbookView xWindow="38360" yWindow="1110" windowWidth="32580" windowHeight="19750" xr2:uid="{AB3C49AB-D501-4FD3-A043-98BB663A0B7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="156">
   <si>
     <t>Price</t>
   </si>
@@ -614,6 +614,24 @@
   </si>
   <si>
     <t>quantifies the amount of uncertainty associated with a quantum state, akin to Shannon entropy.</t>
+  </si>
+  <si>
+    <t>22.75 = 0 EV</t>
+  </si>
+  <si>
+    <t>16.75 = 0 EV</t>
+  </si>
+  <si>
+    <t>55 = 20B MC</t>
+  </si>
+  <si>
+    <t>43 = 20B MC</t>
+  </si>
+  <si>
+    <t>6 = 0 EV</t>
+  </si>
+  <si>
+    <t>75.25 = 20B MC</t>
   </si>
 </sst>
 </file>
@@ -683,7 +701,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -721,8 +739,6 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1259,19 +1275,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BE29629-62F1-4661-9953-74545B1C68EA}">
-  <dimension ref="B2:K30"/>
+  <dimension ref="B2:T30"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="20" width="7.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:20" ht="13" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>37</v>
       </c>
@@ -1279,14 +1296,32 @@
         <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>29</v>
+        <v>2.4</v>
       </c>
       <c r="K2">
         <f>+J2*24</f>
-        <v>696</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+        <v>57.599999999999994</v>
+      </c>
+      <c r="M2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>75.25</v>
+      </c>
+      <c r="P2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>55</v>
+      </c>
+      <c r="S2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>19</v>
       </c>
@@ -1299,8 +1334,29 @@
       <c r="K3" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="4">
+        <f>+J3+M14</f>
+        <v>265.804351</v>
+      </c>
+      <c r="P3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="4">
+        <f>+N3+100</f>
+        <v>365.804351</v>
+      </c>
+      <c r="S3" t="s">
+        <v>1</v>
+      </c>
+      <c r="T3" s="4">
+        <f>+Q3+100</f>
+        <v>465.804351</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>34</v>
       </c>
@@ -1309,10 +1365,31 @@
       </c>
       <c r="J4" s="4">
         <f>+J2*J3</f>
-        <v>7185.7094939999997</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+        <v>594.67940639999995</v>
+      </c>
+      <c r="M4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="4">
+        <f>+N2*N3</f>
+        <v>20001.777412750002</v>
+      </c>
+      <c r="P4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="4">
+        <f>+Q2*Q3</f>
+        <v>20119.239304999999</v>
+      </c>
+      <c r="S4" t="s">
+        <v>2</v>
+      </c>
+      <c r="T4" s="4">
+        <f>+T2*T3</f>
+        <v>20029.587092999998</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>35</v>
       </c>
@@ -1326,8 +1403,29 @@
       <c r="K5" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M5" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" s="4">
+        <f>+J5+1000</f>
+        <v>1588.2860000000001</v>
+      </c>
+      <c r="P5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="4">
+        <f>+N5+4500</f>
+        <v>6088.2860000000001</v>
+      </c>
+      <c r="S5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T5" s="4">
+        <f>+Q5+4500</f>
+        <v>10588.286</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="I6" t="s">
         <v>4</v>
       </c>
@@ -1337,8 +1435,26 @@
       <c r="K6" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="7" spans="2:11" ht="13" x14ac:dyDescent="0.3">
+      <c r="M6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="S6" t="s">
+        <v>4</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" ht="13" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>39</v>
       </c>
@@ -1347,15 +1463,36 @@
       </c>
       <c r="J7" s="4">
         <f>+J4-J5+J6</f>
-        <v>6597.4234939999997</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+        <v>6.3934063999998898</v>
+      </c>
+      <c r="M7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="4">
+        <f>+N4-N5+N6</f>
+        <v>18413.491412750001</v>
+      </c>
+      <c r="P7" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="4">
+        <f>+Q4-Q5+Q6</f>
+        <v>14030.953304999999</v>
+      </c>
+      <c r="S7" t="s">
+        <v>5</v>
+      </c>
+      <c r="T7" s="4">
+        <f>+T4-T5+T6</f>
+        <v>9441.3010929999982</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>36</v>
       </c>
@@ -1368,21 +1505,39 @@
       <c r="K9" s="2">
         <v>45291</v>
       </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N9" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>151</v>
+      </c>
+      <c r="S9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="I10" t="s">
         <v>7</v>
       </c>
       <c r="J10">
         <v>2015</v>
       </c>
-    </row>
-    <row r="11" spans="2:11" ht="13" x14ac:dyDescent="0.3">
+      <c r="N10" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>152</v>
+      </c>
+      <c r="S10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" ht="13" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>33</v>
       </c>
@@ -1396,17 +1551,34 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M14" s="1">
+        <f>14.165708+3.855557</f>
+        <v>18.021265</v>
+      </c>
+      <c r="N14">
+        <v>55.49</v>
+      </c>
+      <c r="O14" s="4">
+        <f>+M14*N14</f>
+        <v>999.99999485000001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>73</v>
       </c>
       <c r="I15" t="s">
         <v>95</v>
+      </c>
+      <c r="M15" s="1">
+        <v>36.042529999999999</v>
+      </c>
+      <c r="N15">
+        <v>99.88</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="13" x14ac:dyDescent="0.3">
@@ -4567,7 +4739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC01137-8B10-454F-89F9-A1E21354E95A}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4669,23 +4841,23 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="19" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="20" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="20" t="s">
+      <c r="B17" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="B18" s="20" t="s">
+      <c r="B18" t="s">
         <v>143</v>
       </c>
       <c r="C18" t="s">

--- a/IONQ.xlsx
+++ b/IONQ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0390A4E1-78DE-47CE-B519-8CE2E26E23C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C8700B-0382-48D6-8AFD-57E54818A153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38360" yWindow="1110" windowWidth="32580" windowHeight="19750" xr2:uid="{AB3C49AB-D501-4FD3-A043-98BB663A0B7E}"/>
+    <workbookView xWindow="55370" yWindow="2390" windowWidth="22230" windowHeight="14240" activeTab="1" xr2:uid="{AB3C49AB-D501-4FD3-A043-98BB663A0B7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -638,9 +638,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
@@ -733,10 +732,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -763,16 +762,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>57945</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>57945</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>97971</xdr:rowOff>
+      <xdr:rowOff>43542</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -787,8 +786,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11290300" y="54429"/>
-          <a:ext cx="0" cy="8831942"/>
+          <a:off x="12579351" y="0"/>
+          <a:ext cx="0" cy="10211480"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1277,7 +1276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BE29629-62F1-4661-9953-74545B1C68EA}">
   <dimension ref="B2:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -1662,11 +1661,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9653554-7BDA-444D-A237-3389B1272280}">
   <dimension ref="A1:DX58"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="CW3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="P41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CW16" sqref="CW16"/>
+      <selection pane="bottomRight" activeCell="S57" sqref="S57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2203,7 +2202,7 @@
       </c>
       <c r="AC7" s="10">
         <f>+AC16-AC8</f>
-        <v>16.122999999999998</v>
+        <v>15.433</v>
       </c>
     </row>
     <row r="8" spans="1:128" x14ac:dyDescent="0.25">
@@ -2265,7 +2264,7 @@
       <c r="B11" t="s">
         <v>100</v>
       </c>
-      <c r="O11" s="18">
+      <c r="O11" s="17">
         <v>0.52</v>
       </c>
       <c r="S11" s="3">
@@ -2382,8 +2381,7 @@
         <v>12.4</v>
       </c>
       <c r="R16" s="14">
-        <f>+Q16</f>
-        <v>12.4</v>
+        <v>11.71</v>
       </c>
       <c r="S16" s="14">
         <v>7.5664999999999996</v>
@@ -2414,311 +2412,311 @@
       </c>
       <c r="AC16" s="13">
         <f>SUM(O16:R16)</f>
-        <v>43.762999999999998</v>
+        <v>43.073</v>
       </c>
       <c r="AD16" s="13">
         <f>+AC16*1.9</f>
-        <v>83.149699999999996</v>
+        <v>81.838700000000003</v>
       </c>
       <c r="AE16" s="13">
         <f>+AD16*1.9</f>
-        <v>157.98442999999997</v>
+        <v>155.49352999999999</v>
       </c>
       <c r="AF16" s="13">
         <f>+AE16*1.9</f>
-        <v>300.17041699999993</v>
+        <v>295.43770699999999</v>
       </c>
       <c r="AG16" s="13">
         <f>+AF16*1.9</f>
-        <v>570.32379229999981</v>
+        <v>561.3316433</v>
       </c>
       <c r="AH16" s="13">
         <f>+AG16*1.9</f>
-        <v>1083.6152053699996</v>
+        <v>1066.53012227</v>
       </c>
       <c r="AI16" s="13">
         <f>+AH16*1.1</f>
-        <v>1191.9767259069997</v>
+        <v>1173.1831344970001</v>
       </c>
       <c r="AJ16" s="13">
         <f t="shared" ref="AJ16:AN16" si="2">+AI16*1.1</f>
-        <v>1311.1743984976997</v>
+        <v>1290.5014479467002</v>
       </c>
       <c r="AK16" s="13">
         <f t="shared" si="2"/>
-        <v>1442.2918383474698</v>
+        <v>1419.5515927413703</v>
       </c>
       <c r="AL16" s="13">
         <f t="shared" si="2"/>
-        <v>1586.5210221822169</v>
+        <v>1561.5067520155076</v>
       </c>
       <c r="AM16" s="13">
         <f t="shared" si="2"/>
-        <v>1745.1731244004388</v>
+        <v>1717.6574272170585</v>
       </c>
       <c r="AN16" s="13">
         <f t="shared" si="2"/>
-        <v>1919.6904368404828</v>
+        <v>1889.4231699387644</v>
       </c>
       <c r="AO16" s="13">
         <f>+AN16*1.1</f>
-        <v>2111.6594805245313</v>
+        <v>2078.365486932641</v>
       </c>
       <c r="AP16" s="13">
         <f t="shared" ref="AP16:DA16" si="3">+AO16*1.1</f>
-        <v>2322.8254285769845</v>
+        <v>2286.2020356259054</v>
       </c>
       <c r="AQ16" s="13">
         <f t="shared" si="3"/>
-        <v>2555.1079714346829</v>
+        <v>2514.822239188496</v>
       </c>
       <c r="AR16" s="13">
         <f t="shared" si="3"/>
-        <v>2810.6187685781515</v>
+        <v>2766.3044631073458</v>
       </c>
       <c r="AS16" s="13">
         <f t="shared" si="3"/>
-        <v>3091.6806454359671</v>
+        <v>3042.9349094180807</v>
       </c>
       <c r="AT16" s="13">
         <f t="shared" si="3"/>
-        <v>3400.8487099795643</v>
+        <v>3347.2284003598888</v>
       </c>
       <c r="AU16" s="13">
         <f t="shared" si="3"/>
-        <v>3740.9335809775212</v>
+        <v>3681.9512403958779</v>
       </c>
       <c r="AV16" s="13">
         <f t="shared" si="3"/>
-        <v>4115.0269390752737</v>
+        <v>4050.1463644354662</v>
       </c>
       <c r="AW16" s="13">
         <f t="shared" si="3"/>
-        <v>4526.5296329828016</v>
+        <v>4455.161000879013</v>
       </c>
       <c r="AX16" s="13">
         <f t="shared" si="3"/>
-        <v>4979.1825962810817</v>
+        <v>4900.6771009669146</v>
       </c>
       <c r="AY16" s="13">
         <f t="shared" si="3"/>
-        <v>5477.1008559091906</v>
+        <v>5390.7448110636069</v>
       </c>
       <c r="AZ16" s="13">
         <f t="shared" si="3"/>
-        <v>6024.8109415001099</v>
+        <v>5929.8192921699683</v>
       </c>
       <c r="BA16" s="13">
         <f t="shared" si="3"/>
-        <v>6627.2920356501218</v>
+        <v>6522.8012213869661</v>
       </c>
       <c r="BB16" s="13">
         <f t="shared" si="3"/>
-        <v>7290.0212392151343</v>
+        <v>7175.0813435256632</v>
       </c>
       <c r="BC16" s="13">
         <f t="shared" si="3"/>
-        <v>8019.0233631366482</v>
+        <v>7892.5894778782304</v>
       </c>
       <c r="BD16" s="13">
         <f t="shared" si="3"/>
-        <v>8820.9256994503139</v>
+        <v>8681.848425666054</v>
       </c>
       <c r="BE16" s="13">
         <f t="shared" si="3"/>
-        <v>9703.0182693953466</v>
+        <v>9550.0332682326607</v>
       </c>
       <c r="BF16" s="13">
         <f t="shared" si="3"/>
-        <v>10673.320096334883</v>
+        <v>10505.036595055928</v>
       </c>
       <c r="BG16" s="13">
         <f t="shared" si="3"/>
-        <v>11740.652105968373</v>
+        <v>11555.540254561522</v>
       </c>
       <c r="BH16" s="13">
         <f t="shared" si="3"/>
-        <v>12914.717316565211</v>
+        <v>12711.094280017674</v>
       </c>
       <c r="BI16" s="13">
         <f t="shared" si="3"/>
-        <v>14206.189048221733</v>
+        <v>13982.203708019442</v>
       </c>
       <c r="BJ16" s="13">
         <f t="shared" si="3"/>
-        <v>15626.807953043908</v>
+        <v>15380.424078821388</v>
       </c>
       <c r="BK16" s="13">
         <f t="shared" si="3"/>
-        <v>17189.4887483483</v>
+        <v>16918.466486703528</v>
       </c>
       <c r="BL16" s="13">
         <f t="shared" si="3"/>
-        <v>18908.43762318313</v>
+        <v>18610.313135373883</v>
       </c>
       <c r="BM16" s="13">
         <f t="shared" si="3"/>
-        <v>20799.281385501446</v>
+        <v>20471.344448911274</v>
       </c>
       <c r="BN16" s="13">
         <f t="shared" si="3"/>
-        <v>22879.209524051592</v>
+        <v>22518.478893802403</v>
       </c>
       <c r="BO16" s="13">
         <f t="shared" si="3"/>
-        <v>25167.130476456754</v>
+        <v>24770.326783182645</v>
       </c>
       <c r="BP16" s="13">
         <f t="shared" si="3"/>
-        <v>27683.843524102431</v>
+        <v>27247.359461500913</v>
       </c>
       <c r="BQ16" s="13">
         <f t="shared" si="3"/>
-        <v>30452.227876512676</v>
+        <v>29972.095407651006</v>
       </c>
       <c r="BR16" s="13">
         <f t="shared" si="3"/>
-        <v>33497.450664163945</v>
+        <v>32969.304948416109</v>
       </c>
       <c r="BS16" s="13">
         <f t="shared" si="3"/>
-        <v>36847.195730580344</v>
+        <v>36266.235443257727</v>
       </c>
       <c r="BT16" s="13">
         <f t="shared" si="3"/>
-        <v>40531.91530363838</v>
+        <v>39892.858987583502</v>
       </c>
       <c r="BU16" s="13">
         <f t="shared" si="3"/>
-        <v>44585.106834002218</v>
+        <v>43882.144886341855</v>
       </c>
       <c r="BV16" s="13">
         <f t="shared" si="3"/>
-        <v>49043.617517402447</v>
+        <v>48270.359374976048</v>
       </c>
       <c r="BW16" s="13">
         <f t="shared" si="3"/>
-        <v>53947.979269142692</v>
+        <v>53097.395312473658</v>
       </c>
       <c r="BX16" s="13">
         <f t="shared" si="3"/>
-        <v>59342.777196056966</v>
+        <v>58407.134843721025</v>
       </c>
       <c r="BY16" s="13">
         <f t="shared" si="3"/>
-        <v>65277.054915662666</v>
+        <v>64247.848328093132</v>
       </c>
       <c r="BZ16" s="13">
         <f t="shared" si="3"/>
-        <v>71804.76040722894</v>
+        <v>70672.633160902449</v>
       </c>
       <c r="CA16" s="13">
         <f t="shared" si="3"/>
-        <v>78985.236447951844</v>
+        <v>77739.896476992697</v>
       </c>
       <c r="CB16" s="13">
         <f t="shared" si="3"/>
-        <v>86883.760092747034</v>
+        <v>85513.88612469197</v>
       </c>
       <c r="CC16" s="13">
         <f t="shared" si="3"/>
-        <v>95572.136102021745</v>
+        <v>94065.274737161177</v>
       </c>
       <c r="CD16" s="13">
         <f t="shared" si="3"/>
-        <v>105129.34971222392</v>
+        <v>103471.8022108773</v>
       </c>
       <c r="CE16" s="13">
         <f t="shared" si="3"/>
-        <v>115642.28468344633</v>
+        <v>113818.98243196504</v>
       </c>
       <c r="CF16" s="13">
         <f t="shared" si="3"/>
-        <v>127206.51315179098</v>
+        <v>125200.88067516155</v>
       </c>
       <c r="CG16" s="13">
         <f t="shared" si="3"/>
-        <v>139927.16446697008</v>
+        <v>137720.96874267771</v>
       </c>
       <c r="CH16" s="13">
         <f t="shared" si="3"/>
-        <v>153919.88091366709</v>
+        <v>151493.0656169455</v>
       </c>
       <c r="CI16" s="13">
         <f t="shared" si="3"/>
-        <v>169311.8690050338</v>
+        <v>166642.37217864007</v>
       </c>
       <c r="CJ16" s="13">
         <f t="shared" si="3"/>
-        <v>186243.05590553721</v>
+        <v>183306.60939650409</v>
       </c>
       <c r="CK16" s="13">
         <f t="shared" si="3"/>
-        <v>204867.36149609095</v>
+        <v>201637.27033615453</v>
       </c>
       <c r="CL16" s="13">
         <f t="shared" si="3"/>
-        <v>225354.09764570007</v>
+        <v>221800.99736976999</v>
       </c>
       <c r="CM16" s="13">
         <f t="shared" si="3"/>
-        <v>247889.5074102701</v>
+        <v>243981.09710674701</v>
       </c>
       <c r="CN16" s="13">
         <f t="shared" si="3"/>
-        <v>272678.45815129712</v>
+        <v>268379.20681742171</v>
       </c>
       <c r="CO16" s="13">
         <f t="shared" si="3"/>
-        <v>299946.30396642687</v>
+        <v>295217.12749916391</v>
       </c>
       <c r="CP16" s="13">
         <f t="shared" si="3"/>
-        <v>329940.93436306959</v>
+        <v>324738.84024908033</v>
       </c>
       <c r="CQ16" s="13">
         <f t="shared" si="3"/>
-        <v>362935.02779937658</v>
+        <v>357212.72427398839</v>
       </c>
       <c r="CR16" s="13">
         <f t="shared" si="3"/>
-        <v>399228.53057931428</v>
+        <v>392933.99670138728</v>
       </c>
       <c r="CS16" s="13">
         <f t="shared" si="3"/>
-        <v>439151.38363724574</v>
+        <v>432227.39637152606</v>
       </c>
       <c r="CT16" s="13">
         <f t="shared" si="3"/>
-        <v>483066.52200097038</v>
+        <v>475450.1360086787</v>
       </c>
       <c r="CU16" s="13">
         <f t="shared" si="3"/>
-        <v>531373.17420106742</v>
+        <v>522995.14960954664</v>
       </c>
       <c r="CV16" s="13">
         <f t="shared" si="3"/>
-        <v>584510.49162117427</v>
+        <v>575294.66457050131</v>
       </c>
       <c r="CW16" s="13">
         <f t="shared" si="3"/>
-        <v>642961.5407832918</v>
+        <v>632824.13102755148</v>
       </c>
       <c r="CX16" s="13">
         <f t="shared" si="3"/>
-        <v>707257.69486162101</v>
+        <v>696106.54413030669</v>
       </c>
       <c r="CY16" s="13">
         <f t="shared" si="3"/>
-        <v>777983.46434778313</v>
+        <v>765717.19854333741</v>
       </c>
       <c r="CZ16" s="13">
         <f t="shared" si="3"/>
-        <v>855781.81078256154</v>
+        <v>842288.91839767119</v>
       </c>
       <c r="DA16" s="13">
         <f t="shared" si="3"/>
-        <v>941359.99186081777</v>
+        <v>926517.81023743842</v>
       </c>
     </row>
     <row r="17" spans="2:77" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -2756,12 +2754,23 @@
         <v>6.5149999999999997</v>
       </c>
       <c r="R17" s="11">
-        <f>+R16*0.5</f>
-        <v>6.2</v>
+        <v>5.0449999999999999</v>
       </c>
       <c r="S17" s="11">
         <v>4.3150000000000004</v>
       </c>
+      <c r="T17" s="10">
+        <f>+T16-T18</f>
+        <v>9</v>
+      </c>
+      <c r="U17" s="10">
+        <f>+U16-U18</f>
+        <v>12.5</v>
+      </c>
+      <c r="V17" s="10">
+        <f>+V16-V18</f>
+        <v>13.5</v>
+      </c>
       <c r="Y17" s="10">
         <v>0.14299999999999999</v>
       </c>
@@ -2776,51 +2785,51 @@
       </c>
       <c r="AC17" s="10">
         <f>SUM(O17:R17)</f>
-        <v>21.751999999999999</v>
+        <v>20.597000000000001</v>
       </c>
       <c r="AD17" s="10">
         <f>+AD16-AD18</f>
-        <v>24.94491</v>
+        <v>24.551610000000004</v>
       </c>
       <c r="AE17" s="10">
         <f t="shared" ref="AE17:AN17" si="4">+AE16-AE18</f>
-        <v>47.395329000000004</v>
+        <v>46.648059000000003</v>
       </c>
       <c r="AF17" s="10">
         <f t="shared" si="4"/>
-        <v>90.051125099999979</v>
+        <v>88.631312100000002</v>
       </c>
       <c r="AG17" s="10">
         <f t="shared" si="4"/>
-        <v>171.09713768999995</v>
+        <v>168.39949299</v>
       </c>
       <c r="AH17" s="10">
         <f t="shared" si="4"/>
-        <v>325.08456161099991</v>
+        <v>319.95903668100004</v>
       </c>
       <c r="AI17" s="10">
         <f t="shared" si="4"/>
-        <v>357.59301777209998</v>
+        <v>351.95494034910007</v>
       </c>
       <c r="AJ17" s="10">
         <f t="shared" si="4"/>
-        <v>393.35231954930998</v>
+        <v>387.15043438401017</v>
       </c>
       <c r="AK17" s="10">
         <f t="shared" si="4"/>
-        <v>432.68755150424101</v>
+        <v>425.86547782241121</v>
       </c>
       <c r="AL17" s="10">
         <f t="shared" si="4"/>
-        <v>475.95630665466524</v>
+        <v>468.45202560465236</v>
       </c>
       <c r="AM17" s="10">
         <f t="shared" si="4"/>
-        <v>523.55193732013163</v>
+        <v>515.29722816511753</v>
       </c>
       <c r="AN17" s="10">
         <f t="shared" si="4"/>
-        <v>575.9071310521449</v>
+        <v>566.82695098162935</v>
       </c>
     </row>
     <row r="18" spans="2:77" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -2864,13 +2873,25 @@
         <v>5.8850000000000007</v>
       </c>
       <c r="R18" s="11">
-        <f t="shared" si="5"/>
-        <v>6.2</v>
+        <f>+R16-R17</f>
+        <v>6.6650000000000009</v>
       </c>
       <c r="S18" s="11">
         <f>+S16-S17</f>
         <v>3.2514999999999992</v>
       </c>
+      <c r="T18" s="10">
+        <f>+T16*0.5</f>
+        <v>9</v>
+      </c>
+      <c r="U18" s="10">
+        <f>+U16*0.5</f>
+        <v>12.5</v>
+      </c>
+      <c r="V18" s="10">
+        <f>+V16*0.5</f>
+        <v>13.5</v>
+      </c>
       <c r="Y18" s="10">
         <f>+Y16-Y17</f>
         <v>-0.14299999999999999</v>
@@ -2889,51 +2910,51 @@
       </c>
       <c r="AC18" s="10">
         <f>+AC16-AC17</f>
-        <v>22.010999999999999</v>
+        <v>22.475999999999999</v>
       </c>
       <c r="AD18" s="10">
         <f>+AD16*0.7</f>
-        <v>58.204789999999996</v>
+        <v>57.287089999999999</v>
       </c>
       <c r="AE18" s="10">
         <f t="shared" ref="AE18:AN18" si="6">+AE16*0.7</f>
-        <v>110.58910099999997</v>
+        <v>108.84547099999999</v>
       </c>
       <c r="AF18" s="10">
         <f t="shared" si="6"/>
-        <v>210.11929189999995</v>
+        <v>206.80639489999999</v>
       </c>
       <c r="AG18" s="10">
         <f t="shared" si="6"/>
-        <v>399.22665460999985</v>
+        <v>392.93215031</v>
       </c>
       <c r="AH18" s="10">
         <f t="shared" si="6"/>
-        <v>758.53064375899964</v>
+        <v>746.57108558899995</v>
       </c>
       <c r="AI18" s="10">
         <f t="shared" si="6"/>
-        <v>834.38370813489973</v>
+        <v>821.22819414790001</v>
       </c>
       <c r="AJ18" s="10">
         <f t="shared" si="6"/>
-        <v>917.82207894838973</v>
+        <v>903.35101356269001</v>
       </c>
       <c r="AK18" s="10">
         <f t="shared" si="6"/>
-        <v>1009.6042868432288</v>
+        <v>993.68611491895911</v>
       </c>
       <c r="AL18" s="10">
         <f t="shared" si="6"/>
-        <v>1110.5647155275517</v>
+        <v>1093.0547264108552</v>
       </c>
       <c r="AM18" s="10">
         <f t="shared" si="6"/>
-        <v>1221.6211870803072</v>
+        <v>1202.360199051941</v>
       </c>
       <c r="AN18" s="10">
         <f t="shared" si="6"/>
-        <v>1343.7833057883379</v>
+        <v>1322.5962189571351</v>
       </c>
     </row>
     <row r="19" spans="2:77" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -2971,12 +2992,23 @@
         <v>33.177999999999997</v>
       </c>
       <c r="R19" s="11">
-        <f t="shared" ref="R19:R20" si="7">+Q19</f>
-        <v>33.177999999999997</v>
+        <v>40.076999999999998</v>
       </c>
       <c r="S19" s="11">
         <v>39.953000000000003</v>
       </c>
+      <c r="T19" s="10">
+        <f>+P19</f>
+        <v>31.204000000000001</v>
+      </c>
+      <c r="U19" s="10">
+        <f>+Q19</f>
+        <v>33.177999999999997</v>
+      </c>
+      <c r="V19" s="10">
+        <f>+R19</f>
+        <v>40.076999999999998</v>
+      </c>
       <c r="Y19" s="10">
         <v>10.157</v>
       </c>
@@ -2990,52 +3022,52 @@
         <v>92.320999999999998</v>
       </c>
       <c r="AC19" s="10">
-        <f t="shared" ref="AC19:AC21" si="8">SUM(O19:R19)</f>
-        <v>129.928</v>
+        <f t="shared" ref="AC19:AC21" si="7">SUM(O19:R19)</f>
+        <v>136.827</v>
       </c>
       <c r="AD19" s="10">
         <f>+AC19*1.05</f>
-        <v>136.42439999999999</v>
+        <v>143.66835</v>
       </c>
       <c r="AE19" s="10">
-        <f t="shared" ref="AE19:AN19" si="9">+AD19*1.05</f>
-        <v>143.24562</v>
+        <f t="shared" ref="AE19:AN19" si="8">+AD19*1.05</f>
+        <v>150.85176750000002</v>
       </c>
       <c r="AF19" s="10">
-        <f t="shared" si="9"/>
-        <v>150.40790100000001</v>
+        <f t="shared" si="8"/>
+        <v>158.39435587500003</v>
       </c>
       <c r="AG19" s="10">
-        <f t="shared" si="9"/>
-        <v>157.92829605000003</v>
+        <f t="shared" si="8"/>
+        <v>166.31407366875004</v>
       </c>
       <c r="AH19" s="10">
-        <f t="shared" si="9"/>
-        <v>165.82471085250003</v>
+        <f t="shared" si="8"/>
+        <v>174.62977735218755</v>
       </c>
       <c r="AI19" s="10">
-        <f t="shared" si="9"/>
-        <v>174.11594639512504</v>
+        <f t="shared" si="8"/>
+        <v>183.36126621979693</v>
       </c>
       <c r="AJ19" s="10">
-        <f t="shared" si="9"/>
-        <v>182.82174371488131</v>
+        <f t="shared" si="8"/>
+        <v>192.52932953078678</v>
       </c>
       <c r="AK19" s="10">
-        <f t="shared" si="9"/>
-        <v>191.96283090062539</v>
+        <f t="shared" si="8"/>
+        <v>202.15579600732613</v>
       </c>
       <c r="AL19" s="10">
-        <f t="shared" si="9"/>
-        <v>201.56097244565666</v>
+        <f t="shared" si="8"/>
+        <v>212.26358580769244</v>
       </c>
       <c r="AM19" s="10">
-        <f t="shared" si="9"/>
-        <v>211.6390210679395</v>
+        <f t="shared" si="8"/>
+        <v>222.87676509807707</v>
       </c>
       <c r="AN19" s="10">
-        <f t="shared" si="9"/>
-        <v>222.22097212133647</v>
+        <f t="shared" si="8"/>
+        <v>234.02060335298094</v>
       </c>
     </row>
     <row r="20" spans="2:77" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -3073,12 +3105,23 @@
         <v>6.63</v>
       </c>
       <c r="R20" s="11">
-        <f t="shared" si="7"/>
-        <v>6.63</v>
+        <v>8.9269999999999996</v>
       </c>
       <c r="S20" s="11">
         <v>8.61</v>
       </c>
+      <c r="T20" s="10">
+        <f>+P20</f>
+        <v>6.1369999999999996</v>
+      </c>
+      <c r="U20" s="10">
+        <f>+Q20</f>
+        <v>6.63</v>
+      </c>
+      <c r="V20" s="10">
+        <f>+R20</f>
+        <v>8.9269999999999996</v>
+      </c>
       <c r="Y20" s="10">
         <v>0.48599999999999999</v>
       </c>
@@ -3092,52 +3135,52 @@
         <v>18.27</v>
       </c>
       <c r="AC20" s="10">
-        <f t="shared" si="8"/>
-        <v>26.097999999999999</v>
+        <f t="shared" si="7"/>
+        <v>28.395</v>
       </c>
       <c r="AD20" s="10">
-        <f t="shared" ref="AD20:AN20" si="10">+AC20*1.05</f>
-        <v>27.402899999999999</v>
+        <f t="shared" ref="AD20:AN20" si="9">+AC20*1.05</f>
+        <v>29.81475</v>
       </c>
       <c r="AE20" s="10">
-        <f t="shared" si="10"/>
-        <v>28.773045</v>
+        <f t="shared" si="9"/>
+        <v>31.305487500000002</v>
       </c>
       <c r="AF20" s="10">
-        <f t="shared" si="10"/>
-        <v>30.21169725</v>
+        <f t="shared" si="9"/>
+        <v>32.870761875000007</v>
       </c>
       <c r="AG20" s="10">
-        <f t="shared" si="10"/>
-        <v>31.7222821125</v>
+        <f t="shared" si="9"/>
+        <v>34.514299968750009</v>
       </c>
       <c r="AH20" s="10">
-        <f t="shared" si="10"/>
-        <v>33.308396218125004</v>
+        <f t="shared" si="9"/>
+        <v>36.240014967187513</v>
       </c>
       <c r="AI20" s="10">
-        <f t="shared" si="10"/>
-        <v>34.973816029031255</v>
+        <f t="shared" si="9"/>
+        <v>38.052015715546887</v>
       </c>
       <c r="AJ20" s="10">
-        <f t="shared" si="10"/>
-        <v>36.722506830482821</v>
+        <f t="shared" si="9"/>
+        <v>39.954616501324232</v>
       </c>
       <c r="AK20" s="10">
-        <f t="shared" si="10"/>
-        <v>38.558632172006966</v>
+        <f t="shared" si="9"/>
+        <v>41.952347326390445</v>
       </c>
       <c r="AL20" s="10">
-        <f t="shared" si="10"/>
-        <v>40.48656378060732</v>
+        <f t="shared" si="9"/>
+        <v>44.04996469270997</v>
       </c>
       <c r="AM20" s="10">
-        <f t="shared" si="10"/>
-        <v>42.51089196963769</v>
+        <f t="shared" si="9"/>
+        <v>46.252462927345469</v>
       </c>
       <c r="AN20" s="10">
-        <f t="shared" si="10"/>
-        <v>44.636436568119578</v>
+        <f t="shared" si="9"/>
+        <v>48.565086073712742</v>
       </c>
     </row>
     <row r="21" spans="2:77" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -3175,11 +3218,22 @@
         <v>14.321999999999999</v>
       </c>
       <c r="R21" s="11">
+        <v>29.66</v>
+      </c>
+      <c r="S21" s="11">
+        <v>23.806000000000001</v>
+      </c>
+      <c r="T21" s="10">
+        <f>+P21</f>
+        <v>14.321999999999999</v>
+      </c>
+      <c r="U21" s="10">
         <f>+Q21</f>
         <v>14.321999999999999</v>
       </c>
-      <c r="S21" s="11">
-        <v>23.806000000000001</v>
+      <c r="V21" s="10">
+        <f>+R21</f>
+        <v>29.66</v>
       </c>
       <c r="Y21" s="10">
         <v>3.5470000000000002</v>
@@ -3194,52 +3248,52 @@
         <v>50.722000000000001</v>
       </c>
       <c r="AC21" s="10">
-        <f t="shared" si="8"/>
-        <v>56.986000000000004</v>
+        <f t="shared" si="7"/>
+        <v>72.323999999999998</v>
       </c>
       <c r="AD21" s="10">
-        <f t="shared" ref="AD21:AN21" si="11">+AC21*1.05</f>
-        <v>59.835300000000004</v>
+        <f t="shared" ref="AD21:AN21" si="10">+AC21*1.05</f>
+        <v>75.940200000000004</v>
       </c>
       <c r="AE21" s="10">
-        <f t="shared" si="11"/>
-        <v>62.827065000000005</v>
+        <f t="shared" si="10"/>
+        <v>79.737210000000005</v>
       </c>
       <c r="AF21" s="10">
-        <f t="shared" si="11"/>
-        <v>65.968418250000013</v>
+        <f t="shared" si="10"/>
+        <v>83.72407050000001</v>
       </c>
       <c r="AG21" s="10">
-        <f t="shared" si="11"/>
-        <v>69.26683916250002</v>
+        <f t="shared" si="10"/>
+        <v>87.910274025000021</v>
       </c>
       <c r="AH21" s="10">
-        <f t="shared" si="11"/>
-        <v>72.730181120625019</v>
+        <f t="shared" si="10"/>
+        <v>92.305787726250031</v>
       </c>
       <c r="AI21" s="10">
-        <f t="shared" si="11"/>
-        <v>76.366690176656277</v>
+        <f t="shared" si="10"/>
+        <v>96.921077112562543</v>
       </c>
       <c r="AJ21" s="10">
-        <f t="shared" si="11"/>
-        <v>80.185024685489097</v>
+        <f t="shared" si="10"/>
+        <v>101.76713096819067</v>
       </c>
       <c r="AK21" s="10">
-        <f t="shared" si="11"/>
-        <v>84.194275919763555</v>
+        <f t="shared" si="10"/>
+        <v>106.85548751660021</v>
       </c>
       <c r="AL21" s="10">
-        <f t="shared" si="11"/>
-        <v>88.403989715751734</v>
+        <f t="shared" si="10"/>
+        <v>112.19826189243022</v>
       </c>
       <c r="AM21" s="10">
-        <f t="shared" si="11"/>
-        <v>92.824189201539326</v>
+        <f t="shared" si="10"/>
+        <v>117.80817498705174</v>
       </c>
       <c r="AN21" s="10">
-        <f t="shared" si="11"/>
-        <v>97.465398661616291</v>
+        <f t="shared" si="10"/>
+        <v>123.69858373640433</v>
       </c>
     </row>
     <row r="22" spans="2:77" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -3255,23 +3309,23 @@
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11">
-        <f t="shared" ref="K22" si="12">SUM(K19:K21)</f>
+        <f t="shared" ref="K22" si="11">SUM(K19:K21)</f>
         <v>29.480999999999998</v>
       </c>
       <c r="L22" s="11">
-        <f t="shared" ref="L22" si="13">SUM(L19:L21)</f>
+        <f t="shared" ref="L22" si="12">SUM(L19:L21)</f>
         <v>34.373999999999995</v>
       </c>
       <c r="M22" s="11">
-        <f t="shared" ref="M22:O22" si="14">SUM(M19:M21)</f>
+        <f t="shared" ref="M22:O22" si="13">SUM(M19:M21)</f>
         <v>43.573</v>
       </c>
       <c r="N22" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>53.884999999999991</v>
       </c>
       <c r="O22" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>53.088999999999999</v>
       </c>
       <c r="P22" s="11">
@@ -3284,15 +3338,24 @@
       </c>
       <c r="R22" s="11">
         <f>SUM(R19:R21)</f>
-        <v>54.129999999999995</v>
+        <v>78.664000000000001</v>
       </c>
       <c r="S22" s="11">
         <f>SUM(S19:S21)</f>
         <v>72.369</v>
       </c>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
+      <c r="T22" s="11">
+        <f t="shared" ref="T22:V22" si="14">SUM(T19:T21)</f>
+        <v>51.662999999999997</v>
+      </c>
+      <c r="U22" s="11">
+        <f t="shared" si="14"/>
+        <v>54.129999999999995</v>
+      </c>
+      <c r="V22" s="11">
+        <f t="shared" si="14"/>
+        <v>78.664000000000001</v>
+      </c>
       <c r="W22" s="11"/>
       <c r="X22" s="11"/>
       <c r="Y22" s="11">
@@ -3313,51 +3376,51 @@
       </c>
       <c r="AC22" s="11">
         <f t="shared" si="16"/>
-        <v>213.012</v>
+        <v>237.54599999999999</v>
       </c>
       <c r="AD22" s="11">
         <f t="shared" ref="AD22" si="17">SUM(AD19:AD21)</f>
-        <v>223.6626</v>
+        <v>249.42330000000001</v>
       </c>
       <c r="AE22" s="11">
         <f t="shared" ref="AE22" si="18">SUM(AE19:AE21)</f>
-        <v>234.84573</v>
+        <v>261.89446500000003</v>
       </c>
       <c r="AF22" s="11">
         <f t="shared" ref="AF22" si="19">SUM(AF19:AF21)</f>
-        <v>246.58801650000004</v>
+        <v>274.98918825000004</v>
       </c>
       <c r="AG22" s="11">
         <f t="shared" ref="AG22" si="20">SUM(AG19:AG21)</f>
-        <v>258.91741732500009</v>
+        <v>288.73864766250006</v>
       </c>
       <c r="AH22" s="11">
         <f t="shared" ref="AH22" si="21">SUM(AH19:AH21)</f>
-        <v>271.86328819125004</v>
+        <v>303.17558004562511</v>
       </c>
       <c r="AI22" s="11">
         <f t="shared" ref="AI22" si="22">SUM(AI19:AI21)</f>
-        <v>285.45645260081255</v>
+        <v>318.33435904790639</v>
       </c>
       <c r="AJ22" s="11">
         <f t="shared" ref="AJ22" si="23">SUM(AJ19:AJ21)</f>
-        <v>299.7292752308532</v>
+        <v>334.25107700030168</v>
       </c>
       <c r="AK22" s="11">
         <f t="shared" ref="AK22" si="24">SUM(AK19:AK21)</f>
-        <v>314.71573899239593</v>
+        <v>350.9636308503168</v>
       </c>
       <c r="AL22" s="11">
         <f t="shared" ref="AL22" si="25">SUM(AL19:AL21)</f>
-        <v>330.45152594201573</v>
+        <v>368.51181239283267</v>
       </c>
       <c r="AM22" s="11">
         <f t="shared" ref="AM22" si="26">SUM(AM19:AM21)</f>
-        <v>346.97410223911652</v>
+        <v>386.93740301247431</v>
       </c>
       <c r="AN22" s="11">
         <f t="shared" ref="AN22" si="27">SUM(AN19:AN21)</f>
-        <v>364.32280735107236</v>
+        <v>406.28427316309802</v>
       </c>
     </row>
     <row r="23" spans="2:77" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -3402,80 +3465,89 @@
       </c>
       <c r="R23" s="11">
         <f>+R18-R22</f>
-        <v>-47.929999999999993</v>
+        <v>-71.998999999999995</v>
       </c>
       <c r="S23" s="11">
         <f>+S18-S22</f>
         <v>-69.117500000000007</v>
       </c>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
+      <c r="T23" s="11">
+        <f t="shared" ref="T23:V23" si="31">+T18-T22</f>
+        <v>-42.662999999999997</v>
+      </c>
+      <c r="U23" s="11">
+        <f t="shared" si="31"/>
+        <v>-41.629999999999995</v>
+      </c>
+      <c r="V23" s="11">
+        <f t="shared" si="31"/>
+        <v>-65.164000000000001</v>
+      </c>
       <c r="W23" s="11"/>
       <c r="X23" s="11"/>
       <c r="Y23" s="11">
-        <f t="shared" ref="Y23:Z23" si="31">+Y18-Y22</f>
+        <f t="shared" ref="Y23:Z23" si="32">+Y18-Y22</f>
         <v>-14.333000000000002</v>
       </c>
       <c r="Z23" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>-36.139000000000003</v>
       </c>
       <c r="AA23" s="11">
-        <f t="shared" ref="AA23:AC23" si="32">+AA18-AA22</f>
+        <f t="shared" ref="AA23:AC23" si="33">+AA18-AA22</f>
         <v>-80.14200000000001</v>
       </c>
       <c r="AB23" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-147.37899999999999</v>
       </c>
       <c r="AC23" s="11">
-        <f t="shared" si="32"/>
-        <v>-191.001</v>
+        <f t="shared" si="33"/>
+        <v>-215.07</v>
       </c>
       <c r="AD23" s="11">
-        <f t="shared" ref="AD23" si="33">+AD18-AD22</f>
-        <v>-165.45780999999999</v>
+        <f t="shared" ref="AD23" si="34">+AD18-AD22</f>
+        <v>-192.13621000000001</v>
       </c>
       <c r="AE23" s="11">
-        <f t="shared" ref="AE23" si="34">+AE18-AE22</f>
-        <v>-124.25662900000003</v>
+        <f t="shared" ref="AE23" si="35">+AE18-AE22</f>
+        <v>-153.04899400000005</v>
       </c>
       <c r="AF23" s="11">
-        <f t="shared" ref="AF23" si="35">+AF18-AF22</f>
-        <v>-36.468724600000087</v>
+        <f t="shared" ref="AF23" si="36">+AF18-AF22</f>
+        <v>-68.182793350000054</v>
       </c>
       <c r="AG23" s="11">
-        <f t="shared" ref="AG23" si="36">+AG18-AG22</f>
-        <v>140.30923728499977</v>
+        <f t="shared" ref="AG23" si="37">+AG18-AG22</f>
+        <v>104.19350264749994</v>
       </c>
       <c r="AH23" s="11">
-        <f t="shared" ref="AH23" si="37">+AH18-AH22</f>
-        <v>486.66735556774961</v>
+        <f t="shared" ref="AH23" si="38">+AH18-AH22</f>
+        <v>443.39550554337484</v>
       </c>
       <c r="AI23" s="11">
-        <f t="shared" ref="AI23" si="38">+AI18-AI22</f>
-        <v>548.92725553408718</v>
+        <f t="shared" ref="AI23" si="39">+AI18-AI22</f>
+        <v>502.89383509999362</v>
       </c>
       <c r="AJ23" s="11">
-        <f t="shared" ref="AJ23" si="39">+AJ18-AJ22</f>
-        <v>618.09280371753653</v>
+        <f t="shared" ref="AJ23" si="40">+AJ18-AJ22</f>
+        <v>569.09993656238839</v>
       </c>
       <c r="AK23" s="11">
-        <f t="shared" ref="AK23" si="40">+AK18-AK22</f>
-        <v>694.88854785083288</v>
+        <f t="shared" ref="AK23" si="41">+AK18-AK22</f>
+        <v>642.7224840686423</v>
       </c>
       <c r="AL23" s="11">
-        <f t="shared" ref="AL23" si="41">+AL18-AL22</f>
-        <v>780.11318958553602</v>
+        <f t="shared" ref="AL23" si="42">+AL18-AL22</f>
+        <v>724.54291401802254</v>
       </c>
       <c r="AM23" s="11">
-        <f t="shared" ref="AM23" si="42">+AM18-AM22</f>
-        <v>874.64708484119069</v>
+        <f t="shared" ref="AM23" si="43">+AM18-AM22</f>
+        <v>815.42279603946668</v>
       </c>
       <c r="AN23" s="11">
-        <f t="shared" ref="AN23" si="43">+AN18-AN22</f>
-        <v>979.46049843726553</v>
+        <f t="shared" ref="AN23" si="44">+AN18-AN22</f>
+        <v>916.311945794037</v>
       </c>
     </row>
     <row r="24" spans="2:77" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -3499,7 +3571,10 @@
       <c r="M24" s="11">
         <v>5.0069999999999997</v>
       </c>
-      <c r="N24" s="11"/>
+      <c r="N24" s="11">
+        <f>5.207-0.235</f>
+        <v>4.9719999999999995</v>
+      </c>
       <c r="O24" s="11">
         <v>4.7990000000000004</v>
       </c>
@@ -3511,15 +3586,27 @@
         <v>4.5229999999999997</v>
       </c>
       <c r="R24" s="11">
-        <f>+Q24</f>
-        <v>4.5229999999999997</v>
+        <f>4.141-0.111</f>
+        <v>4.03</v>
       </c>
       <c r="S24" s="11">
         <v>4.8940000000000001</v>
       </c>
+      <c r="T24" s="10">
+        <f>+S24</f>
+        <v>4.8940000000000001</v>
+      </c>
+      <c r="U24" s="10">
+        <f>+T24</f>
+        <v>4.8940000000000001</v>
+      </c>
+      <c r="V24" s="10">
+        <f>+U24</f>
+        <v>4.8940000000000001</v>
+      </c>
       <c r="AC24" s="10">
-        <f t="shared" ref="AC24" si="44">SUM(O24:R24)</f>
-        <v>18.646000000000001</v>
+        <f t="shared" ref="AC24" si="45">SUM(O24:R24)</f>
+        <v>18.153000000000002</v>
       </c>
     </row>
     <row r="25" spans="2:77" x14ac:dyDescent="0.25">
@@ -3527,11 +3614,11 @@
         <v>59</v>
       </c>
       <c r="K25" s="11">
-        <f t="shared" ref="K25:L25" si="45">+K23+K24</f>
+        <f t="shared" ref="K25:L25" si="46">+K23+K24</f>
         <v>-21.985999999999997</v>
       </c>
       <c r="L25" s="11">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-25.897999999999996</v>
       </c>
       <c r="M25" s="11">
@@ -3539,15 +3626,15 @@
         <v>-34.438000000000002</v>
       </c>
       <c r="N25" s="11">
-        <f t="shared" ref="N25:P25" si="46">+N23+N24</f>
-        <v>-50.941999999999986</v>
+        <f t="shared" ref="N25:P25" si="47">+N23+N24</f>
+        <v>-45.969999999999985</v>
       </c>
       <c r="O25" s="11">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>-44.122</v>
       </c>
       <c r="P25" s="11">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>-41.103999999999992</v>
       </c>
       <c r="Q25" s="11">
@@ -3556,80 +3643,89 @@
       </c>
       <c r="R25" s="11">
         <f>+R23+R24</f>
-        <v>-43.406999999999996</v>
+        <v>-67.968999999999994</v>
       </c>
       <c r="S25" s="11">
         <f>+S23+S24</f>
         <v>-64.223500000000001</v>
       </c>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="11"/>
+      <c r="T25" s="11">
+        <f>+T23+T24</f>
+        <v>-37.768999999999998</v>
+      </c>
+      <c r="U25" s="11">
+        <f>+U23+U24</f>
+        <v>-36.735999999999997</v>
+      </c>
+      <c r="V25" s="11">
+        <f>+V23+V24</f>
+        <v>-60.27</v>
+      </c>
       <c r="W25" s="11"/>
       <c r="X25" s="11"/>
       <c r="Y25" s="11">
-        <f t="shared" ref="Y25:AC25" si="47">+Y23+Y24</f>
+        <f t="shared" ref="Y25:AC25" si="48">+Y23+Y24</f>
         <v>-14.333000000000002</v>
       </c>
       <c r="Z25" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-36.139000000000003</v>
       </c>
       <c r="AA25" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-80.14200000000001</v>
       </c>
       <c r="AB25" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-147.37899999999999</v>
       </c>
       <c r="AC25" s="11">
-        <f t="shared" si="47"/>
-        <v>-172.35500000000002</v>
+        <f t="shared" si="48"/>
+        <v>-196.917</v>
       </c>
       <c r="AD25" s="11">
-        <f t="shared" ref="AD25" si="48">+AD23+AD24</f>
-        <v>-165.45780999999999</v>
+        <f t="shared" ref="AD25" si="49">+AD23+AD24</f>
+        <v>-192.13621000000001</v>
       </c>
       <c r="AE25" s="11">
-        <f t="shared" ref="AE25" si="49">+AE23+AE24</f>
-        <v>-124.25662900000003</v>
+        <f t="shared" ref="AE25" si="50">+AE23+AE24</f>
+        <v>-153.04899400000005</v>
       </c>
       <c r="AF25" s="11">
-        <f t="shared" ref="AF25" si="50">+AF23+AF24</f>
-        <v>-36.468724600000087</v>
+        <f t="shared" ref="AF25" si="51">+AF23+AF24</f>
+        <v>-68.182793350000054</v>
       </c>
       <c r="AG25" s="11">
-        <f t="shared" ref="AG25" si="51">+AG23+AG24</f>
-        <v>140.30923728499977</v>
+        <f t="shared" ref="AG25" si="52">+AG23+AG24</f>
+        <v>104.19350264749994</v>
       </c>
       <c r="AH25" s="11">
-        <f t="shared" ref="AH25" si="52">+AH23+AH24</f>
-        <v>486.66735556774961</v>
+        <f t="shared" ref="AH25" si="53">+AH23+AH24</f>
+        <v>443.39550554337484</v>
       </c>
       <c r="AI25" s="11">
-        <f t="shared" ref="AI25" si="53">+AI23+AI24</f>
-        <v>548.92725553408718</v>
+        <f t="shared" ref="AI25" si="54">+AI23+AI24</f>
+        <v>502.89383509999362</v>
       </c>
       <c r="AJ25" s="11">
-        <f t="shared" ref="AJ25" si="54">+AJ23+AJ24</f>
-        <v>618.09280371753653</v>
+        <f t="shared" ref="AJ25" si="55">+AJ23+AJ24</f>
+        <v>569.09993656238839</v>
       </c>
       <c r="AK25" s="11">
-        <f t="shared" ref="AK25" si="55">+AK23+AK24</f>
-        <v>694.88854785083288</v>
+        <f t="shared" ref="AK25" si="56">+AK23+AK24</f>
+        <v>642.7224840686423</v>
       </c>
       <c r="AL25" s="11">
-        <f t="shared" ref="AL25" si="56">+AL23+AL24</f>
-        <v>780.11318958553602</v>
+        <f t="shared" ref="AL25" si="57">+AL23+AL24</f>
+        <v>724.54291401802254</v>
       </c>
       <c r="AM25" s="11">
-        <f t="shared" ref="AM25" si="57">+AM23+AM24</f>
-        <v>874.64708484119069</v>
+        <f t="shared" ref="AM25" si="58">+AM23+AM24</f>
+        <v>815.42279603946668</v>
       </c>
       <c r="AN25" s="11">
-        <f t="shared" ref="AN25" si="58">+AN23+AN24</f>
-        <v>979.46049843726553</v>
+        <f t="shared" ref="AN25" si="59">+AN23+AN24</f>
+        <v>916.311945794037</v>
       </c>
     </row>
     <row r="26" spans="2:77" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -3653,7 +3749,9 @@
       <c r="M26" s="11">
         <v>0</v>
       </c>
-      <c r="N26" s="11"/>
+      <c r="N26" s="11">
+        <v>-8.9999999999999993E-3</v>
+      </c>
       <c r="O26" s="11">
         <v>0</v>
       </c>
@@ -3669,41 +3767,50 @@
       <c r="S26" s="11">
         <v>0</v>
       </c>
+      <c r="T26" s="10">
+        <v>0</v>
+      </c>
+      <c r="U26" s="10">
+        <v>0</v>
+      </c>
+      <c r="V26" s="10">
+        <v>0</v>
+      </c>
       <c r="AC26" s="10">
-        <f t="shared" ref="AC26" si="59">SUM(O26:R26)</f>
+        <f t="shared" ref="AC26" si="60">SUM(O26:R26)</f>
         <v>0</v>
       </c>
       <c r="AG26" s="10">
         <f>+AG25*0.1</f>
-        <v>14.030923728499978</v>
+        <v>10.419350264749994</v>
       </c>
       <c r="AH26" s="10">
-        <f t="shared" ref="AH26:AN26" si="60">+AH25*0.1</f>
-        <v>48.666735556774967</v>
+        <f t="shared" ref="AH26:AN26" si="61">+AH25*0.1</f>
+        <v>44.339550554337485</v>
       </c>
       <c r="AI26" s="10">
-        <f t="shared" si="60"/>
-        <v>54.892725553408724</v>
+        <f t="shared" si="61"/>
+        <v>50.289383509999368</v>
       </c>
       <c r="AJ26" s="10">
-        <f t="shared" si="60"/>
-        <v>61.809280371753658</v>
+        <f t="shared" si="61"/>
+        <v>56.909993656238839</v>
       </c>
       <c r="AK26" s="10">
-        <f t="shared" si="60"/>
-        <v>69.488854785083291</v>
+        <f t="shared" si="61"/>
+        <v>64.272248406864236</v>
       </c>
       <c r="AL26" s="10">
-        <f t="shared" si="60"/>
-        <v>78.011318958553602</v>
+        <f t="shared" si="61"/>
+        <v>72.454291401802251</v>
       </c>
       <c r="AM26" s="10">
-        <f t="shared" si="60"/>
-        <v>87.464708484119072</v>
+        <f t="shared" si="61"/>
+        <v>81.542279603946668</v>
       </c>
       <c r="AN26" s="10">
-        <f t="shared" si="60"/>
-        <v>97.946049843726556</v>
+        <f t="shared" si="61"/>
+        <v>91.631194579403711</v>
       </c>
     </row>
     <row r="27" spans="2:77" x14ac:dyDescent="0.25">
@@ -3715,253 +3822,262 @@
         <v>-21.985999999999997</v>
       </c>
       <c r="L27" s="11">
-        <f t="shared" ref="L27" si="61">+L25-L26</f>
+        <f t="shared" ref="L27" si="62">+L25-L26</f>
         <v>-25.897999999999996</v>
       </c>
       <c r="M27" s="11">
-        <f t="shared" ref="M27:S27" si="62">+M25-M26</f>
+        <f t="shared" ref="M27:V27" si="63">+M25-M26</f>
         <v>-34.438000000000002</v>
       </c>
       <c r="N27" s="11">
-        <f t="shared" si="62"/>
-        <v>-50.941999999999986</v>
+        <f t="shared" si="63"/>
+        <v>-45.960999999999984</v>
       </c>
       <c r="O27" s="11">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-44.122</v>
       </c>
       <c r="P27" s="11">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-41.103999999999992</v>
       </c>
       <c r="Q27" s="11">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-43.721999999999994</v>
       </c>
       <c r="R27" s="11">
-        <f t="shared" si="62"/>
-        <v>-43.406999999999996</v>
+        <f t="shared" si="63"/>
+        <v>-67.968999999999994</v>
       </c>
       <c r="S27" s="11">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-64.223500000000001</v>
       </c>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="11"/>
+      <c r="T27" s="11">
+        <f t="shared" si="63"/>
+        <v>-37.768999999999998</v>
+      </c>
+      <c r="U27" s="11">
+        <f t="shared" si="63"/>
+        <v>-36.735999999999997</v>
+      </c>
+      <c r="V27" s="11">
+        <f t="shared" si="63"/>
+        <v>-60.27</v>
+      </c>
       <c r="W27" s="11"/>
       <c r="X27" s="11"/>
       <c r="Y27" s="11">
-        <f t="shared" ref="Y27:AC27" si="63">+Y25-Y26</f>
+        <f t="shared" ref="Y27:AC27" si="64">+Y25-Y26</f>
         <v>-14.333000000000002</v>
       </c>
       <c r="Z27" s="11">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>-36.139000000000003</v>
       </c>
       <c r="AA27" s="11">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>-80.14200000000001</v>
       </c>
       <c r="AB27" s="11">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>-147.37899999999999</v>
       </c>
       <c r="AC27" s="11">
-        <f t="shared" si="63"/>
-        <v>-172.35500000000002</v>
+        <f t="shared" si="64"/>
+        <v>-196.917</v>
       </c>
       <c r="AD27" s="11">
-        <f t="shared" ref="AD27" si="64">+AD25-AD26</f>
-        <v>-165.45780999999999</v>
+        <f t="shared" ref="AD27" si="65">+AD25-AD26</f>
+        <v>-192.13621000000001</v>
       </c>
       <c r="AE27" s="11">
-        <f t="shared" ref="AE27" si="65">+AE25-AE26</f>
-        <v>-124.25662900000003</v>
+        <f t="shared" ref="AE27" si="66">+AE25-AE26</f>
+        <v>-153.04899400000005</v>
       </c>
       <c r="AF27" s="11">
-        <f t="shared" ref="AF27" si="66">+AF25-AF26</f>
-        <v>-36.468724600000087</v>
+        <f t="shared" ref="AF27" si="67">+AF25-AF26</f>
+        <v>-68.182793350000054</v>
       </c>
       <c r="AG27" s="11">
-        <f t="shared" ref="AG27" si="67">+AG25-AG26</f>
-        <v>126.2783135564998</v>
+        <f t="shared" ref="AG27" si="68">+AG25-AG26</f>
+        <v>93.774152382749946</v>
       </c>
       <c r="AH27" s="11">
-        <f t="shared" ref="AH27" si="68">+AH25-AH26</f>
-        <v>438.00062001097467</v>
+        <f t="shared" ref="AH27" si="69">+AH25-AH26</f>
+        <v>399.05595498903733</v>
       </c>
       <c r="AI27" s="11">
-        <f t="shared" ref="AI27" si="69">+AI25-AI26</f>
-        <v>494.03452998067849</v>
+        <f t="shared" ref="AI27" si="70">+AI25-AI26</f>
+        <v>452.60445158999426</v>
       </c>
       <c r="AJ27" s="11">
-        <f t="shared" ref="AJ27" si="70">+AJ25-AJ26</f>
-        <v>556.2835233457829</v>
+        <f t="shared" ref="AJ27" si="71">+AJ25-AJ26</f>
+        <v>512.18994290614955</v>
       </c>
       <c r="AK27" s="11">
-        <f t="shared" ref="AK27" si="71">+AK25-AK26</f>
-        <v>625.3996930657496</v>
+        <f t="shared" ref="AK27" si="72">+AK25-AK26</f>
+        <v>578.45023566177804</v>
       </c>
       <c r="AL27" s="11">
-        <f t="shared" ref="AL27" si="72">+AL25-AL26</f>
-        <v>702.10187062698242</v>
+        <f t="shared" ref="AL27" si="73">+AL25-AL26</f>
+        <v>652.08862261622028</v>
       </c>
       <c r="AM27" s="11">
-        <f t="shared" ref="AM27" si="73">+AM25-AM26</f>
-        <v>787.18237635707158</v>
+        <f t="shared" ref="AM27" si="74">+AM25-AM26</f>
+        <v>733.88051643552001</v>
       </c>
       <c r="AN27" s="11">
-        <f t="shared" ref="AN27" si="74">+AN25-AN26</f>
-        <v>881.51444859353899</v>
+        <f t="shared" ref="AN27" si="75">+AN25-AN26</f>
+        <v>824.68075121463335</v>
       </c>
       <c r="AO27" s="11">
         <f>+AN27*(1+$AO$34)</f>
-        <v>872.69930410760355</v>
+        <v>816.433943702487</v>
       </c>
       <c r="AP27" s="11">
-        <f t="shared" ref="AP27:BY27" si="75">+AO27*(1+$AO$34)</f>
-        <v>863.97231106652748</v>
+        <f t="shared" ref="AP27:BY27" si="76">+AO27*(1+$AO$34)</f>
+        <v>808.26960426546214</v>
       </c>
       <c r="AQ27" s="11">
-        <f t="shared" si="75"/>
-        <v>855.33258795586221</v>
+        <f t="shared" si="76"/>
+        <v>800.18690822280746</v>
       </c>
       <c r="AR27" s="11">
-        <f t="shared" si="75"/>
-        <v>846.77926207630355</v>
+        <f t="shared" si="76"/>
+        <v>792.18503914057942</v>
       </c>
       <c r="AS27" s="11">
-        <f t="shared" si="75"/>
-        <v>838.31146945554053</v>
+        <f t="shared" si="76"/>
+        <v>784.26318874917365</v>
       </c>
       <c r="AT27" s="11">
-        <f t="shared" si="75"/>
-        <v>829.92835476098514</v>
+        <f t="shared" si="76"/>
+        <v>776.42055686168192</v>
       </c>
       <c r="AU27" s="11">
-        <f t="shared" si="75"/>
-        <v>821.62907121337525</v>
+        <f t="shared" si="76"/>
+        <v>768.65635129306509</v>
       </c>
       <c r="AV27" s="11">
-        <f t="shared" si="75"/>
-        <v>813.41278050124151</v>
+        <f t="shared" si="76"/>
+        <v>760.96978778013442</v>
       </c>
       <c r="AW27" s="11">
-        <f t="shared" si="75"/>
-        <v>805.27865269622907</v>
+        <f t="shared" si="76"/>
+        <v>753.36008990233313</v>
       </c>
       <c r="AX27" s="11">
-        <f t="shared" si="75"/>
-        <v>797.22586616926674</v>
+        <f t="shared" si="76"/>
+        <v>745.8264890033098</v>
       </c>
       <c r="AY27" s="11">
-        <f t="shared" si="75"/>
-        <v>789.25360750757409</v>
+        <f t="shared" si="76"/>
+        <v>738.36822411327671</v>
       </c>
       <c r="AZ27" s="11">
-        <f t="shared" si="75"/>
-        <v>781.36107143249831</v>
+        <f t="shared" si="76"/>
+        <v>730.98454187214395</v>
       </c>
       <c r="BA27" s="11">
-        <f t="shared" si="75"/>
-        <v>773.54746071817328</v>
+        <f t="shared" si="76"/>
+        <v>723.67469645342248</v>
       </c>
       <c r="BB27" s="11">
-        <f t="shared" si="75"/>
-        <v>765.8119861109916</v>
+        <f t="shared" si="76"/>
+        <v>716.43794948888831</v>
       </c>
       <c r="BC27" s="11">
-        <f t="shared" si="75"/>
-        <v>758.15386624988173</v>
+        <f t="shared" si="76"/>
+        <v>709.27356999399944</v>
       </c>
       <c r="BD27" s="11">
-        <f t="shared" si="75"/>
-        <v>750.57232758738292</v>
+        <f t="shared" si="76"/>
+        <v>702.18083429405942</v>
       </c>
       <c r="BE27" s="11">
-        <f t="shared" si="75"/>
-        <v>743.06660431150908</v>
+        <f t="shared" si="76"/>
+        <v>695.15902595111879</v>
       </c>
       <c r="BF27" s="11">
-        <f t="shared" si="75"/>
-        <v>735.63593826839394</v>
+        <f t="shared" si="76"/>
+        <v>688.20743569160754</v>
       </c>
       <c r="BG27" s="11">
-        <f t="shared" si="75"/>
-        <v>728.27957888570995</v>
+        <f t="shared" si="76"/>
+        <v>681.32536133469148</v>
       </c>
       <c r="BH27" s="11">
-        <f t="shared" si="75"/>
-        <v>720.99678309685282</v>
+        <f t="shared" si="76"/>
+        <v>674.51210772134459</v>
       </c>
       <c r="BI27" s="11">
-        <f t="shared" si="75"/>
-        <v>713.78681526588434</v>
+        <f t="shared" si="76"/>
+        <v>667.76698664413118</v>
       </c>
       <c r="BJ27" s="11">
-        <f t="shared" si="75"/>
-        <v>706.64894711322552</v>
+        <f t="shared" si="76"/>
+        <v>661.08931677768987</v>
       </c>
       <c r="BK27" s="11">
-        <f t="shared" si="75"/>
-        <v>699.58245764209323</v>
+        <f t="shared" si="76"/>
+        <v>654.47842360991297</v>
       </c>
       <c r="BL27" s="11">
-        <f t="shared" si="75"/>
-        <v>692.58663306567234</v>
+        <f t="shared" si="76"/>
+        <v>647.93363937381378</v>
       </c>
       <c r="BM27" s="11">
-        <f t="shared" si="75"/>
-        <v>685.66076673501561</v>
+        <f t="shared" si="76"/>
+        <v>641.45430298007568</v>
       </c>
       <c r="BN27" s="11">
-        <f t="shared" si="75"/>
-        <v>678.80415906766541</v>
+        <f t="shared" si="76"/>
+        <v>635.03975995027497</v>
       </c>
       <c r="BO27" s="11">
-        <f t="shared" si="75"/>
-        <v>672.01611747698871</v>
+        <f t="shared" si="76"/>
+        <v>628.68936235077217</v>
       </c>
       <c r="BP27" s="11">
-        <f t="shared" si="75"/>
-        <v>665.29595630221877</v>
+        <f t="shared" si="76"/>
+        <v>622.40246872726448</v>
       </c>
       <c r="BQ27" s="11">
-        <f t="shared" si="75"/>
-        <v>658.64299673919652</v>
+        <f t="shared" si="76"/>
+        <v>616.17844403999186</v>
       </c>
       <c r="BR27" s="11">
-        <f t="shared" si="75"/>
-        <v>652.05656677180457</v>
+        <f t="shared" si="76"/>
+        <v>610.01665959959189</v>
       </c>
       <c r="BS27" s="11">
-        <f t="shared" si="75"/>
-        <v>645.53600110408649</v>
+        <f t="shared" si="76"/>
+        <v>603.91649300359597</v>
       </c>
       <c r="BT27" s="11">
-        <f t="shared" si="75"/>
-        <v>639.08064109304564</v>
+        <f t="shared" si="76"/>
+        <v>597.87732807355997</v>
       </c>
       <c r="BU27" s="11">
-        <f t="shared" si="75"/>
-        <v>632.68983468211513</v>
+        <f t="shared" si="76"/>
+        <v>591.89855479282437</v>
       </c>
       <c r="BV27" s="11">
-        <f t="shared" si="75"/>
-        <v>626.36293633529397</v>
+        <f t="shared" si="76"/>
+        <v>585.97956924489608</v>
       </c>
       <c r="BW27" s="11">
-        <f t="shared" si="75"/>
-        <v>620.09930697194102</v>
+        <f t="shared" si="76"/>
+        <v>580.1197735524471</v>
       </c>
       <c r="BX27" s="11">
-        <f t="shared" si="75"/>
-        <v>613.89831390222162</v>
+        <f t="shared" si="76"/>
+        <v>574.31857581692259</v>
       </c>
       <c r="BY27" s="11">
-        <f t="shared" si="75"/>
-        <v>607.75933076319939</v>
+        <f t="shared" si="76"/>
+        <v>568.57539005875333</v>
       </c>
     </row>
     <row r="28" spans="2:77" x14ac:dyDescent="0.25">
@@ -3971,101 +4087,113 @@
       <c r="F28" s="12"/>
       <c r="J28" s="12"/>
       <c r="K28" s="12">
-        <f t="shared" ref="K28:S28" si="76">+K27/K29</f>
+        <f t="shared" ref="K28:V28" si="77">+K27/K29</f>
         <v>-0.10986800423191202</v>
       </c>
       <c r="L28" s="12">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>-0.12856976575867524</v>
       </c>
       <c r="M28" s="12">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>-0.16931970672379332</v>
       </c>
-      <c r="N28" s="12" t="e">
-        <f t="shared" si="76"/>
-        <v>#DIV/0!</v>
+      <c r="N28" s="12">
+        <f t="shared" si="77"/>
+        <v>-0.223866675624386</v>
       </c>
       <c r="O28" s="12">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>-0.21196252359231235</v>
       </c>
       <c r="P28" s="12">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>-0.19421890770112599</v>
       </c>
       <c r="Q28" s="12">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>-0.2040175879567338</v>
       </c>
       <c r="R28" s="12">
-        <f t="shared" si="76"/>
-        <v>-0.20254772060834234</v>
+        <f t="shared" si="77"/>
+        <v>-0.31185961190539768</v>
       </c>
       <c r="S28" s="12">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>-0.28074742414506099</v>
       </c>
+      <c r="T28" s="12">
+        <f t="shared" si="77"/>
+        <v>-0.16510388662303996</v>
+      </c>
+      <c r="U28" s="12">
+        <f t="shared" si="77"/>
+        <v>-0.16058821729418296</v>
+      </c>
+      <c r="V28" s="12">
+        <f t="shared" si="77"/>
+        <v>-0.26346504399826898</v>
+      </c>
       <c r="Y28" s="1">
-        <f t="shared" ref="Y28:AB28" si="77">Y27/Y29</f>
+        <f t="shared" ref="Y28:AB28" si="78">Y27/Y29</f>
         <v>-0.12458592650845435</v>
       </c>
       <c r="Z28" s="1">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>-0.26261972091776725</v>
       </c>
       <c r="AA28" s="1"/>
       <c r="AB28" s="1">
-        <f t="shared" si="77"/>
-        <v>-0.73088380714764445</v>
+        <f t="shared" si="78"/>
+        <v>-0.72758198245627148</v>
       </c>
       <c r="AC28" s="1">
         <f>AC27/AC29</f>
-        <v>-0.81260524783208299</v>
+        <v>-0.9244393597940197</v>
       </c>
       <c r="AD28" s="1">
         <f>AD27/AD29</f>
-        <v>-0.78008694091151221</v>
+        <v>-0.90199563758156653</v>
       </c>
       <c r="AE28" s="1">
-        <f t="shared" ref="AE28:AN28" si="78">AE27/AE29</f>
-        <v>-0.58583498478909346</v>
+        <f t="shared" ref="AE28:AN28" si="79">AE27/AE29</f>
+        <v>-0.71849822021703968</v>
       </c>
       <c r="AF28" s="1">
-        <f t="shared" si="78"/>
-        <v>-0.17193975800935887</v>
+        <f t="shared" si="79"/>
+        <v>-0.3200884526650416</v>
       </c>
       <c r="AG28" s="1">
-        <f t="shared" si="78"/>
-        <v>0.59536665767396935</v>
+        <f t="shared" si="79"/>
+        <v>0.44022871257400942</v>
       </c>
       <c r="AH28" s="1">
-        <f t="shared" si="78"/>
-        <v>2.0650494756440141</v>
+        <f t="shared" si="79"/>
+        <v>1.8733935188534094</v>
       </c>
       <c r="AI28" s="1">
-        <f t="shared" si="78"/>
-        <v>2.3292335683476306</v>
+        <f t="shared" si="79"/>
+        <v>2.1247803362217468</v>
       </c>
       <c r="AJ28" s="1">
-        <f t="shared" si="78"/>
-        <v>2.6227200275785685</v>
+        <f t="shared" si="79"/>
+        <v>2.4045082086010674</v>
       </c>
       <c r="AK28" s="1">
-        <f t="shared" si="78"/>
-        <v>2.9485832878524096</v>
+        <f t="shared" si="79"/>
+        <v>2.7155713601561771</v>
       </c>
       <c r="AL28" s="1">
-        <f t="shared" si="78"/>
-        <v>3.3102124370294339</v>
+        <f t="shared" si="79"/>
+        <v>3.0612714434015489</v>
       </c>
       <c r="AM28" s="1">
-        <f t="shared" si="78"/>
-        <v>3.7113430421437505</v>
+        <f t="shared" si="79"/>
+        <v>3.4452486823329456</v>
       </c>
       <c r="AN28" s="1">
-        <f t="shared" si="78"/>
-        <v>4.1560921758400662</v>
+        <f t="shared" si="79"/>
+        <v>3.8715161498870434</v>
       </c>
     </row>
     <row r="29" spans="2:77" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -4089,7 +4217,9 @@
       <c r="M29" s="11">
         <v>203.39038300000001</v>
       </c>
-      <c r="N29" s="11"/>
+      <c r="N29" s="11">
+        <v>205.30523299999999</v>
+      </c>
       <c r="O29" s="11">
         <v>208.15943899999999</v>
       </c>
@@ -4100,12 +4230,23 @@
         <v>214.30505299999999</v>
       </c>
       <c r="R29" s="11">
-        <f>+Q29</f>
-        <v>214.30505299999999</v>
+        <v>217.947427</v>
       </c>
       <c r="S29" s="11">
         <v>228.75899999999999</v>
       </c>
+      <c r="T29" s="10">
+        <f>+S29</f>
+        <v>228.75899999999999</v>
+      </c>
+      <c r="U29" s="10">
+        <f>+T29</f>
+        <v>228.75899999999999</v>
+      </c>
+      <c r="V29" s="10">
+        <f>+U29</f>
+        <v>228.75899999999999</v>
+      </c>
       <c r="Y29" s="10">
         <v>115.045097</v>
       </c>
@@ -4114,55 +4255,55 @@
       </c>
       <c r="AB29" s="10">
         <f>AVERAGE(K29:N29)</f>
-        <v>201.64491066666668</v>
+        <v>202.55999125</v>
       </c>
       <c r="AC29" s="10">
         <f>AVERAGE(O29:R29)</f>
-        <v>212.10175600000002</v>
+        <v>213.01234950000003</v>
       </c>
       <c r="AD29" s="10">
         <f>+AC29</f>
-        <v>212.10175600000002</v>
+        <v>213.01234950000003</v>
       </c>
       <c r="AE29" s="10">
-        <f t="shared" ref="AE29:AN29" si="79">+AD29</f>
-        <v>212.10175600000002</v>
+        <f t="shared" ref="AE29:AN29" si="80">+AD29</f>
+        <v>213.01234950000003</v>
       </c>
       <c r="AF29" s="10">
-        <f t="shared" si="79"/>
-        <v>212.10175600000002</v>
+        <f t="shared" si="80"/>
+        <v>213.01234950000003</v>
       </c>
       <c r="AG29" s="10">
-        <f t="shared" si="79"/>
-        <v>212.10175600000002</v>
+        <f t="shared" si="80"/>
+        <v>213.01234950000003</v>
       </c>
       <c r="AH29" s="10">
-        <f t="shared" si="79"/>
-        <v>212.10175600000002</v>
+        <f t="shared" si="80"/>
+        <v>213.01234950000003</v>
       </c>
       <c r="AI29" s="10">
-        <f t="shared" si="79"/>
-        <v>212.10175600000002</v>
+        <f t="shared" si="80"/>
+        <v>213.01234950000003</v>
       </c>
       <c r="AJ29" s="10">
-        <f t="shared" si="79"/>
-        <v>212.10175600000002</v>
+        <f t="shared" si="80"/>
+        <v>213.01234950000003</v>
       </c>
       <c r="AK29" s="10">
-        <f t="shared" si="79"/>
-        <v>212.10175600000002</v>
+        <f t="shared" si="80"/>
+        <v>213.01234950000003</v>
       </c>
       <c r="AL29" s="10">
-        <f t="shared" si="79"/>
-        <v>212.10175600000002</v>
+        <f t="shared" si="80"/>
+        <v>213.01234950000003</v>
       </c>
       <c r="AM29" s="10">
-        <f t="shared" si="79"/>
-        <v>212.10175600000002</v>
+        <f t="shared" si="80"/>
+        <v>213.01234950000003</v>
       </c>
       <c r="AN29" s="10">
-        <f t="shared" si="79"/>
-        <v>212.10175600000002</v>
+        <f t="shared" si="80"/>
+        <v>213.01234950000003</v>
       </c>
     </row>
     <row r="30" spans="2:77" x14ac:dyDescent="0.25">
@@ -4172,19 +4313,42 @@
       <c r="AA30" s="4"/>
       <c r="AB30" s="4"/>
     </row>
-    <row r="31" spans="2:77" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:77" ht="13" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>96</v>
       </c>
       <c r="M31" s="11"/>
-      <c r="Q31" s="11"/>
-      <c r="S31" s="17">
+      <c r="O31" s="18">
+        <f>+O16/K16-1</f>
+        <v>0.7632558139534884</v>
+      </c>
+      <c r="P31" s="18">
+        <f>+P16/L16-1</f>
+        <v>1.0692727272727272</v>
+      </c>
+      <c r="Q31" s="18">
+        <f>+Q16/M16-1</f>
+        <v>1.0208604954367666</v>
+      </c>
+      <c r="R31" s="18">
+        <f>+R16/N16-1</f>
+        <v>0.91778578447428694</v>
+      </c>
+      <c r="S31" s="18">
         <f>+S16/O16-1</f>
         <v>-2.0443154840411593E-3</v>
       </c>
-      <c r="T31" s="17">
+      <c r="T31" s="16">
         <f>+T16/P16-1</f>
         <v>0.58158334065547845</v>
+      </c>
+      <c r="U31" s="16">
+        <f>+U16/Q16-1</f>
+        <v>1.0161290322580645</v>
+      </c>
+      <c r="V31" s="16">
+        <f>+V16/R16-1</f>
+        <v>1.3057216054654139</v>
       </c>
       <c r="AA31" s="4"/>
       <c r="AB31" s="4"/>
@@ -4193,9 +4357,37 @@
       <c r="B32" s="10" t="s">
         <v>11</v>
       </c>
+      <c r="K32" s="16">
+        <f t="shared" ref="K32:O32" si="81">+K18/K16</f>
+        <v>0.7590697674418605</v>
+      </c>
+      <c r="L32" s="16">
+        <f t="shared" si="81"/>
+        <v>0.65436363636363637</v>
+      </c>
+      <c r="M32" s="16">
+        <f t="shared" si="81"/>
+        <v>0.67275097783572357</v>
+      </c>
+      <c r="N32" s="16">
+        <f t="shared" si="81"/>
+        <v>0.48198493285293165</v>
+      </c>
       <c r="O32" s="16">
         <f>+O18/O16</f>
         <v>0.54972302822474273</v>
+      </c>
+      <c r="P32" s="16">
+        <f>+P18/P16</f>
+        <v>0.50593093752745799</v>
+      </c>
+      <c r="Q32" s="16">
+        <f>+Q18/Q16</f>
+        <v>0.47459677419354845</v>
+      </c>
+      <c r="R32" s="16">
+        <f>+R18/R16</f>
+        <v>0.56917164816396248</v>
       </c>
       <c r="S32" s="16">
         <f>+S18/S16</f>
@@ -4247,7 +4439,7 @@
       </c>
       <c r="AO35" s="4">
         <f>NPV(AO32,AD27:BY27)</f>
-        <v>2406.7362013427078</v>
+        <v>2138.2325016748337</v>
       </c>
     </row>
     <row r="36" spans="2:41" x14ac:dyDescent="0.25">
@@ -4256,7 +4448,7 @@
       </c>
       <c r="AO36" s="1">
         <f>AO35/Main!J3</f>
-        <v>9.7130770311848806</v>
+        <v>8.6294530276163961</v>
       </c>
     </row>
     <row r="41" spans="2:41" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -4281,8 +4473,14 @@
         <f>30.172+335.538+17.131</f>
         <v>382.84100000000001</v>
       </c>
-      <c r="R41" s="8"/>
-      <c r="S41" s="8"/>
+      <c r="R41" s="8">
+        <f>54.393+285.896+23.545</f>
+        <v>363.834</v>
+      </c>
+      <c r="S41" s="8">
+        <f>159.681+428.605+108.861</f>
+        <v>697.14700000000005</v>
+      </c>
     </row>
     <row r="42" spans="2:41" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="7" t="s">
@@ -4305,8 +4503,12 @@
       <c r="Q42" s="8">
         <v>4.1369999999999996</v>
       </c>
-      <c r="R42" s="8"/>
-      <c r="S42" s="8"/>
+      <c r="R42" s="8">
+        <v>10.188000000000001</v>
+      </c>
+      <c r="S42" s="8">
+        <v>9.4710000000000001</v>
+      </c>
     </row>
     <row r="43" spans="2:41" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="s">
@@ -4329,8 +4531,12 @@
       <c r="Q43" s="8">
         <v>25.553000000000001</v>
       </c>
-      <c r="R43" s="8"/>
-      <c r="S43" s="8"/>
+      <c r="R43" s="8">
+        <v>28.324999999999999</v>
+      </c>
+      <c r="S43" s="8">
+        <v>39.226999999999997</v>
+      </c>
     </row>
     <row r="44" spans="2:41" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="7" t="s">
@@ -4353,8 +4559,12 @@
       <c r="Q44" s="8">
         <v>49.454000000000001</v>
       </c>
-      <c r="R44" s="8"/>
-      <c r="S44" s="8"/>
+      <c r="R44" s="8">
+        <v>52.761000000000003</v>
+      </c>
+      <c r="S44" s="8">
+        <v>51.643999999999998</v>
+      </c>
     </row>
     <row r="45" spans="2:41" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="7" t="s">
@@ -4377,8 +4587,12 @@
       <c r="Q45" s="8">
         <v>10.029</v>
       </c>
-      <c r="R45" s="8"/>
-      <c r="S45" s="8"/>
+      <c r="R45" s="8">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="S45" s="8">
+        <v>9.2319999999999993</v>
+      </c>
     </row>
     <row r="46" spans="2:41" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="s">
@@ -4402,8 +4616,14 @@
         <f>17.487+0.727</f>
         <v>18.213999999999999</v>
       </c>
-      <c r="R46" s="8"/>
-      <c r="S46" s="8"/>
+      <c r="R46" s="8">
+        <f>29.469+9.904</f>
+        <v>39.373000000000005</v>
+      </c>
+      <c r="S46" s="8">
+        <f>28.216+10.669</f>
+        <v>38.885000000000005</v>
+      </c>
     </row>
     <row r="47" spans="2:41" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="7" t="s">
@@ -4426,8 +4646,12 @@
       <c r="Q47" s="8">
         <v>7.6829999999999998</v>
       </c>
-      <c r="R47" s="8"/>
-      <c r="S47" s="8"/>
+      <c r="R47" s="8">
+        <v>4.4370000000000003</v>
+      </c>
+      <c r="S47" s="8">
+        <v>4.468</v>
+      </c>
     </row>
     <row r="48" spans="2:41" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="7" t="s">
@@ -4451,8 +4675,14 @@
         <f>SUM(Q41:Q47)</f>
         <v>497.911</v>
       </c>
-      <c r="R48" s="8"/>
-      <c r="S48" s="8"/>
+      <c r="R48" s="8">
+        <f>SUM(R41:R47)</f>
+        <v>508.38800000000003</v>
+      </c>
+      <c r="S48" s="8">
+        <f>SUM(S41:S47)</f>
+        <v>850.07399999999996</v>
+      </c>
     </row>
     <row r="50" spans="2:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="4" t="s">
@@ -4475,8 +4705,12 @@
       <c r="Q50" s="9">
         <v>4.8540000000000001</v>
       </c>
-      <c r="R50" s="9"/>
-      <c r="S50" s="9"/>
+      <c r="R50" s="9">
+        <v>5.23</v>
+      </c>
+      <c r="S50" s="9">
+        <v>8.7520000000000007</v>
+      </c>
     </row>
     <row r="51" spans="2:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="4" t="s">
@@ -4499,8 +4733,12 @@
       <c r="Q51" s="9">
         <v>15.657</v>
       </c>
-      <c r="R51" s="9"/>
-      <c r="S51" s="9"/>
+      <c r="R51" s="9">
+        <v>16.423999999999999</v>
+      </c>
+      <c r="S51" s="9">
+        <v>23.594999999999999</v>
+      </c>
     </row>
     <row r="52" spans="2:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
@@ -4524,8 +4762,14 @@
         <f>3.089+15.214</f>
         <v>18.303000000000001</v>
       </c>
-      <c r="R52" s="9"/>
-      <c r="S52" s="9"/>
+      <c r="R52" s="9">
+        <f>3.366+14.359</f>
+        <v>17.725000000000001</v>
+      </c>
+      <c r="S52" s="9">
+        <f>3.621+13.739</f>
+        <v>17.36</v>
+      </c>
     </row>
     <row r="53" spans="2:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
@@ -4549,8 +4793,12 @@
         <f>8.332+0.06</f>
         <v>8.3920000000000012</v>
       </c>
-      <c r="R53" s="9"/>
-      <c r="S53" s="9"/>
+      <c r="R53" s="9">
+        <v>10.678000000000001</v>
+      </c>
+      <c r="S53" s="9">
+        <v>12.061</v>
+      </c>
     </row>
     <row r="54" spans="2:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
@@ -4574,8 +4822,12 @@
         <f>0.392+0.154</f>
         <v>0.54600000000000004</v>
       </c>
-      <c r="R54" s="9"/>
-      <c r="S54" s="9"/>
+      <c r="R54" s="9">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="S54" s="9">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="55" spans="2:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="4" t="s">
@@ -4598,8 +4850,12 @@
       <c r="Q55" s="9">
         <v>11.606999999999999</v>
       </c>
-      <c r="R55" s="9"/>
-      <c r="S55" s="9"/>
+      <c r="R55" s="9">
+        <v>70.688000000000002</v>
+      </c>
+      <c r="S55" s="9">
+        <v>21.241</v>
+      </c>
     </row>
     <row r="56" spans="2:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="4" t="s">
@@ -4622,8 +4878,12 @@
       <c r="Q56" s="9">
         <v>2.8690000000000002</v>
       </c>
-      <c r="R56" s="9"/>
-      <c r="S56" s="9"/>
+      <c r="R56" s="9">
+        <v>3.3330000000000002</v>
+      </c>
+      <c r="S56" s="9">
+        <v>1.667</v>
+      </c>
     </row>
     <row r="57" spans="2:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="4" t="s">
@@ -4646,8 +4906,12 @@
       <c r="Q57" s="9">
         <v>435.68299999999999</v>
       </c>
-      <c r="R57" s="9"/>
-      <c r="S57" s="9"/>
+      <c r="R57" s="9">
+        <v>383.86200000000002</v>
+      </c>
+      <c r="S57" s="9">
+        <v>765.048</v>
+      </c>
     </row>
     <row r="58" spans="2:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="4" t="s">
@@ -4671,8 +4935,14 @@
         <f>SUM(Q50:Q57)</f>
         <v>497.911</v>
       </c>
-      <c r="R58" s="9"/>
-      <c r="S58" s="9"/>
+      <c r="R58" s="9">
+        <f>SUM(R50:R57)</f>
+        <v>508.00100000000003</v>
+      </c>
+      <c r="S58" s="9">
+        <f>SUM(S50:S57)</f>
+        <v>850.07400000000007</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
